--- a/data/input_data_US_group1.xlsx
+++ b/data/input_data_US_group1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.walsh\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BDC8B1-922A-47A8-A538-A68635A6DE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8AFAF9-59D9-4B23-BF79-5B86238318E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-7380" windowWidth="29040" windowHeight="15840" tabRatio="839" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="104">
   <si>
     <t>0-4</t>
   </si>
@@ -414,22 +414,7 @@
     <t>Stay-at-home order lifted 2</t>
   </si>
   <si>
-    <t>relax_3</t>
-  </si>
-  <si>
     <t>Stay-at-home order lifted 3</t>
-  </si>
-  <si>
-    <t>relax_4</t>
-  </si>
-  <si>
-    <t>Stay-at-home order lifted 4</t>
-  </si>
-  <si>
-    <t>relax_5</t>
-  </si>
-  <si>
-    <t>Stay-at-home order lifted 5</t>
   </si>
   <si>
     <t>Stay-at-home order lifted</t>
@@ -457,6 +442,9 @@
   </si>
   <si>
     <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Miami</t>
   </si>
 </sst>
 </file>
@@ -830,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -942,10 +930,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -958,6 +946,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,9 +964,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,6 +987,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1365,10 +1354,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="B28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1376,8 @@
     <col min="14" max="14" width="11.5703125" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="19" width="11.140625" customWidth="1"/>
+    <col min="17" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1978,7 +1968,7 @@
         <v>9861</v>
       </c>
       <c r="S10">
-        <f>SUM(C10:R10)</f>
+        <f t="shared" ref="S10:S17" si="1">SUM(C10:R10)</f>
         <v>155888</v>
       </c>
     </row>
@@ -2036,13 +2026,13 @@
         <v>6085</v>
       </c>
       <c r="S11">
-        <f>SUM(C11:R11)</f>
+        <f t="shared" si="1"/>
         <v>146734</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>19</v>
@@ -2096,7 +2086,7 @@
         <v>7628</v>
       </c>
       <c r="S12">
-        <f>SUM(C12:R12)</f>
+        <f t="shared" si="1"/>
         <v>144585</v>
       </c>
     </row>
@@ -2154,13 +2144,13 @@
         <v>5632</v>
       </c>
       <c r="S13">
-        <f>SUM(C13:R13)</f>
+        <f t="shared" si="1"/>
         <v>129912</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>107</v>
+      <c r="A14" s="58" t="s">
+        <v>102</v>
       </c>
       <c r="B14" s="56" t="s">
         <v>19</v>
@@ -2214,13 +2204,13 @@
         <v>130657</v>
       </c>
       <c r="S14">
-        <f>SUM(C14:R14)</f>
+        <f t="shared" si="1"/>
         <v>1995183</v>
       </c>
       <c r="T14" s="42"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="56" t="s">
         <v>20</v>
       </c>
@@ -2274,1044 +2264,1392 @@
         <v>86160</v>
       </c>
       <c r="S15">
-        <f>SUM(C15:R15)</f>
+        <f t="shared" si="1"/>
         <v>1995286</v>
       </c>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="76">
+        <v>11190</v>
+      </c>
+      <c r="D16" s="76">
+        <v>10925</v>
+      </c>
+      <c r="E16" s="76">
+        <v>9763</v>
+      </c>
+      <c r="F16" s="76">
+        <v>9449</v>
+      </c>
+      <c r="G16" s="76">
+        <v>11516</v>
+      </c>
+      <c r="H16" s="76">
+        <v>18407</v>
+      </c>
+      <c r="I16" s="76">
+        <v>21442</v>
+      </c>
+      <c r="J16" s="76">
+        <v>17654</v>
+      </c>
+      <c r="K16" s="76">
+        <v>14591</v>
+      </c>
+      <c r="L16" s="76">
+        <v>17675</v>
+      </c>
+      <c r="M16" s="76">
+        <v>17937</v>
+      </c>
+      <c r="N16" s="76">
+        <v>14540</v>
+      </c>
+      <c r="O16" s="76">
+        <v>13726</v>
+      </c>
+      <c r="P16" s="76">
+        <v>13237</v>
+      </c>
+      <c r="Q16" s="76">
+        <v>9593</v>
+      </c>
+      <c r="R16" s="76">
+        <v>25413</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>237058</v>
+      </c>
+      <c r="T16" s="76"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="76">
+        <v>15758</v>
+      </c>
+      <c r="D17" s="76">
+        <v>10875</v>
+      </c>
+      <c r="E17" s="76">
+        <v>12121</v>
+      </c>
+      <c r="F17" s="76">
+        <v>10121</v>
+      </c>
+      <c r="G17" s="76">
+        <v>12243</v>
+      </c>
+      <c r="H17" s="76">
+        <v>19565</v>
+      </c>
+      <c r="I17" s="76">
+        <v>21542</v>
+      </c>
+      <c r="J17" s="76">
+        <v>19568</v>
+      </c>
+      <c r="K17" s="76">
+        <v>15402</v>
+      </c>
+      <c r="L17" s="76">
+        <v>19556</v>
+      </c>
+      <c r="M17" s="76">
+        <v>16550</v>
+      </c>
+      <c r="N17" s="76">
+        <v>13954</v>
+      </c>
+      <c r="O17" s="76">
+        <v>11818</v>
+      </c>
+      <c r="P17" s="76">
+        <v>10122</v>
+      </c>
+      <c r="Q17" s="76">
+        <v>8171</v>
+      </c>
+      <c r="R17" s="76">
+        <v>16487</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>233853</v>
+      </c>
+      <c r="T17" s="76"/>
+      <c r="U17" s="42"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
         <v>82</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="42">
-        <f t="shared" ref="C16:S16" si="1">C2+C3</f>
-        <v>3797</v>
-      </c>
-      <c r="D16" s="42">
-        <f t="shared" si="1"/>
-        <v>3828</v>
-      </c>
-      <c r="E16" s="42">
-        <f t="shared" si="1"/>
-        <v>3632</v>
-      </c>
-      <c r="F16" s="42">
-        <f t="shared" si="1"/>
-        <v>7057</v>
-      </c>
-      <c r="G16" s="42">
-        <f t="shared" si="1"/>
-        <v>11897</v>
-      </c>
-      <c r="H16" s="42">
-        <f t="shared" si="1"/>
-        <v>4342</v>
-      </c>
-      <c r="I16" s="42">
-        <f t="shared" si="1"/>
-        <v>4342</v>
-      </c>
-      <c r="J16" s="42">
-        <f t="shared" si="1"/>
-        <v>3228</v>
-      </c>
-      <c r="K16" s="42">
-        <f t="shared" si="1"/>
-        <v>3228</v>
-      </c>
-      <c r="L16" s="42">
-        <f t="shared" si="1"/>
-        <v>2285</v>
-      </c>
-      <c r="M16" s="42">
-        <f t="shared" si="1"/>
-        <v>2285</v>
-      </c>
-      <c r="N16" s="42">
-        <f t="shared" si="1"/>
-        <v>1611</v>
-      </c>
-      <c r="O16" s="42">
-        <f t="shared" si="1"/>
-        <v>1341</v>
-      </c>
-      <c r="P16" s="42">
-        <f t="shared" si="1"/>
-        <v>811</v>
-      </c>
-      <c r="Q16" s="42">
-        <f t="shared" si="1"/>
-        <v>811</v>
-      </c>
-      <c r="R16" s="42">
-        <f t="shared" si="1"/>
-        <v>1590</v>
-      </c>
-      <c r="S16" s="42">
-        <f t="shared" si="1"/>
-        <v>56085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="42">
-        <f>C16/$S$16</f>
-        <v>6.7700811268610148E-2</v>
-      </c>
-      <c r="D17" s="42">
-        <f>D16/$S$16</f>
-        <v>6.8253543728269597E-2</v>
-      </c>
-      <c r="E17" s="42">
-        <f t="shared" ref="E17:S17" si="2">E16/$S$16</f>
-        <v>6.4758848176874384E-2</v>
-      </c>
-      <c r="F17" s="42">
-        <f t="shared" si="2"/>
-        <v>0.12582686992957118</v>
-      </c>
-      <c r="G17" s="42">
-        <f t="shared" si="2"/>
-        <v>0.2121244539538201</v>
-      </c>
-      <c r="H17" s="42">
-        <f t="shared" si="2"/>
-        <v>7.7418204511010072E-2</v>
-      </c>
-      <c r="I17" s="42">
-        <f t="shared" si="2"/>
-        <v>7.7418204511010072E-2</v>
-      </c>
-      <c r="J17" s="42">
-        <f t="shared" si="2"/>
-        <v>5.755549612195774E-2</v>
-      </c>
-      <c r="K17" s="42">
-        <f t="shared" si="2"/>
-        <v>5.755549612195774E-2</v>
-      </c>
-      <c r="L17" s="42">
-        <f t="shared" si="2"/>
-        <v>4.0741731300704291E-2</v>
-      </c>
-      <c r="M17" s="42">
-        <f t="shared" si="2"/>
-        <v>4.0741731300704291E-2</v>
-      </c>
-      <c r="N17" s="42">
-        <f t="shared" si="2"/>
-        <v>2.8724257822947311E-2</v>
-      </c>
-      <c r="O17" s="42">
-        <f t="shared" si="2"/>
-        <v>2.3910136400106981E-2</v>
-      </c>
-      <c r="P17" s="42">
-        <f t="shared" si="2"/>
-        <v>1.4460194347864847E-2</v>
-      </c>
-      <c r="Q17" s="42">
-        <f t="shared" si="2"/>
-        <v>1.4460194347864847E-2</v>
-      </c>
-      <c r="R17" s="42">
-        <f t="shared" si="2"/>
-        <v>2.8349826156726397E-2</v>
-      </c>
-      <c r="S17" s="42">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
-        <v>83</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="42">
-        <f t="shared" ref="C18:S18" si="3">C4+C5</f>
-        <v>16361.22</v>
+        <f t="shared" ref="C18:S18" si="2">C2+C3</f>
+        <v>3797</v>
       </c>
       <c r="D18" s="42">
-        <f t="shared" si="3"/>
-        <v>16361.22</v>
+        <f t="shared" si="2"/>
+        <v>3828</v>
       </c>
       <c r="E18" s="42">
-        <f t="shared" si="3"/>
-        <v>18053.760000000002</v>
+        <f t="shared" si="2"/>
+        <v>3632</v>
       </c>
       <c r="F18" s="42">
-        <f t="shared" si="3"/>
-        <v>17489.580000000002</v>
+        <f t="shared" si="2"/>
+        <v>7057</v>
       </c>
       <c r="G18" s="42">
-        <f t="shared" si="3"/>
-        <v>17489.580000000002</v>
+        <f t="shared" si="2"/>
+        <v>11897</v>
       </c>
       <c r="H18" s="42">
-        <f t="shared" si="3"/>
-        <v>18194.805</v>
+        <f t="shared" si="2"/>
+        <v>4342</v>
       </c>
       <c r="I18" s="42">
-        <f t="shared" si="3"/>
-        <v>18194.805</v>
+        <f t="shared" si="2"/>
+        <v>4342</v>
       </c>
       <c r="J18" s="42">
-        <f t="shared" si="3"/>
-        <v>18194.805</v>
+        <f t="shared" si="2"/>
+        <v>3228</v>
       </c>
       <c r="K18" s="42">
-        <f t="shared" si="3"/>
-        <v>18194.805</v>
+        <f t="shared" si="2"/>
+        <v>3228</v>
       </c>
       <c r="L18" s="42">
-        <f t="shared" si="3"/>
-        <v>19464.210000000003</v>
+        <f t="shared" si="2"/>
+        <v>2285</v>
       </c>
       <c r="M18" s="42">
-        <f t="shared" si="3"/>
-        <v>19464.210000000003</v>
+        <f t="shared" si="2"/>
+        <v>2285</v>
       </c>
       <c r="N18" s="42">
-        <f t="shared" si="3"/>
-        <v>20028.39</v>
+        <f t="shared" si="2"/>
+        <v>1611</v>
       </c>
       <c r="O18" s="42">
-        <f t="shared" si="3"/>
-        <v>18617.940000000002</v>
+        <f t="shared" si="2"/>
+        <v>1341</v>
       </c>
       <c r="P18" s="42">
-        <f t="shared" si="3"/>
-        <v>12835.094999999999</v>
+        <f t="shared" si="2"/>
+        <v>811</v>
       </c>
       <c r="Q18" s="42">
-        <f t="shared" si="3"/>
-        <v>12835.094999999999</v>
+        <f t="shared" si="2"/>
+        <v>811</v>
       </c>
       <c r="R18" s="42">
-        <f t="shared" si="3"/>
-        <v>19746.300000000003</v>
+        <f t="shared" si="2"/>
+        <v>1590</v>
       </c>
       <c r="S18" s="42">
-        <f t="shared" si="3"/>
-        <v>281525.82000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>56085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
       <c r="B19" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="42">
         <f>C18/$S$18</f>
-        <v>5.8116232464929841E-2</v>
+        <v>6.7700811268610148E-2</v>
       </c>
       <c r="D19" s="42">
-        <f t="shared" ref="D19:S19" si="4">D18/$S$18</f>
-        <v>5.8116232464929841E-2</v>
+        <f>D18/$S$18</f>
+        <v>6.8253543728269597E-2</v>
       </c>
       <c r="E19" s="42">
-        <f t="shared" si="4"/>
-        <v>6.4128256513026047E-2</v>
+        <f t="shared" ref="E19:S19" si="3">E18/$S$18</f>
+        <v>6.4758848176874384E-2</v>
       </c>
       <c r="F19" s="42">
-        <f t="shared" si="4"/>
-        <v>6.2124248496993981E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.12582686992957118</v>
       </c>
       <c r="G19" s="42">
-        <f t="shared" si="4"/>
-        <v>6.2124248496993981E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.2121244539538201</v>
       </c>
       <c r="H19" s="42">
-        <f t="shared" si="4"/>
-        <v>6.4629258517034049E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.7418204511010072E-2</v>
       </c>
       <c r="I19" s="42">
-        <f t="shared" si="4"/>
-        <v>6.4629258517034049E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.7418204511010072E-2</v>
       </c>
       <c r="J19" s="42">
-        <f t="shared" si="4"/>
-        <v>6.4629258517034049E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.755549612195774E-2</v>
       </c>
       <c r="K19" s="42">
-        <f t="shared" si="4"/>
-        <v>6.4629258517034049E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.755549612195774E-2</v>
       </c>
       <c r="L19" s="42">
-        <f t="shared" si="4"/>
-        <v>6.9138276553106212E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.0741731300704291E-2</v>
       </c>
       <c r="M19" s="42">
-        <f t="shared" si="4"/>
-        <v>6.9138276553106212E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.0741731300704291E-2</v>
       </c>
       <c r="N19" s="42">
-        <f t="shared" si="4"/>
-        <v>7.1142284569138264E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.8724257822947311E-2</v>
       </c>
       <c r="O19" s="42">
-        <f t="shared" si="4"/>
-        <v>6.6132264529058113E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.3910136400106981E-2</v>
       </c>
       <c r="P19" s="42">
-        <f t="shared" si="4"/>
-        <v>4.5591182364729449E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.4460194347864847E-2</v>
       </c>
       <c r="Q19" s="42">
-        <f t="shared" si="4"/>
-        <v>4.5591182364729449E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.4460194347864847E-2</v>
       </c>
       <c r="R19" s="42">
-        <f t="shared" si="4"/>
-        <v>7.0140280561122245E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.8349826156726397E-2</v>
       </c>
       <c r="S19" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="42">
-        <f t="shared" ref="C20:S20" si="5">C6+C7</f>
-        <v>8666</v>
+        <f t="shared" ref="C20:S20" si="4">C4+C5</f>
+        <v>16361.22</v>
       </c>
       <c r="D20" s="42">
-        <f t="shared" si="5"/>
-        <v>8260</v>
+        <f t="shared" si="4"/>
+        <v>16361.22</v>
       </c>
       <c r="E20" s="42">
-        <f t="shared" si="5"/>
-        <v>8278</v>
+        <f t="shared" si="4"/>
+        <v>18053.760000000002</v>
       </c>
       <c r="F20" s="42">
-        <f t="shared" si="5"/>
-        <v>12069</v>
+        <f t="shared" si="4"/>
+        <v>17489.580000000002</v>
       </c>
       <c r="G20" s="42">
-        <f t="shared" si="5"/>
-        <v>11591</v>
+        <f t="shared" si="4"/>
+        <v>17489.580000000002</v>
       </c>
       <c r="H20" s="42">
-        <f t="shared" si="5"/>
-        <v>12722</v>
+        <f t="shared" si="4"/>
+        <v>18194.805</v>
       </c>
       <c r="I20" s="42">
-        <f t="shared" si="5"/>
-        <v>12722</v>
+        <f t="shared" si="4"/>
+        <v>18194.805</v>
       </c>
       <c r="J20" s="42">
-        <f t="shared" si="5"/>
-        <v>8011</v>
+        <f t="shared" si="4"/>
+        <v>18194.805</v>
       </c>
       <c r="K20" s="42">
-        <f t="shared" si="5"/>
-        <v>8011</v>
+        <f t="shared" si="4"/>
+        <v>18194.805</v>
       </c>
       <c r="L20" s="42">
-        <f t="shared" si="5"/>
-        <v>7828</v>
+        <f t="shared" si="4"/>
+        <v>19464.210000000003</v>
       </c>
       <c r="M20" s="42">
-        <f t="shared" si="5"/>
-        <v>7828</v>
+        <f t="shared" si="4"/>
+        <v>19464.210000000003</v>
       </c>
       <c r="N20" s="42">
-        <f t="shared" si="5"/>
-        <v>7362</v>
+        <f t="shared" si="4"/>
+        <v>20028.39</v>
       </c>
       <c r="O20" s="42">
-        <f t="shared" si="5"/>
-        <v>5016</v>
+        <f t="shared" si="4"/>
+        <v>18617.940000000002</v>
       </c>
       <c r="P20" s="42">
-        <f t="shared" si="5"/>
-        <v>8059</v>
+        <f t="shared" si="4"/>
+        <v>12835.094999999999</v>
       </c>
       <c r="Q20" s="42">
-        <f t="shared" si="5"/>
-        <v>1320</v>
+        <f t="shared" si="4"/>
+        <v>12835.094999999999</v>
       </c>
       <c r="R20" s="42">
-        <f t="shared" si="5"/>
-        <v>2664</v>
+        <f t="shared" si="4"/>
+        <v>19746.300000000003</v>
       </c>
       <c r="S20" s="42">
-        <f t="shared" si="5"/>
-        <v>130407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>281525.82000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
       <c r="B21" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="42">
         <f>C20/$S$20</f>
+        <v>5.8116232464929841E-2</v>
+      </c>
+      <c r="D21" s="42">
+        <f t="shared" ref="D21:S21" si="5">D20/$S$20</f>
+        <v>5.8116232464929841E-2</v>
+      </c>
+      <c r="E21" s="42">
+        <f t="shared" si="5"/>
+        <v>6.4128256513026047E-2</v>
+      </c>
+      <c r="F21" s="42">
+        <f t="shared" si="5"/>
+        <v>6.2124248496993981E-2</v>
+      </c>
+      <c r="G21" s="42">
+        <f t="shared" si="5"/>
+        <v>6.2124248496993981E-2</v>
+      </c>
+      <c r="H21" s="42">
+        <f t="shared" si="5"/>
+        <v>6.4629258517034049E-2</v>
+      </c>
+      <c r="I21" s="42">
+        <f t="shared" si="5"/>
+        <v>6.4629258517034049E-2</v>
+      </c>
+      <c r="J21" s="42">
+        <f t="shared" si="5"/>
+        <v>6.4629258517034049E-2</v>
+      </c>
+      <c r="K21" s="42">
+        <f t="shared" si="5"/>
+        <v>6.4629258517034049E-2</v>
+      </c>
+      <c r="L21" s="42">
+        <f t="shared" si="5"/>
+        <v>6.9138276553106212E-2</v>
+      </c>
+      <c r="M21" s="42">
+        <f t="shared" si="5"/>
+        <v>6.9138276553106212E-2</v>
+      </c>
+      <c r="N21" s="42">
+        <f t="shared" si="5"/>
+        <v>7.1142284569138264E-2</v>
+      </c>
+      <c r="O21" s="42">
+        <f t="shared" si="5"/>
+        <v>6.6132264529058113E-2</v>
+      </c>
+      <c r="P21" s="42">
+        <f t="shared" si="5"/>
+        <v>4.5591182364729449E-2</v>
+      </c>
+      <c r="Q21" s="42">
+        <f t="shared" si="5"/>
+        <v>4.5591182364729449E-2</v>
+      </c>
+      <c r="R21" s="42">
+        <f t="shared" si="5"/>
+        <v>7.0140280561122245E-2</v>
+      </c>
+      <c r="S21" s="42">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="42">
+        <f t="shared" ref="C22:S22" si="6">C6+C7</f>
+        <v>8666</v>
+      </c>
+      <c r="D22" s="42">
+        <f t="shared" si="6"/>
+        <v>8260</v>
+      </c>
+      <c r="E22" s="42">
+        <f t="shared" si="6"/>
+        <v>8278</v>
+      </c>
+      <c r="F22" s="42">
+        <f t="shared" si="6"/>
+        <v>12069</v>
+      </c>
+      <c r="G22" s="42">
+        <f t="shared" si="6"/>
+        <v>11591</v>
+      </c>
+      <c r="H22" s="42">
+        <f t="shared" si="6"/>
+        <v>12722</v>
+      </c>
+      <c r="I22" s="42">
+        <f t="shared" si="6"/>
+        <v>12722</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" si="6"/>
+        <v>8011</v>
+      </c>
+      <c r="K22" s="42">
+        <f t="shared" si="6"/>
+        <v>8011</v>
+      </c>
+      <c r="L22" s="42">
+        <f t="shared" si="6"/>
+        <v>7828</v>
+      </c>
+      <c r="M22" s="42">
+        <f t="shared" si="6"/>
+        <v>7828</v>
+      </c>
+      <c r="N22" s="42">
+        <f t="shared" si="6"/>
+        <v>7362</v>
+      </c>
+      <c r="O22" s="42">
+        <f t="shared" si="6"/>
+        <v>5016</v>
+      </c>
+      <c r="P22" s="42">
+        <f t="shared" si="6"/>
+        <v>8059</v>
+      </c>
+      <c r="Q22" s="42">
+        <f t="shared" si="6"/>
+        <v>1320</v>
+      </c>
+      <c r="R22" s="42">
+        <f t="shared" si="6"/>
+        <v>2664</v>
+      </c>
+      <c r="S22" s="42">
+        <f t="shared" si="6"/>
+        <v>130407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="42">
+        <f>C22/$S$22</f>
         <v>6.6453487926261628E-2</v>
       </c>
-      <c r="D21" s="42">
-        <f t="shared" ref="D21:S21" si="6">D20/$S$20</f>
+      <c r="D23" s="42">
+        <f t="shared" ref="D23:S23" si="7">D22/$S$22</f>
         <v>6.3340158120346296E-2</v>
       </c>
-      <c r="E21" s="42">
-        <f t="shared" si="6"/>
+      <c r="E23" s="42">
+        <f t="shared" si="7"/>
         <v>6.3478187520608562E-2</v>
       </c>
-      <c r="F21" s="42">
-        <f t="shared" si="6"/>
+      <c r="F23" s="42">
+        <f t="shared" si="7"/>
         <v>9.2548712875842556E-2</v>
       </c>
-      <c r="G21" s="42">
-        <f t="shared" si="6"/>
+      <c r="G23" s="42">
+        <f t="shared" si="7"/>
         <v>8.8883265468878203E-2</v>
       </c>
-      <c r="H21" s="42">
-        <f t="shared" si="6"/>
+      <c r="H23" s="42">
+        <f t="shared" si="7"/>
         <v>9.7556112785356613E-2</v>
       </c>
-      <c r="I21" s="42">
-        <f t="shared" si="6"/>
+      <c r="I23" s="42">
+        <f t="shared" si="7"/>
         <v>9.7556112785356613E-2</v>
       </c>
-      <c r="J21" s="42">
-        <f t="shared" si="6"/>
+      <c r="J23" s="42">
+        <f t="shared" si="7"/>
         <v>6.1430751416718429E-2</v>
       </c>
-      <c r="K21" s="42">
-        <f t="shared" si="6"/>
+      <c r="K23" s="42">
+        <f t="shared" si="7"/>
         <v>6.1430751416718429E-2</v>
       </c>
-      <c r="L21" s="42">
-        <f t="shared" si="6"/>
+      <c r="L23" s="42">
+        <f t="shared" si="7"/>
         <v>6.0027452514052157E-2</v>
       </c>
-      <c r="M21" s="42">
-        <f t="shared" si="6"/>
+      <c r="M23" s="42">
+        <f t="shared" si="7"/>
         <v>6.0027452514052157E-2</v>
       </c>
-      <c r="N21" s="42">
-        <f t="shared" si="6"/>
+      <c r="N23" s="42">
+        <f t="shared" si="7"/>
         <v>5.645402470726265E-2</v>
       </c>
-      <c r="O21" s="42">
-        <f t="shared" si="6"/>
+      <c r="O23" s="42">
+        <f t="shared" si="7"/>
         <v>3.8464192873081969E-2</v>
       </c>
-      <c r="P21" s="42">
-        <f t="shared" si="6"/>
+      <c r="P23" s="42">
+        <f t="shared" si="7"/>
         <v>6.1798829817417779E-2</v>
       </c>
-      <c r="Q21" s="42">
-        <f t="shared" si="6"/>
+      <c r="Q23" s="42">
+        <f t="shared" si="7"/>
         <v>1.0122156019232097E-2</v>
       </c>
-      <c r="R21" s="42">
-        <f t="shared" si="6"/>
+      <c r="R23" s="42">
+        <f t="shared" si="7"/>
         <v>2.0428351238813869E-2</v>
       </c>
-      <c r="S21" s="42">
-        <f t="shared" si="6"/>
+      <c r="S23" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
         <v>85</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>24707</v>
-      </c>
-      <c r="D22">
-        <v>29546</v>
-      </c>
-      <c r="E22">
-        <v>31999</v>
-      </c>
-      <c r="F22">
-        <v>29172</v>
-      </c>
-      <c r="G22">
-        <v>21502</v>
-      </c>
-      <c r="H22">
-        <v>22727</v>
-      </c>
-      <c r="I22">
-        <v>27918</v>
-      </c>
-      <c r="J22">
-        <v>38674</v>
-      </c>
-      <c r="K22">
-        <v>39753</v>
-      </c>
-      <c r="L22">
-        <v>33325</v>
-      </c>
-      <c r="M22">
-        <v>29913</v>
-      </c>
-      <c r="N22">
-        <v>26842</v>
-      </c>
-      <c r="O22">
-        <v>25471</v>
-      </c>
-      <c r="P22">
-        <v>26887</v>
-      </c>
-      <c r="Q22">
-        <v>25059</v>
-      </c>
-      <c r="R22">
-        <v>21000</v>
-      </c>
-      <c r="S22">
-        <v>454495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>5.436143411918723E-2</v>
-      </c>
-      <c r="D23">
-        <v>6.5008415934168687E-2</v>
-      </c>
-      <c r="E23">
-        <v>7.0405615023267587E-2</v>
-      </c>
-      <c r="F23">
-        <v>6.4185524593229848E-2</v>
-      </c>
-      <c r="G23">
-        <v>4.7309651371302212E-2</v>
-      </c>
-      <c r="H23">
-        <v>5.0004950549510999E-2</v>
-      </c>
-      <c r="I23">
-        <v>6.1426418332434903E-2</v>
-      </c>
-      <c r="J23">
-        <v>8.5092245239221556E-2</v>
-      </c>
-      <c r="K23">
-        <v>8.7466308760272393E-2</v>
-      </c>
-      <c r="L23">
-        <v>7.3323138868414392E-2</v>
-      </c>
-      <c r="M23">
-        <v>6.5815905565517779E-2</v>
-      </c>
-      <c r="N23">
-        <v>5.9058955544065393E-2</v>
-      </c>
-      <c r="O23">
-        <v>5.6042420708698665E-2</v>
-      </c>
-      <c r="P23">
-        <v>5.9157966534285303E-2</v>
-      </c>
-      <c r="Q23">
-        <v>5.513592008712967E-2</v>
-      </c>
-      <c r="R23">
-        <v>4.6205128769293391E-2</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
-        <v>86</v>
       </c>
       <c r="B24" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="42">
-        <f t="shared" ref="C24:S24" si="7">C10+C11</f>
-        <v>21240</v>
-      </c>
-      <c r="D24" s="42">
-        <f t="shared" si="7"/>
-        <v>15788</v>
-      </c>
-      <c r="E24" s="42">
-        <f t="shared" si="7"/>
-        <v>17730</v>
-      </c>
-      <c r="F24" s="42">
-        <f t="shared" si="7"/>
-        <v>21993</v>
-      </c>
-      <c r="G24" s="42">
-        <f t="shared" si="7"/>
-        <v>26761</v>
-      </c>
-      <c r="H24" s="42">
-        <f t="shared" si="7"/>
-        <v>32774</v>
-      </c>
-      <c r="I24" s="42">
-        <f t="shared" si="7"/>
-        <v>25521</v>
-      </c>
-      <c r="J24" s="42">
-        <f t="shared" si="7"/>
-        <v>18780</v>
-      </c>
-      <c r="K24" s="42">
-        <f t="shared" si="7"/>
-        <v>14820</v>
-      </c>
-      <c r="L24" s="42">
-        <f t="shared" si="7"/>
-        <v>16937</v>
-      </c>
-      <c r="M24" s="42">
-        <f t="shared" si="7"/>
-        <v>13880</v>
-      </c>
-      <c r="N24" s="42">
-        <f t="shared" si="7"/>
-        <v>19932</v>
-      </c>
-      <c r="O24" s="42">
-        <f t="shared" si="7"/>
-        <v>18737</v>
-      </c>
-      <c r="P24" s="42">
-        <f t="shared" si="7"/>
-        <v>12788</v>
-      </c>
-      <c r="Q24" s="42">
-        <f t="shared" si="7"/>
-        <v>8995</v>
-      </c>
-      <c r="R24" s="42">
-        <f t="shared" si="7"/>
-        <v>15946</v>
-      </c>
-      <c r="S24" s="42">
-        <f t="shared" si="7"/>
-        <v>302622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="C24">
+        <v>24707</v>
+      </c>
+      <c r="D24">
+        <v>29546</v>
+      </c>
+      <c r="E24">
+        <v>31999</v>
+      </c>
+      <c r="F24">
+        <v>29172</v>
+      </c>
+      <c r="G24">
+        <v>21502</v>
+      </c>
+      <c r="H24">
+        <v>22727</v>
+      </c>
+      <c r="I24">
+        <v>27918</v>
+      </c>
+      <c r="J24">
+        <v>38674</v>
+      </c>
+      <c r="K24">
+        <v>39753</v>
+      </c>
+      <c r="L24">
+        <v>33325</v>
+      </c>
+      <c r="M24">
+        <v>29913</v>
+      </c>
+      <c r="N24">
+        <v>26842</v>
+      </c>
+      <c r="O24">
+        <v>25471</v>
+      </c>
+      <c r="P24">
+        <v>26887</v>
+      </c>
+      <c r="Q24">
+        <v>25059</v>
+      </c>
+      <c r="R24">
+        <v>21000</v>
+      </c>
+      <c r="S24">
+        <v>454495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
       <c r="B25" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="42">
-        <f>C24/$S$24</f>
-        <v>7.0186569383587444E-2</v>
-      </c>
-      <c r="D25" s="42">
-        <f t="shared" ref="D25:S25" si="8">D24/$S$24</f>
-        <v>5.217069479416566E-2</v>
-      </c>
-      <c r="E25" s="42">
-        <f t="shared" si="8"/>
-        <v>5.858794139223189E-2</v>
-      </c>
-      <c r="F25" s="42">
-        <f t="shared" si="8"/>
-        <v>7.2674822055237231E-2</v>
-      </c>
-      <c r="G25" s="42">
-        <f t="shared" si="8"/>
-        <v>8.8430451189933312E-2</v>
-      </c>
-      <c r="H25" s="42">
-        <f t="shared" si="8"/>
-        <v>0.10830012358652048</v>
-      </c>
-      <c r="I25" s="42">
-        <f t="shared" si="8"/>
-        <v>8.4332930190138197E-2</v>
-      </c>
-      <c r="J25" s="42">
-        <f t="shared" si="8"/>
-        <v>6.2057616432380988E-2</v>
-      </c>
-      <c r="K25" s="42">
-        <f t="shared" si="8"/>
-        <v>4.8971984852390113E-2</v>
-      </c>
-      <c r="L25" s="42">
-        <f t="shared" si="8"/>
-        <v>5.5967510623814526E-2</v>
-      </c>
-      <c r="M25" s="42">
-        <f t="shared" si="8"/>
-        <v>4.5865799578351872E-2</v>
-      </c>
-      <c r="N25" s="42">
-        <f t="shared" si="8"/>
-        <v>6.5864345619287432E-2</v>
-      </c>
-      <c r="O25" s="42">
-        <f t="shared" si="8"/>
-        <v>6.1915524978355833E-2</v>
-      </c>
-      <c r="P25" s="42">
-        <f t="shared" si="8"/>
-        <v>4.2257337536596808E-2</v>
-      </c>
-      <c r="Q25" s="42">
-        <f t="shared" si="8"/>
-        <v>2.9723549510610597E-2</v>
-      </c>
-      <c r="R25" s="42">
-        <f t="shared" si="8"/>
-        <v>5.2692798276397619E-2</v>
-      </c>
-      <c r="S25" s="42">
-        <f t="shared" si="8"/>
+      <c r="C25">
+        <v>5.436143411918723E-2</v>
+      </c>
+      <c r="D25">
+        <v>6.5008415934168687E-2</v>
+      </c>
+      <c r="E25">
+        <v>7.0405615023267587E-2</v>
+      </c>
+      <c r="F25">
+        <v>6.4185524593229848E-2</v>
+      </c>
+      <c r="G25">
+        <v>4.7309651371302212E-2</v>
+      </c>
+      <c r="H25">
+        <v>5.0004950549510999E-2</v>
+      </c>
+      <c r="I25">
+        <v>6.1426418332434903E-2</v>
+      </c>
+      <c r="J25">
+        <v>8.5092245239221556E-2</v>
+      </c>
+      <c r="K25">
+        <v>8.7466308760272393E-2</v>
+      </c>
+      <c r="L25">
+        <v>7.3323138868414392E-2</v>
+      </c>
+      <c r="M25">
+        <v>6.5815905565517779E-2</v>
+      </c>
+      <c r="N25">
+        <v>5.9058955544065393E-2</v>
+      </c>
+      <c r="O25">
+        <v>5.6042420708698665E-2</v>
+      </c>
+      <c r="P25">
+        <v>5.9157966534285303E-2</v>
+      </c>
+      <c r="Q25">
+        <v>5.513592008712967E-2</v>
+      </c>
+      <c r="R25">
+        <v>4.6205128769293391E-2</v>
+      </c>
+      <c r="S25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
-        <v>106</v>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
+        <v>86</v>
       </c>
       <c r="B26" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="42">
-        <f t="shared" ref="C26:S26" si="9">C12+C13</f>
-        <v>18412</v>
+        <f t="shared" ref="C26:S26" si="8">C10+C11</f>
+        <v>21240</v>
       </c>
       <c r="D26" s="42">
-        <f t="shared" si="9"/>
-        <v>15082</v>
+        <f t="shared" si="8"/>
+        <v>15788</v>
       </c>
       <c r="E26" s="42">
-        <f t="shared" si="9"/>
-        <v>15321</v>
+        <f t="shared" si="8"/>
+        <v>17730</v>
       </c>
       <c r="F26" s="42">
-        <f t="shared" si="9"/>
-        <v>17625</v>
+        <f t="shared" si="8"/>
+        <v>21993</v>
       </c>
       <c r="G26" s="42">
-        <f t="shared" si="9"/>
-        <v>20557</v>
+        <f t="shared" si="8"/>
+        <v>26761</v>
       </c>
       <c r="H26" s="42">
-        <f t="shared" si="9"/>
-        <v>26691</v>
+        <f t="shared" si="8"/>
+        <v>32774</v>
       </c>
       <c r="I26" s="42">
-        <f t="shared" si="9"/>
-        <v>27247</v>
+        <f t="shared" si="8"/>
+        <v>25521</v>
       </c>
       <c r="J26" s="42">
-        <f t="shared" si="9"/>
-        <v>20332</v>
+        <f t="shared" si="8"/>
+        <v>18780</v>
       </c>
       <c r="K26" s="42">
-        <f t="shared" si="9"/>
-        <v>16738</v>
+        <f t="shared" si="8"/>
+        <v>14820</v>
       </c>
       <c r="L26" s="42">
-        <f t="shared" si="9"/>
-        <v>17748</v>
+        <f t="shared" si="8"/>
+        <v>16937</v>
       </c>
       <c r="M26" s="42">
-        <f t="shared" si="9"/>
-        <v>15765</v>
+        <f t="shared" si="8"/>
+        <v>13880</v>
       </c>
       <c r="N26" s="42">
-        <f t="shared" si="9"/>
-        <v>14340</v>
+        <f t="shared" si="8"/>
+        <v>19932</v>
       </c>
       <c r="O26" s="42">
-        <f t="shared" si="9"/>
-        <v>15154</v>
+        <f t="shared" si="8"/>
+        <v>18737</v>
       </c>
       <c r="P26" s="42">
-        <f t="shared" si="9"/>
-        <v>12469</v>
+        <f t="shared" si="8"/>
+        <v>12788</v>
       </c>
       <c r="Q26" s="42">
-        <f t="shared" si="9"/>
-        <v>7756</v>
+        <f t="shared" si="8"/>
+        <v>8995</v>
       </c>
       <c r="R26" s="42">
-        <f t="shared" si="9"/>
-        <v>13260</v>
+        <f t="shared" si="8"/>
+        <v>15946</v>
       </c>
       <c r="S26" s="42">
-        <f t="shared" si="9"/>
-        <v>274497</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+        <f t="shared" si="8"/>
+        <v>302622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
       <c r="B27" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="42">
         <f>C26/$S$26</f>
-        <v>6.7075414303252853E-2</v>
+        <v>7.0186569383587444E-2</v>
       </c>
       <c r="D27" s="42">
-        <f t="shared" ref="D27:S27" si="10">D26/$S$26</f>
-        <v>5.494413417997282E-2</v>
+        <f t="shared" ref="D27:S27" si="9">D26/$S$26</f>
+        <v>5.217069479416566E-2</v>
       </c>
       <c r="E27" s="42">
-        <f t="shared" si="10"/>
-        <v>5.5814817648280307E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.858794139223189E-2</v>
       </c>
       <c r="F27" s="42">
-        <f t="shared" si="10"/>
-        <v>6.420835200384703E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.2674822055237231E-2</v>
       </c>
       <c r="G27" s="42">
-        <f t="shared" si="10"/>
-        <v>7.4889707355635951E-2</v>
+        <f t="shared" si="9"/>
+        <v>8.8430451189933312E-2</v>
       </c>
       <c r="H27" s="42">
-        <f t="shared" si="10"/>
-        <v>9.723603536650674E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.10830012358652048</v>
       </c>
       <c r="I27" s="42">
-        <f t="shared" si="10"/>
-        <v>9.9261558414117462E-2</v>
+        <f t="shared" si="9"/>
+        <v>8.4332930190138197E-2</v>
       </c>
       <c r="J27" s="42">
-        <f t="shared" si="10"/>
-        <v>7.4070026266225136E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.2057616432380988E-2</v>
       </c>
       <c r="K27" s="42">
-        <f t="shared" si="10"/>
-        <v>6.0976986998036407E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.8971984852390113E-2</v>
       </c>
       <c r="L27" s="42">
-        <f t="shared" si="10"/>
-        <v>6.4656444332724952E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.5967510623814526E-2</v>
       </c>
       <c r="M27" s="42">
-        <f t="shared" si="10"/>
-        <v>5.743232166471765E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.5865799578351872E-2</v>
       </c>
       <c r="N27" s="42">
-        <f t="shared" si="10"/>
-        <v>5.2241008098449164E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.5864345619287432E-2</v>
       </c>
       <c r="O27" s="42">
-        <f t="shared" si="10"/>
-        <v>5.5206432128584282E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.1915524978355833E-2</v>
       </c>
       <c r="P27" s="42">
-        <f t="shared" si="10"/>
-        <v>4.5424904461615248E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.2257337536596808E-2</v>
       </c>
       <c r="Q27" s="42">
-        <f t="shared" si="10"/>
-        <v>2.8255317908756745E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.9723549510610597E-2</v>
       </c>
       <c r="R27" s="42">
-        <f t="shared" si="10"/>
-        <v>4.8306538869277257E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.2692798276397619E-2</v>
       </c>
       <c r="S27" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
-        <v>107</v>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
+        <v>101</v>
       </c>
       <c r="B28" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="42">
-        <f t="shared" ref="C28:S28" si="11">C14+C15</f>
+        <f t="shared" ref="C28:S28" si="10">C12+C13</f>
+        <v>18412</v>
+      </c>
+      <c r="D28" s="42">
+        <f t="shared" si="10"/>
+        <v>15082</v>
+      </c>
+      <c r="E28" s="42">
+        <f t="shared" si="10"/>
+        <v>15321</v>
+      </c>
+      <c r="F28" s="42">
+        <f t="shared" si="10"/>
+        <v>17625</v>
+      </c>
+      <c r="G28" s="42">
+        <f t="shared" si="10"/>
+        <v>20557</v>
+      </c>
+      <c r="H28" s="42">
+        <f t="shared" si="10"/>
+        <v>26691</v>
+      </c>
+      <c r="I28" s="42">
+        <f t="shared" si="10"/>
+        <v>27247</v>
+      </c>
+      <c r="J28" s="42">
+        <f t="shared" si="10"/>
+        <v>20332</v>
+      </c>
+      <c r="K28" s="42">
+        <f t="shared" si="10"/>
+        <v>16738</v>
+      </c>
+      <c r="L28" s="42">
+        <f t="shared" si="10"/>
+        <v>17748</v>
+      </c>
+      <c r="M28" s="42">
+        <f t="shared" si="10"/>
+        <v>15765</v>
+      </c>
+      <c r="N28" s="42">
+        <f t="shared" si="10"/>
+        <v>14340</v>
+      </c>
+      <c r="O28" s="42">
+        <f t="shared" si="10"/>
+        <v>15154</v>
+      </c>
+      <c r="P28" s="42">
+        <f t="shared" si="10"/>
+        <v>12469</v>
+      </c>
+      <c r="Q28" s="42">
+        <f t="shared" si="10"/>
+        <v>7756</v>
+      </c>
+      <c r="R28" s="42">
+        <f t="shared" si="10"/>
+        <v>13260</v>
+      </c>
+      <c r="S28" s="42">
+        <f t="shared" si="10"/>
+        <v>274497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="58"/>
+      <c r="B29" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="42">
+        <f>C28/$S$28</f>
+        <v>6.7075414303252853E-2</v>
+      </c>
+      <c r="D29" s="42">
+        <f t="shared" ref="D29:S29" si="11">D28/$S$28</f>
+        <v>5.494413417997282E-2</v>
+      </c>
+      <c r="E29" s="42">
+        <f t="shared" si="11"/>
+        <v>5.5814817648280307E-2</v>
+      </c>
+      <c r="F29" s="42">
+        <f t="shared" si="11"/>
+        <v>6.420835200384703E-2</v>
+      </c>
+      <c r="G29" s="42">
+        <f t="shared" si="11"/>
+        <v>7.4889707355635951E-2</v>
+      </c>
+      <c r="H29" s="42">
+        <f t="shared" si="11"/>
+        <v>9.723603536650674E-2</v>
+      </c>
+      <c r="I29" s="42">
+        <f t="shared" si="11"/>
+        <v>9.9261558414117462E-2</v>
+      </c>
+      <c r="J29" s="42">
+        <f t="shared" si="11"/>
+        <v>7.4070026266225136E-2</v>
+      </c>
+      <c r="K29" s="42">
+        <f t="shared" si="11"/>
+        <v>6.0976986998036407E-2</v>
+      </c>
+      <c r="L29" s="42">
+        <f t="shared" si="11"/>
+        <v>6.4656444332724952E-2</v>
+      </c>
+      <c r="M29" s="42">
+        <f t="shared" si="11"/>
+        <v>5.743232166471765E-2</v>
+      </c>
+      <c r="N29" s="42">
+        <f t="shared" si="11"/>
+        <v>5.2241008098449164E-2</v>
+      </c>
+      <c r="O29" s="42">
+        <f t="shared" si="11"/>
+        <v>5.5206432128584282E-2</v>
+      </c>
+      <c r="P29" s="42">
+        <f t="shared" si="11"/>
+        <v>4.5424904461615248E-2</v>
+      </c>
+      <c r="Q29" s="42">
+        <f t="shared" si="11"/>
+        <v>2.8255317908756745E-2</v>
+      </c>
+      <c r="R29" s="42">
+        <f t="shared" si="11"/>
+        <v>4.8306538869277257E-2</v>
+      </c>
+      <c r="S29" s="42">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="42">
+        <f t="shared" ref="C30:S30" si="12">C14+C15</f>
         <v>228554</v>
       </c>
-      <c r="D28" s="42">
-        <f t="shared" si="11"/>
+      <c r="D30" s="42">
+        <f t="shared" si="12"/>
         <v>218804</v>
       </c>
-      <c r="E28" s="42">
-        <f t="shared" si="11"/>
+      <c r="E30" s="42">
+        <f t="shared" si="12"/>
         <v>226674</v>
       </c>
-      <c r="F28" s="42">
-        <f t="shared" si="11"/>
+      <c r="F30" s="42">
+        <f t="shared" si="12"/>
         <v>235640</v>
       </c>
-      <c r="G28" s="42">
-        <f t="shared" si="11"/>
+      <c r="G30" s="42">
+        <f t="shared" si="12"/>
         <v>295953</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H30" s="42">
         <f>H14+I15</f>
         <v>368219</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I30" s="42">
         <f>I14+J15</f>
         <v>329514</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J30" s="42">
         <f>J14+K15</f>
         <v>279904</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K30" s="42">
         <f>K14+K15</f>
         <v>268756</v>
       </c>
-      <c r="L28" s="42">
-        <f t="shared" si="11"/>
+      <c r="L30" s="42">
+        <f t="shared" si="12"/>
         <v>260922</v>
       </c>
-      <c r="M28" s="42">
-        <f t="shared" si="11"/>
+      <c r="M30" s="42">
+        <f t="shared" si="12"/>
         <v>252251</v>
       </c>
-      <c r="N28" s="42">
-        <f t="shared" si="11"/>
+      <c r="N30" s="42">
+        <f t="shared" si="12"/>
         <v>238857</v>
       </c>
-      <c r="O28" s="42">
-        <f t="shared" si="11"/>
+      <c r="O30" s="42">
+        <f t="shared" si="12"/>
         <v>213089</v>
       </c>
-      <c r="P28" s="42">
-        <f t="shared" si="11"/>
+      <c r="P30" s="42">
+        <f t="shared" si="12"/>
         <v>170179</v>
       </c>
-      <c r="Q28" s="42">
-        <f t="shared" si="11"/>
+      <c r="Q30" s="42">
+        <f t="shared" si="12"/>
         <v>125431</v>
       </c>
-      <c r="R28" s="42">
-        <f t="shared" si="11"/>
+      <c r="R30" s="42">
+        <f t="shared" si="12"/>
         <v>216817</v>
       </c>
-      <c r="S28" s="42">
-        <f t="shared" si="11"/>
+      <c r="S30" s="42">
+        <f t="shared" si="12"/>
         <v>3990469</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="46" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="58"/>
+      <c r="B31" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="42">
-        <f>C28/$S$28</f>
+      <c r="C31" s="42">
+        <f>C30/$S$30</f>
         <v>5.7274971939388575E-2</v>
       </c>
-      <c r="D29" s="42">
-        <f t="shared" ref="D29:S29" si="12">D28/$S$28</f>
+      <c r="D31" s="42">
+        <f t="shared" ref="D31:S31" si="13">D30/$S$30</f>
         <v>5.483165011430987E-2</v>
       </c>
-      <c r="E29" s="42">
-        <f t="shared" si="12"/>
+      <c r="E31" s="42">
+        <f t="shared" si="13"/>
         <v>5.6803849372091347E-2</v>
       </c>
-      <c r="F29" s="42">
-        <f t="shared" si="12"/>
+      <c r="F31" s="42">
+        <f t="shared" si="13"/>
         <v>5.9050703062722705E-2</v>
       </c>
-      <c r="G29" s="42">
-        <f t="shared" si="12"/>
+      <c r="G31" s="42">
+        <f t="shared" si="13"/>
         <v>7.4164966574104443E-2</v>
       </c>
-      <c r="H29" s="42">
-        <f t="shared" si="12"/>
+      <c r="H31" s="42">
+        <f t="shared" si="13"/>
         <v>9.2274617344477561E-2</v>
       </c>
-      <c r="I29" s="42">
-        <f t="shared" si="12"/>
+      <c r="I31" s="42">
+        <f t="shared" si="13"/>
         <v>8.2575256191690746E-2</v>
       </c>
-      <c r="J29" s="42">
-        <f t="shared" si="12"/>
+      <c r="J31" s="42">
+        <f t="shared" si="13"/>
         <v>7.0143133551469769E-2</v>
       </c>
-      <c r="K29" s="42">
-        <f t="shared" si="12"/>
+      <c r="K31" s="42">
+        <f t="shared" si="13"/>
         <v>6.7349476966241315E-2</v>
       </c>
-      <c r="L29" s="42">
-        <f t="shared" si="12"/>
+      <c r="L31" s="42">
+        <f t="shared" si="13"/>
         <v>6.5386299204429357E-2</v>
       </c>
-      <c r="M29" s="42">
-        <f t="shared" si="12"/>
+      <c r="M31" s="42">
+        <f t="shared" si="13"/>
         <v>6.3213371661326026E-2</v>
       </c>
-      <c r="N29" s="42">
-        <f t="shared" si="12"/>
+      <c r="N31" s="42">
+        <f t="shared" si="13"/>
         <v>5.9856873966443541E-2</v>
       </c>
-      <c r="O29" s="42">
-        <f t="shared" si="12"/>
+      <c r="O31" s="42">
+        <f t="shared" si="13"/>
         <v>5.3399487629148354E-2</v>
       </c>
-      <c r="P29" s="42">
-        <f t="shared" si="12"/>
+      <c r="P31" s="42">
+        <f t="shared" si="13"/>
         <v>4.2646365627699398E-2</v>
       </c>
-      <c r="Q29" s="42">
-        <f t="shared" si="12"/>
+      <c r="Q31" s="42">
+        <f t="shared" si="13"/>
         <v>3.1432646137584327E-2</v>
       </c>
-      <c r="R29" s="42">
-        <f t="shared" si="12"/>
+      <c r="R31" s="42">
+        <f t="shared" si="13"/>
         <v>5.4333713656214346E-2</v>
       </c>
-      <c r="S29" s="42">
-        <f t="shared" si="12"/>
+      <c r="S31" s="42">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="42">
+        <f t="shared" ref="C32:S32" si="14">C16+C17</f>
+        <v>26948</v>
+      </c>
+      <c r="D32" s="42">
+        <f t="shared" si="14"/>
+        <v>21800</v>
+      </c>
+      <c r="E32" s="42">
+        <f t="shared" si="14"/>
+        <v>21884</v>
+      </c>
+      <c r="F32" s="42">
+        <f t="shared" si="14"/>
+        <v>19570</v>
+      </c>
+      <c r="G32" s="42">
+        <f t="shared" si="14"/>
+        <v>23759</v>
+      </c>
+      <c r="H32" s="42">
+        <f>H16+I17</f>
+        <v>39949</v>
+      </c>
+      <c r="I32" s="42">
+        <f>I16+J17</f>
+        <v>41010</v>
+      </c>
+      <c r="J32" s="42">
+        <f>J16+K17</f>
+        <v>33056</v>
+      </c>
+      <c r="K32" s="42">
+        <f>K16+K17</f>
+        <v>29993</v>
+      </c>
+      <c r="L32" s="42">
+        <f t="shared" ref="L32:S32" si="15">L16+L17</f>
+        <v>37231</v>
+      </c>
+      <c r="M32" s="42">
+        <f t="shared" si="15"/>
+        <v>34487</v>
+      </c>
+      <c r="N32" s="42">
+        <f t="shared" si="15"/>
+        <v>28494</v>
+      </c>
+      <c r="O32" s="42">
+        <f t="shared" si="15"/>
+        <v>25544</v>
+      </c>
+      <c r="P32" s="42">
+        <f t="shared" si="15"/>
+        <v>23359</v>
+      </c>
+      <c r="Q32" s="42">
+        <f t="shared" si="15"/>
+        <v>17764</v>
+      </c>
+      <c r="R32" s="42">
+        <f t="shared" si="15"/>
+        <v>41900</v>
+      </c>
+      <c r="S32" s="42">
+        <f t="shared" si="15"/>
+        <v>470911</v>
+      </c>
+      <c r="T32" s="42"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="58"/>
+      <c r="B33" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="42">
+        <f>C32/$S$32</f>
+        <v>5.7225250631223308E-2</v>
+      </c>
+      <c r="D33" s="42">
+        <f t="shared" ref="D33:S33" si="16">D32/$S$32</f>
+        <v>4.6293248618104056E-2</v>
+      </c>
+      <c r="E33" s="42">
+        <f t="shared" si="16"/>
+        <v>4.6471626273329777E-2</v>
+      </c>
+      <c r="F33" s="42">
+        <f t="shared" si="16"/>
+        <v>4.1557746580564055E-2</v>
+      </c>
+      <c r="G33" s="42">
+        <f t="shared" si="16"/>
+        <v>5.0453270363189646E-2</v>
+      </c>
+      <c r="H33" s="42">
+        <f t="shared" si="16"/>
+        <v>8.483343986443298E-2</v>
+      </c>
+      <c r="I33" s="42">
+        <f t="shared" si="16"/>
+        <v>8.7086519533415022E-2</v>
+      </c>
+      <c r="J33" s="42">
+        <f t="shared" si="16"/>
+        <v>7.0195854418350814E-2</v>
+      </c>
+      <c r="K33" s="42">
+        <f t="shared" si="16"/>
+        <v>6.3691440633155738E-2</v>
+      </c>
+      <c r="L33" s="42">
+        <f t="shared" si="16"/>
+        <v>7.9061648591772116E-2</v>
+      </c>
+      <c r="M33" s="42">
+        <f t="shared" si="16"/>
+        <v>7.3234645187731859E-2</v>
+      </c>
+      <c r="N33" s="42">
+        <f t="shared" si="16"/>
+        <v>6.050824890478243E-2</v>
+      </c>
+      <c r="O33" s="42">
+        <f t="shared" si="16"/>
+        <v>5.4243795536736243E-2</v>
+      </c>
+      <c r="P33" s="42">
+        <f t="shared" si="16"/>
+        <v>4.9603852957352874E-2</v>
+      </c>
+      <c r="Q33" s="42">
+        <f t="shared" si="16"/>
+        <v>3.7722626993211029E-2</v>
+      </c>
+      <c r="R33" s="42">
+        <f t="shared" si="16"/>
+        <v>8.8976473261401831E-2</v>
+      </c>
+      <c r="S33" s="42">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A28:A29"/>
+  <mergeCells count="16">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3322,10 +3660,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,7 +3862,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
@@ -3556,7 +3894,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" s="14">
         <v>3</v>
@@ -3583,6 +3921,38 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10">
+        <v>110</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="15">
         <v>2</v>
       </c>
     </row>
@@ -3596,10 +3966,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3798,7 +4168,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
@@ -3830,7 +4200,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" s="14">
         <v>3</v>
@@ -3857,6 +4227,38 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>110</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="15">
         <v>2</v>
       </c>
     </row>
@@ -3870,10 +4272,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4072,7 +4474,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
@@ -4104,7 +4506,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" s="14">
         <v>3</v>
@@ -4131,6 +4533,38 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>110</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="15">
         <v>2</v>
       </c>
     </row>
@@ -4144,10 +4578,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4346,7 +4780,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
@@ -4378,7 +4812,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" s="14">
         <v>3</v>
@@ -4405,6 +4839,38 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>110</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="15">
         <v>2</v>
       </c>
     </row>
@@ -4418,10 +4884,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S113"/>
+  <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="M114" sqref="M114"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9060,7 +9526,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="59" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B82" s="41" t="s">
         <v>0</v>
@@ -9974,7 +10440,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="59" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B98" s="56" t="s">
         <v>0</v>
@@ -10886,8 +11352,923 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B114" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0.61969873863987557</v>
+      </c>
+      <c r="D114">
+        <v>0.51930885326415877</v>
+      </c>
+      <c r="E114">
+        <v>0.27317103093736778</v>
+      </c>
+      <c r="F114">
+        <v>0.1220990843140809</v>
+      </c>
+      <c r="G114">
+        <v>0.17291475806902101</v>
+      </c>
+      <c r="H114">
+        <v>0.31709601117876612</v>
+      </c>
+      <c r="I114">
+        <v>0.5565418204061986</v>
+      </c>
+      <c r="J114">
+        <v>0.56240292718534357</v>
+      </c>
+      <c r="K114">
+        <v>0.21349284282175451</v>
+      </c>
+      <c r="L114">
+        <v>8.079024971058428E-2</v>
+      </c>
+      <c r="M114">
+        <v>6.1796659171411188E-2</v>
+      </c>
+      <c r="N114">
+        <v>2.9986530173469729E-2</v>
+      </c>
+      <c r="O114">
+        <v>2.078519260972914E-2</v>
+      </c>
+      <c r="P114">
+        <v>9.4638499050793794E-3</v>
+      </c>
+      <c r="Q114">
+        <v>2.7711226752344682E-3</v>
+      </c>
+      <c r="R114">
+        <v>4.4855420935287181E-3</v>
+      </c>
+      <c r="S114">
+        <v>3.5668052131556029</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="59"/>
+      <c r="B115" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0.31930133357744173</v>
+      </c>
+      <c r="D115">
+        <v>0.98541608337489539</v>
+      </c>
+      <c r="E115">
+        <v>0.4877969736720652</v>
+      </c>
+      <c r="F115">
+        <v>0.16195920244802611</v>
+      </c>
+      <c r="G115">
+        <v>4.3457131507647587E-2</v>
+      </c>
+      <c r="H115">
+        <v>0.19998306063301061</v>
+      </c>
+      <c r="I115">
+        <v>0.51032027296683324</v>
+      </c>
+      <c r="J115">
+        <v>0.645337023249687</v>
+      </c>
+      <c r="K115">
+        <v>0.46191402339646931</v>
+      </c>
+      <c r="L115">
+        <v>0.12776537347105479</v>
+      </c>
+      <c r="M115">
+        <v>5.2259648466374167E-2</v>
+      </c>
+      <c r="N115">
+        <v>2.668950530223094E-2</v>
+      </c>
+      <c r="O115">
+        <v>1.327643914610107E-2</v>
+      </c>
+      <c r="P115">
+        <v>1.020265687875028E-2</v>
+      </c>
+      <c r="Q115">
+        <v>3.9208192751110536E-3</v>
+      </c>
+      <c r="R115">
+        <v>3.3901430134257171E-3</v>
+      </c>
+      <c r="S115">
+        <v>4.0529896903791238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="59"/>
+      <c r="B116" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>0.17718134683672379</v>
+      </c>
+      <c r="D116">
+        <v>0.51993231380126026</v>
+      </c>
+      <c r="E116">
+        <v>1.523920062409531</v>
+      </c>
+      <c r="F116">
+        <v>0.40228849022523561</v>
+      </c>
+      <c r="G116">
+        <v>5.9383389650805238E-2</v>
+      </c>
+      <c r="H116">
+        <v>3.9346697096150789E-2</v>
+      </c>
+      <c r="I116">
+        <v>0.19834689605494929</v>
+      </c>
+      <c r="J116">
+        <v>0.48200013919098461</v>
+      </c>
+      <c r="K116">
+        <v>0.55487703325535764</v>
+      </c>
+      <c r="L116">
+        <v>0.21334596097495201</v>
+      </c>
+      <c r="M116">
+        <v>7.9429941595848513E-2</v>
+      </c>
+      <c r="N116">
+        <v>2.4421556195950569E-2</v>
+      </c>
+      <c r="O116">
+        <v>1.256075952087831E-2</v>
+      </c>
+      <c r="P116">
+        <v>1.249583723902436E-2</v>
+      </c>
+      <c r="Q116">
+        <v>8.279824777708342E-3</v>
+      </c>
+      <c r="R116">
+        <v>3.76310749565588E-3</v>
+      </c>
+      <c r="S116">
+        <v>4.3115733563210163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="59"/>
+      <c r="B117" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>8.5270794326373564E-2</v>
+      </c>
+      <c r="D117">
+        <v>0.1634655167866628</v>
+      </c>
+      <c r="E117">
+        <v>0.45802860732744471</v>
+      </c>
+      <c r="F117">
+        <v>1.290056514650987</v>
+      </c>
+      <c r="G117">
+        <v>0.19608956712862941</v>
+      </c>
+      <c r="H117">
+        <v>4.8415237082093387E-2</v>
+      </c>
+      <c r="I117">
+        <v>4.9507148439117819E-2</v>
+      </c>
+      <c r="J117">
+        <v>0.2447208048376496</v>
+      </c>
+      <c r="K117">
+        <v>0.43903350853856721</v>
+      </c>
+      <c r="L117">
+        <v>0.36973979800814699</v>
+      </c>
+      <c r="M117">
+        <v>0.18667622279583851</v>
+      </c>
+      <c r="N117">
+        <v>5.8342071323631568E-2</v>
+      </c>
+      <c r="O117">
+        <v>1.611604249113267E-2</v>
+      </c>
+      <c r="P117">
+        <v>1.5775648331884249E-2</v>
+      </c>
+      <c r="Q117">
+        <v>5.8131818691644936E-3</v>
+      </c>
+      <c r="R117">
+        <v>2.6736776283368159E-3</v>
+      </c>
+      <c r="S117">
+        <v>3.629724341565661</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="59"/>
+      <c r="B118" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0.1478417185798506</v>
+      </c>
+      <c r="D118">
+        <v>7.0406143057896858E-2</v>
+      </c>
+      <c r="E118">
+        <v>8.4660923615236153E-2</v>
+      </c>
+      <c r="F118">
+        <v>0.35768278848216489</v>
+      </c>
+      <c r="G118">
+        <v>1.208624753028102</v>
+      </c>
+      <c r="H118">
+        <v>0.20884701972396169</v>
+      </c>
+      <c r="I118">
+        <v>5.6970339595179879E-2</v>
+      </c>
+      <c r="J118">
+        <v>2.7083629650777191E-2</v>
+      </c>
+      <c r="K118">
+        <v>0.13670317067111079</v>
+      </c>
+      <c r="L118">
+        <v>0.31934191487618502</v>
+      </c>
+      <c r="M118">
+        <v>0.19062797912647891</v>
+      </c>
+      <c r="N118">
+        <v>0.10800255558228671</v>
+      </c>
+      <c r="O118">
+        <v>1.94651016060754E-2</v>
+      </c>
+      <c r="P118">
+        <v>5.5875465430559974E-3</v>
+      </c>
+      <c r="Q118">
+        <v>4.1289364477471047E-3</v>
+      </c>
+      <c r="R118">
+        <v>3.219008945833397E-3</v>
+      </c>
+      <c r="S118">
+        <v>2.949193529531942</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="59"/>
+      <c r="B119" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>0.3976603189755612</v>
+      </c>
+      <c r="D119">
+        <v>0.17802320481836151</v>
+      </c>
+      <c r="E119">
+        <v>4.3947790376431657E-2</v>
+      </c>
+      <c r="F119">
+        <v>8.290010749152231E-2</v>
+      </c>
+      <c r="G119">
+        <v>0.23194145003234701</v>
+      </c>
+      <c r="H119">
+        <v>0.99295240675387897</v>
+      </c>
+      <c r="I119">
+        <v>0.22154003563811769</v>
+      </c>
+      <c r="J119">
+        <v>3.05630158965145E-2</v>
+      </c>
+      <c r="K119">
+        <v>1.418769497448942E-2</v>
+      </c>
+      <c r="L119">
+        <v>7.0238020714514945E-2</v>
+      </c>
+      <c r="M119">
+        <v>0.1595808418760109</v>
+      </c>
+      <c r="N119">
+        <v>0.1161322460451831</v>
+      </c>
+      <c r="O119">
+        <v>4.3053965173040158E-2</v>
+      </c>
+      <c r="P119">
+        <v>8.0376594078613462E-3</v>
+      </c>
+      <c r="Q119">
+        <v>1.035009265019716E-3</v>
+      </c>
+      <c r="R119">
+        <v>4.1776134695652497E-3</v>
+      </c>
+      <c r="S119">
+        <v>2.5959713809084199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="59"/>
+      <c r="B120" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>0.48279883411940788</v>
+      </c>
+      <c r="D120">
+        <v>0.54738936640994307</v>
+      </c>
+      <c r="E120">
+        <v>0.27023775728018817</v>
+      </c>
+      <c r="F120">
+        <v>5.3308474952563301E-2</v>
+      </c>
+      <c r="G120">
+        <v>6.3372805900721585E-2</v>
+      </c>
+      <c r="H120">
+        <v>0.1976240965638193</v>
+      </c>
+      <c r="I120">
+        <v>0.88060706508015019</v>
+      </c>
+      <c r="J120">
+        <v>0.19162270816254409</v>
+      </c>
+      <c r="K120">
+        <v>8.3305812944590107E-2</v>
+      </c>
+      <c r="L120">
+        <v>1.7345128672293451E-2</v>
+      </c>
+      <c r="M120">
+        <v>3.1822033182398263E-2</v>
+      </c>
+      <c r="N120">
+        <v>5.0587499749247047E-2</v>
+      </c>
+      <c r="O120">
+        <v>4.6980189303852747E-2</v>
+      </c>
+      <c r="P120">
+        <v>7.4877167106613962E-3</v>
+      </c>
+      <c r="Q120">
+        <v>3.6112444629112271E-3</v>
+      </c>
+      <c r="R120">
+        <v>2.5532874849723301E-3</v>
+      </c>
+      <c r="S120">
+        <v>2.930654020980263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="59"/>
+      <c r="B121" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>0.45328125058501001</v>
+      </c>
+      <c r="D121">
+        <v>0.74278933093205335</v>
+      </c>
+      <c r="E121">
+        <v>0.60155686875189596</v>
+      </c>
+      <c r="F121">
+        <v>0.23332652289149741</v>
+      </c>
+      <c r="G121">
+        <v>3.001240892200361E-2</v>
+      </c>
+      <c r="H121">
+        <v>3.001240892200361E-2</v>
+      </c>
+      <c r="I121">
+        <v>0.14567765278742381</v>
+      </c>
+      <c r="J121">
+        <v>0.91703313233725503</v>
+      </c>
+      <c r="K121">
+        <v>0.17685763160578219</v>
+      </c>
+      <c r="L121">
+        <v>3.7459357399074557E-2</v>
+      </c>
+      <c r="M121">
+        <v>2.298654830442929E-2</v>
+      </c>
+      <c r="N121">
+        <v>1.6382851462925129E-2</v>
+      </c>
+      <c r="O121">
+        <v>2.9149293357457778E-2</v>
+      </c>
+      <c r="P121">
+        <v>1.6190687828047751E-2</v>
+      </c>
+      <c r="Q121">
+        <v>6.1502193486830279E-3</v>
+      </c>
+      <c r="R121">
+        <v>1.9332739258649139E-3</v>
+      </c>
+      <c r="S121">
+        <v>3.462886762272865</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="59"/>
+      <c r="B122" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>0.2121721018053484</v>
+      </c>
+      <c r="D122">
+        <v>0.50095403332651323</v>
+      </c>
+      <c r="E122">
+        <v>0.65196680337327961</v>
+      </c>
+      <c r="F122">
+        <v>0.44861026055557202</v>
+      </c>
+      <c r="G122">
+        <v>0.1030330929272197</v>
+      </c>
+      <c r="H122">
+        <v>2.6288588418927089E-2</v>
+      </c>
+      <c r="I122">
+        <v>8.9226323910685745E-2</v>
+      </c>
+      <c r="J122">
+        <v>0.18657727677081201</v>
+      </c>
+      <c r="K122">
+        <v>0.73249950590968005</v>
+      </c>
+      <c r="L122">
+        <v>0.1202031506394767</v>
+      </c>
+      <c r="M122">
+        <v>3.6477074419668291E-2</v>
+      </c>
+      <c r="N122">
+        <v>6.6137924499284221E-3</v>
+      </c>
+      <c r="O122">
+        <v>2.3744852860144629E-2</v>
+      </c>
+      <c r="P122">
+        <v>2.532257538368134E-2</v>
+      </c>
+      <c r="Q122">
+        <v>1.1007036058564641E-2</v>
+      </c>
+      <c r="R122">
+        <v>4.9299290451300616E-3</v>
+      </c>
+      <c r="S122">
+        <v>3.1796263978546309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="59"/>
+      <c r="B123" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>0.13625913628933151</v>
+      </c>
+      <c r="D123">
+        <v>0.27871032427025172</v>
+      </c>
+      <c r="E123">
+        <v>0.45379324991841169</v>
+      </c>
+      <c r="F123">
+        <v>0.6183423543320512</v>
+      </c>
+      <c r="G123">
+        <v>0.33837918072304513</v>
+      </c>
+      <c r="H123">
+        <v>8.5128129986149201E-2</v>
+      </c>
+      <c r="I123">
+        <v>3.0915997973674281E-2</v>
+      </c>
+      <c r="J123">
+        <v>9.3554337758299674E-2</v>
+      </c>
+      <c r="K123">
+        <v>0.1652417126260991</v>
+      </c>
+      <c r="L123">
+        <v>0.75766440714440808</v>
+      </c>
+      <c r="M123">
+        <v>0.1429206888384171</v>
+      </c>
+      <c r="N123">
+        <v>3.3595936174832419E-2</v>
+      </c>
+      <c r="O123">
+        <v>1.4120675689961171E-2</v>
+      </c>
+      <c r="P123">
+        <v>9.8963210946687655E-3</v>
+      </c>
+      <c r="Q123">
+        <v>9.1649180869296694E-3</v>
+      </c>
+      <c r="R123">
+        <v>1.458046490213989E-2</v>
+      </c>
+      <c r="S123">
+        <v>3.1822678358086711</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="59"/>
+      <c r="B124" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>0.19468034463774619</v>
+      </c>
+      <c r="D124">
+        <v>0.17842525811882259</v>
+      </c>
+      <c r="E124">
+        <v>0.332586995417395</v>
+      </c>
+      <c r="F124">
+        <v>0.41293399957734039</v>
+      </c>
+      <c r="G124">
+        <v>0.35606468712225869</v>
+      </c>
+      <c r="H124">
+        <v>0.22283562066637641</v>
+      </c>
+      <c r="I124">
+        <v>8.839893969807712E-2</v>
+      </c>
+      <c r="J124">
+        <v>5.372579722533382E-2</v>
+      </c>
+      <c r="K124">
+        <v>9.7244756556962603E-2</v>
+      </c>
+      <c r="L124">
+        <v>0.17822478599607389</v>
+      </c>
+      <c r="M124">
+        <v>0.73249236715242605</v>
+      </c>
+      <c r="N124">
+        <v>0.16174567858702751</v>
+      </c>
+      <c r="O124">
+        <v>3.2856463947392438E-2</v>
+      </c>
+      <c r="P124">
+        <v>7.8488109687200359E-3</v>
+      </c>
+      <c r="Q124">
+        <v>8.5607829526352548E-3</v>
+      </c>
+      <c r="R124">
+        <v>1.7963340803741481E-2</v>
+      </c>
+      <c r="S124">
+        <v>3.07658862942833</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="59"/>
+      <c r="B125" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125">
+        <v>0.2917246094458063</v>
+      </c>
+      <c r="D125">
+        <v>0.29616139570469119</v>
+      </c>
+      <c r="E125">
+        <v>0.22264573850600691</v>
+      </c>
+      <c r="F125">
+        <v>0.33221013984806957</v>
+      </c>
+      <c r="G125">
+        <v>0.30779020939442508</v>
+      </c>
+      <c r="H125">
+        <v>0.36734582943818639</v>
+      </c>
+      <c r="I125">
+        <v>0.24990875975732291</v>
+      </c>
+      <c r="J125">
+        <v>8.1119869756532514E-2</v>
+      </c>
+      <c r="K125">
+        <v>4.2156613613218347E-2</v>
+      </c>
+      <c r="L125">
+        <v>0.1322265063126363</v>
+      </c>
+      <c r="M125">
+        <v>0.24003017409510971</v>
+      </c>
+      <c r="N125">
+        <v>0.79826001195674778</v>
+      </c>
+      <c r="O125">
+        <v>0.1657354874593196</v>
+      </c>
+      <c r="P125">
+        <v>3.8899001049629088E-2</v>
+      </c>
+      <c r="Q125">
+        <v>6.0501289541545289E-3</v>
+      </c>
+      <c r="R125">
+        <v>1.389074087297909E-2</v>
+      </c>
+      <c r="S125">
+        <v>3.5861552161648351</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="59"/>
+      <c r="B126" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>0.31134529409820949</v>
+      </c>
+      <c r="D126">
+        <v>0.28834434669726328</v>
+      </c>
+      <c r="E126">
+        <v>0.2058898648644652</v>
+      </c>
+      <c r="F126">
+        <v>0.18457333798675249</v>
+      </c>
+      <c r="G126">
+        <v>0.13843730865305101</v>
+      </c>
+      <c r="H126">
+        <v>0.19415649132730561</v>
+      </c>
+      <c r="I126">
+        <v>0.24950293862579759</v>
+      </c>
+      <c r="J126">
+        <v>0.17967601058066959</v>
+      </c>
+      <c r="K126">
+        <v>0.1018797966469735</v>
+      </c>
+      <c r="L126">
+        <v>4.8114473019489297E-2</v>
+      </c>
+      <c r="M126">
+        <v>9.8837602955819892E-2</v>
+      </c>
+      <c r="N126">
+        <v>0.20723494786629501</v>
+      </c>
+      <c r="O126">
+        <v>0.66400198425770895</v>
+      </c>
+      <c r="P126">
+        <v>0.1036212259481058</v>
+      </c>
+      <c r="Q126">
+        <v>2.1956604262780909E-2</v>
+      </c>
+      <c r="R126">
+        <v>3.7991763247403202E-3</v>
+      </c>
+      <c r="S126">
+        <v>3.001371404115428</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="59"/>
+      <c r="B127" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>0.21362463702654791</v>
+      </c>
+      <c r="D127">
+        <v>0.32217204248857839</v>
+      </c>
+      <c r="E127">
+        <v>0.29704949340625858</v>
+      </c>
+      <c r="F127">
+        <v>0.18085837972139859</v>
+      </c>
+      <c r="G127">
+        <v>0.1179460963612624</v>
+      </c>
+      <c r="H127">
+        <v>0.1106410184411893</v>
+      </c>
+      <c r="I127">
+        <v>0.1800640744179885</v>
+      </c>
+      <c r="J127">
+        <v>0.24091875751101141</v>
+      </c>
+      <c r="K127">
+        <v>0.25559079997534129</v>
+      </c>
+      <c r="L127">
+        <v>6.7540370646448147E-2</v>
+      </c>
+      <c r="M127">
+        <v>5.9720455420753479E-2</v>
+      </c>
+      <c r="N127">
+        <v>9.0416609239335546E-2</v>
+      </c>
+      <c r="O127">
+        <v>0.14470722386705889</v>
+      </c>
+      <c r="P127">
+        <v>0.60070458771345736</v>
+      </c>
+      <c r="Q127">
+        <v>8.5739884031059102E-2</v>
+      </c>
+      <c r="R127">
+        <v>9.1335633219010153E-3</v>
+      </c>
+      <c r="S127">
+        <v>2.9768279935895898</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="59"/>
+      <c r="B128" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>8.7535051743233033E-2</v>
+      </c>
+      <c r="D128">
+        <v>0.2803146037505162</v>
+      </c>
+      <c r="E128">
+        <v>0.25636190225638023</v>
+      </c>
+      <c r="F128">
+        <v>0.21274286482975721</v>
+      </c>
+      <c r="G128">
+        <v>4.2000323079455573E-2</v>
+      </c>
+      <c r="H128">
+        <v>7.7568571123864852E-2</v>
+      </c>
+      <c r="I128">
+        <v>6.9270788270510475E-2</v>
+      </c>
+      <c r="J128">
+        <v>0.1565752716407488</v>
+      </c>
+      <c r="K128">
+        <v>0.2587905839153285</v>
+      </c>
+      <c r="L128">
+        <v>0.1503111281205069</v>
+      </c>
+      <c r="M128">
+        <v>8.3948871423493762E-2</v>
+      </c>
+      <c r="N128">
+        <v>3.7343648814540963E-2</v>
+      </c>
+      <c r="O128">
+        <v>0.10147899237010211</v>
+      </c>
+      <c r="P128">
+        <v>0.13414629770358341</v>
+      </c>
+      <c r="Q128">
+        <v>0.40151916740089549</v>
+      </c>
+      <c r="R128">
+        <v>9.2435073603816947E-2</v>
+      </c>
+      <c r="S128">
+        <v>2.4423431400467339</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="59"/>
+      <c r="B129" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <v>0.17867052833943259</v>
+      </c>
+      <c r="D129">
+        <v>0.22723956695633729</v>
+      </c>
+      <c r="E129">
+        <v>0.36993855816546489</v>
+      </c>
+      <c r="F129">
+        <v>0.28608324927924661</v>
+      </c>
+      <c r="G129">
+        <v>7.8801542020079648E-2</v>
+      </c>
+      <c r="H129">
+        <v>6.8464474082245624E-2</v>
+      </c>
+      <c r="I129">
+        <v>8.6063113504558322E-2</v>
+      </c>
+      <c r="J129">
+        <v>0.17261569115783351</v>
+      </c>
+      <c r="K129">
+        <v>0.22253658799590159</v>
+      </c>
+      <c r="L129">
+        <v>0.26296910108123212</v>
+      </c>
+      <c r="M129">
+        <v>0.25285122777986668</v>
+      </c>
+      <c r="N129">
+        <v>8.8713983287576278E-2</v>
+      </c>
+      <c r="O129">
+        <v>3.5285301315390857E-2</v>
+      </c>
+      <c r="P129">
+        <v>6.6994453141113561E-2</v>
+      </c>
+      <c r="Q129">
+        <v>0.1152211397637133</v>
+      </c>
+      <c r="R129">
+        <v>0.3019841031035766</v>
+      </c>
+      <c r="S129">
+        <v>2.8144326209735691</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A114:A129"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="A2:A17"/>
@@ -10905,10 +12286,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S113"/>
+  <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:A113"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15544,7 +16925,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="59" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B82" s="41" t="s">
         <v>0</v>
@@ -16458,7 +17839,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="59" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B98" s="56" t="s">
         <v>0</v>
@@ -17370,8 +18751,923 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B114" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>1.1965976321090399</v>
+      </c>
+      <c r="D114">
+        <v>0.22592579703221941</v>
+      </c>
+      <c r="E114">
+        <v>4.3701464009243317E-2</v>
+      </c>
+      <c r="F114">
+        <v>5.2889649717278032E-2</v>
+      </c>
+      <c r="G114">
+        <v>1.421285098315694E-2</v>
+      </c>
+      <c r="H114">
+        <v>6.1966409341004627E-2</v>
+      </c>
+      <c r="I114">
+        <v>0.111307862582202</v>
+      </c>
+      <c r="J114">
+        <v>8.372315635915463E-2</v>
+      </c>
+      <c r="K114">
+        <v>4.0280972211866051E-2</v>
+      </c>
+      <c r="L114">
+        <v>4.9979048367368543E-2</v>
+      </c>
+      <c r="M114">
+        <v>2.7446561335746932E-2</v>
+      </c>
+      <c r="N114">
+        <v>1.8737687140838649E-2</v>
+      </c>
+      <c r="O114">
+        <v>2.5941433281008869E-3</v>
+      </c>
+      <c r="P114">
+        <v>9.7737008561871283E-4</v>
+      </c>
+      <c r="Q114">
+        <v>8.2552267724998897E-66</v>
+      </c>
+      <c r="R114">
+        <v>6.3909612866531253E-120</v>
+      </c>
+      <c r="S114">
+        <v>1.9303406046028391</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="59"/>
+      <c r="B115" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0.28269949102927422</v>
+      </c>
+      <c r="D115">
+        <v>2.864955954694707</v>
+      </c>
+      <c r="E115">
+        <v>0.17238440625632581</v>
+      </c>
+      <c r="F115">
+        <v>2.148934278561275E-2</v>
+      </c>
+      <c r="G115">
+        <v>1.9765245962529019E-2</v>
+      </c>
+      <c r="H115">
+        <v>5.5209040531599293E-2</v>
+      </c>
+      <c r="I115">
+        <v>7.1613142144806477E-2</v>
+      </c>
+      <c r="J115">
+        <v>6.9626834753361455E-2</v>
+      </c>
+      <c r="K115">
+        <v>6.9791362839115287E-2</v>
+      </c>
+      <c r="L115">
+        <v>5.2284963349797903E-2</v>
+      </c>
+      <c r="M115">
+        <v>4.5730633320452629E-2</v>
+      </c>
+      <c r="N115">
+        <v>1.4455122745332021E-2</v>
+      </c>
+      <c r="O115">
+        <v>5.9667328018229993E-3</v>
+      </c>
+      <c r="P115">
+        <v>1.4564838281177449E-3</v>
+      </c>
+      <c r="Q115">
+        <v>3.4758339703519882E-4</v>
+      </c>
+      <c r="R115">
+        <v>8.0948986569444734E-39</v>
+      </c>
+      <c r="S115">
+        <v>3.7477763404398901</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="59"/>
+      <c r="B116" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>2.530614079088236E-3</v>
+      </c>
+      <c r="D116">
+        <v>0.66924851698604582</v>
+      </c>
+      <c r="E116">
+        <v>4.2031136657187744</v>
+      </c>
+      <c r="F116">
+        <v>0.14699799476132411</v>
+      </c>
+      <c r="G116">
+        <v>1.354276879237068E-2</v>
+      </c>
+      <c r="H116">
+        <v>4.6052084097072128E-2</v>
+      </c>
+      <c r="I116">
+        <v>4.6587419776027511E-2</v>
+      </c>
+      <c r="J116">
+        <v>7.6347789667156718E-2</v>
+      </c>
+      <c r="K116">
+        <v>8.2423493151520061E-2</v>
+      </c>
+      <c r="L116">
+        <v>6.8024307474459131E-2</v>
+      </c>
+      <c r="M116">
+        <v>4.9469141420625702E-2</v>
+      </c>
+      <c r="N116">
+        <v>2.5247667769855549E-2</v>
+      </c>
+      <c r="O116">
+        <v>6.7475834417493616E-3</v>
+      </c>
+      <c r="P116">
+        <v>7.7704892192048821E-4</v>
+      </c>
+      <c r="Q116">
+        <v>4.9409091239956754E-25</v>
+      </c>
+      <c r="R116">
+        <v>1.8231555754780811E-4</v>
+      </c>
+      <c r="S116">
+        <v>5.4372924116155366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="59"/>
+      <c r="B117" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>1.696112560850661E-2</v>
+      </c>
+      <c r="D117">
+        <v>3.2312355856486043E-2</v>
+      </c>
+      <c r="E117">
+        <v>1.4730986016108889</v>
+      </c>
+      <c r="F117">
+        <v>5.7130936061529338</v>
+      </c>
+      <c r="G117">
+        <v>6.1256478145341658E-2</v>
+      </c>
+      <c r="H117">
+        <v>5.7550199509354957E-2</v>
+      </c>
+      <c r="I117">
+        <v>6.3774580585579554E-2</v>
+      </c>
+      <c r="J117">
+        <v>9.2255952976687886E-2</v>
+      </c>
+      <c r="K117">
+        <v>8.0418153744098872E-2</v>
+      </c>
+      <c r="L117">
+        <v>9.9895434648124282E-2</v>
+      </c>
+      <c r="M117">
+        <v>5.7089316883101933E-2</v>
+      </c>
+      <c r="N117">
+        <v>3.4197259019362929E-2</v>
+      </c>
+      <c r="O117">
+        <v>8.0584001467266988E-3</v>
+      </c>
+      <c r="P117">
+        <v>1.1903415627512199E-3</v>
+      </c>
+      <c r="Q117">
+        <v>6.2189278066822765E-33</v>
+      </c>
+      <c r="R117">
+        <v>1.7093057086336361E-70</v>
+      </c>
+      <c r="S117">
+        <v>7.7911518064499461</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="59"/>
+      <c r="B118" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>1.9103863511788399E-2</v>
+      </c>
+      <c r="D118">
+        <v>1.5803821489967569E-2</v>
+      </c>
+      <c r="E118">
+        <v>6.7115579736067941E-3</v>
+      </c>
+      <c r="F118">
+        <v>0.62648978471652239</v>
+      </c>
+      <c r="G118">
+        <v>0.30999373720917478</v>
+      </c>
+      <c r="H118">
+        <v>3.6265293923138209E-2</v>
+      </c>
+      <c r="I118">
+        <v>2.4285630413155169E-2</v>
+      </c>
+      <c r="J118">
+        <v>3.041552627727721E-2</v>
+      </c>
+      <c r="K118">
+        <v>2.007788616624754E-2</v>
+      </c>
+      <c r="L118">
+        <v>2.5730320082645319E-2</v>
+      </c>
+      <c r="M118">
+        <v>1.4141383195599299E-2</v>
+      </c>
+      <c r="N118">
+        <v>1.014522956846222E-2</v>
+      </c>
+      <c r="O118">
+        <v>7.9451117597296723E-4</v>
+      </c>
+      <c r="P118">
+        <v>1.2812267596201991E-3</v>
+      </c>
+      <c r="Q118">
+        <v>1.7719034922565201E-4</v>
+      </c>
+      <c r="R118">
+        <v>1.219880037838444E-47</v>
+      </c>
+      <c r="S118">
+        <v>1.141416962812404</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="59"/>
+      <c r="B119" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>1.999603307530046E-2</v>
+      </c>
+      <c r="D119">
+        <v>7.6942413226311193E-2</v>
+      </c>
+      <c r="E119">
+        <v>2.5841401960491929E-2</v>
+      </c>
+      <c r="F119">
+        <v>0.1471697171690782</v>
+      </c>
+      <c r="G119">
+        <v>0.20087404938405859</v>
+      </c>
+      <c r="H119">
+        <v>0.1218165794572787</v>
+      </c>
+      <c r="I119">
+        <v>2.121650277839356E-2</v>
+      </c>
+      <c r="J119">
+        <v>2.8722827804166101E-2</v>
+      </c>
+      <c r="K119">
+        <v>3.5406751258304073E-2</v>
+      </c>
+      <c r="L119">
+        <v>3.2499234094472987E-2</v>
+      </c>
+      <c r="M119">
+        <v>8.8036753223696643E-3</v>
+      </c>
+      <c r="N119">
+        <v>1.449574225159787E-2</v>
+      </c>
+      <c r="O119">
+        <v>4.9846032243633463E-3</v>
+      </c>
+      <c r="P119">
+        <v>2.478329810170266E-3</v>
+      </c>
+      <c r="Q119">
+        <v>4.6321194847233132E-4</v>
+      </c>
+      <c r="R119">
+        <v>1.286364694003194E-3</v>
+      </c>
+      <c r="S119">
+        <v>0.74299743745883251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="59"/>
+      <c r="B120" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>3.9211219629786381E-2</v>
+      </c>
+      <c r="D120">
+        <v>0.25572654132276967</v>
+      </c>
+      <c r="E120">
+        <v>0.18092165362623031</v>
+      </c>
+      <c r="F120">
+        <v>0.12690098882331949</v>
+      </c>
+      <c r="G120">
+        <v>3.6590960124431603E-2</v>
+      </c>
+      <c r="H120">
+        <v>6.6407819204966786E-2</v>
+      </c>
+      <c r="I120">
+        <v>6.0149654702134278E-2</v>
+      </c>
+      <c r="J120">
+        <v>4.2655475899382463E-2</v>
+      </c>
+      <c r="K120">
+        <v>4.8201101736810109E-2</v>
+      </c>
+      <c r="L120">
+        <v>2.629812406146214E-2</v>
+      </c>
+      <c r="M120">
+        <v>2.231712641723875E-2</v>
+      </c>
+      <c r="N120">
+        <v>3.4348310597130589E-3</v>
+      </c>
+      <c r="O120">
+        <v>6.3541215199630239E-3</v>
+      </c>
+      <c r="P120">
+        <v>4.6003098220556932E-4</v>
+      </c>
+      <c r="Q120">
+        <v>1.654789930812665E-48</v>
+      </c>
+      <c r="R120">
+        <v>3.11288529341753E-55</v>
+      </c>
+      <c r="S120">
+        <v>0.91562964911041378</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="59"/>
+      <c r="B121" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>6.7382493241074898E-2</v>
+      </c>
+      <c r="D121">
+        <v>0.15530426403182199</v>
+      </c>
+      <c r="E121">
+        <v>0.1217090060747134</v>
+      </c>
+      <c r="F121">
+        <v>6.8093276587131754E-2</v>
+      </c>
+      <c r="G121">
+        <v>1.4678982624916549E-2</v>
+      </c>
+      <c r="H121">
+        <v>4.3693165046953572E-2</v>
+      </c>
+      <c r="I121">
+        <v>6.0733523270360031E-2</v>
+      </c>
+      <c r="J121">
+        <v>4.639476193694498E-2</v>
+      </c>
+      <c r="K121">
+        <v>5.3654303229926932E-2</v>
+      </c>
+      <c r="L121">
+        <v>2.6937114655387218E-2</v>
+      </c>
+      <c r="M121">
+        <v>4.1527955838624037E-3</v>
+      </c>
+      <c r="N121">
+        <v>9.757645393740192E-3</v>
+      </c>
+      <c r="O121">
+        <v>6.7808666049811893E-4</v>
+      </c>
+      <c r="P121">
+        <v>2.1764123050159521E-3</v>
+      </c>
+      <c r="Q121">
+        <v>1.8450175063453869E-123</v>
+      </c>
+      <c r="R121">
+        <v>9.699752320091819E-67</v>
+      </c>
+      <c r="S121">
+        <v>0.6753458306423481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="59"/>
+      <c r="B122" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>2.2371353637554572E-2</v>
+      </c>
+      <c r="D122">
+        <v>9.2436711514271505E-2</v>
+      </c>
+      <c r="E122">
+        <v>7.8524518491853698E-2</v>
+      </c>
+      <c r="F122">
+        <v>0.34866038943609617</v>
+      </c>
+      <c r="G122">
+        <v>7.3099756580179403E-3</v>
+      </c>
+      <c r="H122">
+        <v>2.2705318390741101E-2</v>
+      </c>
+      <c r="I122">
+        <v>2.2211135687642158E-2</v>
+      </c>
+      <c r="J122">
+        <v>3.0725957148486829E-2</v>
+      </c>
+      <c r="K122">
+        <v>6.8620543069894874E-2</v>
+      </c>
+      <c r="L122">
+        <v>2.568750657832616E-2</v>
+      </c>
+      <c r="M122">
+        <v>2.9791058241384189E-2</v>
+      </c>
+      <c r="N122">
+        <v>8.3802633516084947E-3</v>
+      </c>
+      <c r="O122">
+        <v>6.960731046059359E-3</v>
+      </c>
+      <c r="P122">
+        <v>5.0621304799295752E-4</v>
+      </c>
+      <c r="Q122">
+        <v>4.8147636184359091E-68</v>
+      </c>
+      <c r="R122">
+        <v>2.40361388235634E-92</v>
+      </c>
+      <c r="S122">
+        <v>0.76489167529992985</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="59"/>
+      <c r="B123" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>0.1965900953822316</v>
+      </c>
+      <c r="D123">
+        <v>0.21929730327325281</v>
+      </c>
+      <c r="E123">
+        <v>0.15214132363445709</v>
+      </c>
+      <c r="F123">
+        <v>0.59913209558184788</v>
+      </c>
+      <c r="G123">
+        <v>5.5269781575928E-3</v>
+      </c>
+      <c r="H123">
+        <v>2.9621323583253579E-2</v>
+      </c>
+      <c r="I123">
+        <v>5.6907510166381063E-2</v>
+      </c>
+      <c r="J123">
+        <v>5.0338158162411793E-2</v>
+      </c>
+      <c r="K123">
+        <v>4.8948057268509038E-2</v>
+      </c>
+      <c r="L123">
+        <v>3.0930144829092319E-2</v>
+      </c>
+      <c r="M123">
+        <v>3.9498904759237528E-2</v>
+      </c>
+      <c r="N123">
+        <v>1.8181070714194981E-2</v>
+      </c>
+      <c r="O123">
+        <v>4.3668463154438262E-3</v>
+      </c>
+      <c r="P123">
+        <v>1.819803889942624E-3</v>
+      </c>
+      <c r="Q123">
+        <v>6.2141274647183367E-134</v>
+      </c>
+      <c r="R123">
+        <v>3.2753507797362338E-72</v>
+      </c>
+      <c r="S123">
+        <v>1.453299615717849</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="59"/>
+      <c r="B124" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>5.0031119325357538E-2</v>
+      </c>
+      <c r="D124">
+        <v>0.37482659486864311</v>
+      </c>
+      <c r="E124">
+        <v>0.50172257437131029</v>
+      </c>
+      <c r="F124">
+        <v>0.59115714027509914</v>
+      </c>
+      <c r="G124">
+        <v>5.738182144034272E-3</v>
+      </c>
+      <c r="H124">
+        <v>1.562495641379787E-2</v>
+      </c>
+      <c r="I124">
+        <v>4.3433214962052873E-2</v>
+      </c>
+      <c r="J124">
+        <v>4.3851977696820608E-2</v>
+      </c>
+      <c r="K124">
+        <v>5.6886488554607033E-2</v>
+      </c>
+      <c r="L124">
+        <v>8.1588924286717865E-2</v>
+      </c>
+      <c r="M124">
+        <v>4.282934863313323E-2</v>
+      </c>
+      <c r="N124">
+        <v>2.2783479791474531E-2</v>
+      </c>
+      <c r="O124">
+        <v>6.2747773593595218E-3</v>
+      </c>
+      <c r="P124">
+        <v>9.7172961715114476E-24</v>
+      </c>
+      <c r="Q124">
+        <v>1.239094001350889E-117</v>
+      </c>
+      <c r="R124">
+        <v>5.6470728119947264E-78</v>
+      </c>
+      <c r="S124">
+        <v>1.8367487786824079</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="59"/>
+      <c r="B125" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125">
+        <v>0.15534542213975261</v>
+      </c>
+      <c r="D125">
+        <v>0.35656203480792847</v>
+      </c>
+      <c r="E125">
+        <v>0.3292119821059436</v>
+      </c>
+      <c r="F125">
+        <v>0.40960952961745267</v>
+      </c>
+      <c r="G125">
+        <v>6.6735699858169956E-3</v>
+      </c>
+      <c r="H125">
+        <v>6.0493716039956992E-2</v>
+      </c>
+      <c r="I125">
+        <v>2.3441449463904349E-2</v>
+      </c>
+      <c r="J125">
+        <v>4.0162219815252982E-2</v>
+      </c>
+      <c r="K125">
+        <v>5.2519842094274113E-2</v>
+      </c>
+      <c r="L125">
+        <v>3.9769267620673052E-2</v>
+      </c>
+      <c r="M125">
+        <v>3.5848264896249031E-2</v>
+      </c>
+      <c r="N125">
+        <v>3.9753834231399582E-2</v>
+      </c>
+      <c r="O125">
+        <v>1.2003743190956871E-2</v>
+      </c>
+      <c r="P125">
+        <v>1.23044525130155E-31</v>
+      </c>
+      <c r="Q125">
+        <v>7.8259180784399928E-4</v>
+      </c>
+      <c r="R125">
+        <v>7.6299302289005791E-4</v>
+      </c>
+      <c r="S125">
+        <v>1.562940460840295</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="59"/>
+      <c r="B126" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>7.3593896960813976E-2</v>
+      </c>
+      <c r="D126">
+        <v>7.462386573145223E-2</v>
+      </c>
+      <c r="E126">
+        <v>4.0215392217826863E-2</v>
+      </c>
+      <c r="F126">
+        <v>0.20523403556222819</v>
+      </c>
+      <c r="G126">
+        <v>1.441309068059576E-2</v>
+      </c>
+      <c r="H126">
+        <v>1.974159321856443E-3</v>
+      </c>
+      <c r="I126">
+        <v>1.8156536005531621E-2</v>
+      </c>
+      <c r="J126">
+        <v>5.1392260152495289E-2</v>
+      </c>
+      <c r="K126">
+        <v>1.164718548850768E-2</v>
+      </c>
+      <c r="L126">
+        <v>1.9144270989433169E-2</v>
+      </c>
+      <c r="M126">
+        <v>1.5367209356925491E-2</v>
+      </c>
+      <c r="N126">
+        <v>7.8000861196485588E-3</v>
+      </c>
+      <c r="O126">
+        <v>2.5815000220929561E-2</v>
+      </c>
+      <c r="P126">
+        <v>1.1807919696612211E-2</v>
+      </c>
+      <c r="Q126">
+        <v>4.4252819811933277E-67</v>
+      </c>
+      <c r="R126">
+        <v>2.121723586966525E-37</v>
+      </c>
+      <c r="S126">
+        <v>0.57118490850485704</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="59"/>
+      <c r="B127" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>2.10669143337069E-3</v>
+      </c>
+      <c r="D127">
+        <v>2.8441645517982991E-2</v>
+      </c>
+      <c r="E127">
+        <v>1.131259413223824E-2</v>
+      </c>
+      <c r="F127">
+        <v>8.4025677268976126E-32</v>
+      </c>
+      <c r="G127">
+        <v>2.010305874169822E-3</v>
+      </c>
+      <c r="H127">
+        <v>1.9774867526244611E-3</v>
+      </c>
+      <c r="I127">
+        <v>1.2780108278379909E-2</v>
+      </c>
+      <c r="J127">
+        <v>5.6285989794061242E-3</v>
+      </c>
+      <c r="K127">
+        <v>5.7328648415309151E-3</v>
+      </c>
+      <c r="L127">
+        <v>9.3574790189956299E-3</v>
+      </c>
+      <c r="M127">
+        <v>2.1307358448445501E-3</v>
+      </c>
+      <c r="N127">
+        <v>1.6193406093803289E-2</v>
+      </c>
+      <c r="O127">
+        <v>8.629649041178614E-3</v>
+      </c>
+      <c r="P127">
+        <v>1.7682260090243641E-2</v>
+      </c>
+      <c r="Q127">
+        <v>1.112528594744995E-2</v>
+      </c>
+      <c r="R127">
+        <v>3.4573036701592782E-126</v>
+      </c>
+      <c r="S127">
+        <v>0.13510911184621879</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="59"/>
+      <c r="B128" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>1.2838607786175159E-28</v>
+      </c>
+      <c r="D128">
+        <v>5.1125708417096289E-26</v>
+      </c>
+      <c r="E128">
+        <v>1.9315458517816162E-40</v>
+      </c>
+      <c r="F128">
+        <v>7.6135532287364121E-3</v>
+      </c>
+      <c r="G128">
+        <v>2.6362585605801411E-22</v>
+      </c>
+      <c r="H128">
+        <v>1.6978386558270509E-24</v>
+      </c>
+      <c r="I128">
+        <v>1.259044182856634E-26</v>
+      </c>
+      <c r="J128">
+        <v>7.6241343718109547E-3</v>
+      </c>
+      <c r="K128">
+        <v>7.8540920794984356E-3</v>
+      </c>
+      <c r="L128">
+        <v>2.1168491663364632E-2</v>
+      </c>
+      <c r="M128">
+        <v>3.5243624641015762E-2</v>
+      </c>
+      <c r="N128">
+        <v>2.145334471453E-2</v>
+      </c>
+      <c r="O128">
+        <v>7.7435181635520586E-3</v>
+      </c>
+      <c r="P128">
+        <v>8.0142800089188556E-3</v>
+      </c>
+      <c r="Q128">
+        <v>7.9128592462683611E-3</v>
+      </c>
+      <c r="R128">
+        <v>2.1382601901338859E-2</v>
+      </c>
+      <c r="S128">
+        <v>0.14601050001903429</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="59"/>
+      <c r="B129" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <v>2.8217203995950291E-94</v>
+      </c>
+      <c r="D129">
+        <v>2.1144000074997341E-2</v>
+      </c>
+      <c r="E129">
+        <v>8.4731350719260939E-42</v>
+      </c>
+      <c r="F129">
+        <v>2.1286722078128852E-2</v>
+      </c>
+      <c r="G129">
+        <v>4.899240885263989E-36</v>
+      </c>
+      <c r="H129">
+        <v>7.594640109132255E-3</v>
+      </c>
+      <c r="I129">
+        <v>9.7755813406249566E-69</v>
+      </c>
+      <c r="J129">
+        <v>2.2320492104404709E-60</v>
+      </c>
+      <c r="K129">
+        <v>1.4379372658787789E-48</v>
+      </c>
+      <c r="L129">
+        <v>8.5663673262732034E-60</v>
+      </c>
+      <c r="M129">
+        <v>4.6983922898413731E-42</v>
+      </c>
+      <c r="N129">
+        <v>1.599322009115185E-46</v>
+      </c>
+      <c r="O129">
+        <v>2.210866424119164E-83</v>
+      </c>
+      <c r="P129">
+        <v>8.8595680764357349E-107</v>
+      </c>
+      <c r="Q129">
+        <v>1.02042913074009E-80</v>
+      </c>
+      <c r="R129">
+        <v>6.6141445524672142E-113</v>
+      </c>
+      <c r="S129">
+        <v>5.0025362262258448E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A114:A129"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="A2:A17"/>
@@ -17389,10 +19685,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S113"/>
+  <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:A113"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22028,7 +24324,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="59" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B82" s="41" t="s">
         <v>0</v>
@@ -22942,7 +25238,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="59" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B98" s="56" t="s">
         <v>0</v>
@@ -23854,8 +26150,923 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B114" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>8.2060452414479945E-92</v>
+      </c>
+      <c r="Q114">
+        <v>1.2058515015357481E-5</v>
+      </c>
+      <c r="R114">
+        <v>3.1643683381115669E-125</v>
+      </c>
+      <c r="S114">
+        <v>1.2058515015357481E-5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="59"/>
+      <c r="B115" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>1.3495557764948161E-5</v>
+      </c>
+      <c r="Q115">
+        <v>7.6459132509916683E-79</v>
+      </c>
+      <c r="R115">
+        <v>2.383920728025148E-65</v>
+      </c>
+      <c r="S115">
+        <v>1.3495557764948161E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="59"/>
+      <c r="B116" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>7.7920472791720569E-2</v>
+      </c>
+      <c r="F116">
+        <v>1.8861394336795151E-2</v>
+      </c>
+      <c r="G116">
+        <v>2.156683940830216E-2</v>
+      </c>
+      <c r="H116">
+        <v>6.2055101161526778E-3</v>
+      </c>
+      <c r="I116">
+        <v>5.0581908579205602E-2</v>
+      </c>
+      <c r="J116">
+        <v>1.442139664885963E-2</v>
+      </c>
+      <c r="K116">
+        <v>5.0319864711768837E-2</v>
+      </c>
+      <c r="L116">
+        <v>2.9419847515017299E-2</v>
+      </c>
+      <c r="M116">
+        <v>1.20163225050931E-2</v>
+      </c>
+      <c r="N116">
+        <v>2.9551547904810411E-8</v>
+      </c>
+      <c r="O116">
+        <v>2.9616860159185992E-17</v>
+      </c>
+      <c r="P116">
+        <v>2.7978031705087359E-53</v>
+      </c>
+      <c r="Q116">
+        <v>4.9580076999148522E-6</v>
+      </c>
+      <c r="R116">
+        <v>3.7771808267144161E-102</v>
+      </c>
+      <c r="S116">
+        <v>0.2813185441721629</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="59"/>
+      <c r="B117" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>3.3617652332420672E-2</v>
+      </c>
+      <c r="F117">
+        <v>0.64408555572375581</v>
+      </c>
+      <c r="G117">
+        <v>0.55269255000013684</v>
+      </c>
+      <c r="H117">
+        <v>0.31609334891209551</v>
+      </c>
+      <c r="I117">
+        <v>0.29389143267149381</v>
+      </c>
+      <c r="J117">
+        <v>0.27330789577629622</v>
+      </c>
+      <c r="K117">
+        <v>0.30267629047347139</v>
+      </c>
+      <c r="L117">
+        <v>0.24016220888048931</v>
+      </c>
+      <c r="M117">
+        <v>0.1454755966951008</v>
+      </c>
+      <c r="N117">
+        <v>6.8929403715581344E-2</v>
+      </c>
+      <c r="O117">
+        <v>1.333227245482926E-2</v>
+      </c>
+      <c r="P117">
+        <v>8.3469960156949892E-6</v>
+      </c>
+      <c r="Q117">
+        <v>2.8597282239804278E-6</v>
+      </c>
+      <c r="R117">
+        <v>1.8892612209825001E-31</v>
+      </c>
+      <c r="S117">
+        <v>2.8842754143599101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="59"/>
+      <c r="B118" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>4.7114862362869638E-2</v>
+      </c>
+      <c r="F118">
+        <v>0.37251002238442738</v>
+      </c>
+      <c r="G118">
+        <v>0.77214046762323141</v>
+      </c>
+      <c r="H118">
+        <v>0.73590041574841769</v>
+      </c>
+      <c r="I118">
+        <v>0.61256218003455021</v>
+      </c>
+      <c r="J118">
+        <v>0.67520766365715179</v>
+      </c>
+      <c r="K118">
+        <v>0.5067842162098084</v>
+      </c>
+      <c r="L118">
+        <v>0.40849893290224948</v>
+      </c>
+      <c r="M118">
+        <v>0.32172965768994821</v>
+      </c>
+      <c r="N118">
+        <v>0.14759761990563169</v>
+      </c>
+      <c r="O118">
+        <v>3.9319260399802741E-2</v>
+      </c>
+      <c r="P118">
+        <v>9.8611340668542582E-6</v>
+      </c>
+      <c r="Q118">
+        <v>1.326093870262973E-5</v>
+      </c>
+      <c r="R118">
+        <v>3.7431804801341289E-6</v>
+      </c>
+      <c r="S118">
+        <v>4.6393921641713387</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="59"/>
+      <c r="B119" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>6.0256645106452712E-2</v>
+      </c>
+      <c r="F119">
+        <v>0.3256083273649632</v>
+      </c>
+      <c r="G119">
+        <v>0.73074597955368392</v>
+      </c>
+      <c r="H119">
+        <v>1.2237410098976289</v>
+      </c>
+      <c r="I119">
+        <v>0.87334512685294097</v>
+      </c>
+      <c r="J119">
+        <v>0.85304132731198801</v>
+      </c>
+      <c r="K119">
+        <v>0.78341666593073733</v>
+      </c>
+      <c r="L119">
+        <v>0.55279614832290136</v>
+      </c>
+      <c r="M119">
+        <v>0.46871289388568388</v>
+      </c>
+      <c r="N119">
+        <v>0.21622658169348111</v>
+      </c>
+      <c r="O119">
+        <v>5.2154649218617233E-2</v>
+      </c>
+      <c r="P119">
+        <v>1.606746272092466E-5</v>
+      </c>
+      <c r="Q119">
+        <v>1.0118260764952541E-5</v>
+      </c>
+      <c r="R119">
+        <v>3.01442534314934E-6</v>
+      </c>
+      <c r="S119">
+        <v>6.1400745552879066</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="59"/>
+      <c r="B120" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>6.8092380967084781E-2</v>
+      </c>
+      <c r="F120">
+        <v>0.17549466830530569</v>
+      </c>
+      <c r="G120">
+        <v>0.50499385254981399</v>
+      </c>
+      <c r="H120">
+        <v>0.82800779694309889</v>
+      </c>
+      <c r="I120">
+        <v>1.080698957713381</v>
+      </c>
+      <c r="J120">
+        <v>0.94816134429338073</v>
+      </c>
+      <c r="K120">
+        <v>0.84469612353439127</v>
+      </c>
+      <c r="L120">
+        <v>0.69408009342332611</v>
+      </c>
+      <c r="M120">
+        <v>0.43184991056137861</v>
+      </c>
+      <c r="N120">
+        <v>0.2515958475559974</v>
+      </c>
+      <c r="O120">
+        <v>4.8705561793882461E-2</v>
+      </c>
+      <c r="P120">
+        <v>1.6379556286167829E-5</v>
+      </c>
+      <c r="Q120">
+        <v>4.1010085071125459E-6</v>
+      </c>
+      <c r="R120">
+        <v>3.4947898021319551E-6</v>
+      </c>
+      <c r="S120">
+        <v>5.8764005129956374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="59"/>
+      <c r="B121" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>4.1891724647026111E-2</v>
+      </c>
+      <c r="F121">
+        <v>0.35018775499068722</v>
+      </c>
+      <c r="G121">
+        <v>0.41908495725582029</v>
+      </c>
+      <c r="H121">
+        <v>0.77804485537425938</v>
+      </c>
+      <c r="I121">
+        <v>0.83093354024514188</v>
+      </c>
+      <c r="J121">
+        <v>1.148696830434182</v>
+      </c>
+      <c r="K121">
+        <v>1.1109177517431841</v>
+      </c>
+      <c r="L121">
+        <v>0.77372636119068328</v>
+      </c>
+      <c r="M121">
+        <v>0.58111013305748838</v>
+      </c>
+      <c r="N121">
+        <v>0.2308831216744244</v>
+      </c>
+      <c r="O121">
+        <v>3.453255747126048E-2</v>
+      </c>
+      <c r="P121">
+        <v>1.2298852979232539E-5</v>
+      </c>
+      <c r="Q121">
+        <v>9.1351283341708809E-6</v>
+      </c>
+      <c r="R121">
+        <v>6.020974158389122E-6</v>
+      </c>
+      <c r="S121">
+        <v>6.3000370430396302</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="59"/>
+      <c r="B122" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>4.7058823182734043E-2</v>
+      </c>
+      <c r="F122">
+        <v>0.21741762141631751</v>
+      </c>
+      <c r="G122">
+        <v>0.49036286275298668</v>
+      </c>
+      <c r="H122">
+        <v>0.7649593714465821</v>
+      </c>
+      <c r="I122">
+        <v>0.89986300997516222</v>
+      </c>
+      <c r="J122">
+        <v>0.96341309682628173</v>
+      </c>
+      <c r="K122">
+        <v>1.173340850625548</v>
+      </c>
+      <c r="L122">
+        <v>0.94885129408387336</v>
+      </c>
+      <c r="M122">
+        <v>0.70345415679630341</v>
+      </c>
+      <c r="N122">
+        <v>0.24369085628111939</v>
+      </c>
+      <c r="O122">
+        <v>5.0336395492948681E-2</v>
+      </c>
+      <c r="P122">
+        <v>1.4362616105122531E-5</v>
+      </c>
+      <c r="Q122">
+        <v>1.0272156668633031E-5</v>
+      </c>
+      <c r="R122">
+        <v>1.2950389341679861E-5</v>
+      </c>
+      <c r="S122">
+        <v>6.5027859240419721</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="59"/>
+      <c r="B123" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>6.3191257665763834E-2</v>
+      </c>
+      <c r="F123">
+        <v>0.2735183051506434</v>
+      </c>
+      <c r="G123">
+        <v>0.33636052620986789</v>
+      </c>
+      <c r="H123">
+        <v>0.57874515451583464</v>
+      </c>
+      <c r="I123">
+        <v>0.74006785302397693</v>
+      </c>
+      <c r="J123">
+        <v>0.81398920868264757</v>
+      </c>
+      <c r="K123">
+        <v>0.83714225069675985</v>
+      </c>
+      <c r="L123">
+        <v>0.82229695805988068</v>
+      </c>
+      <c r="M123">
+        <v>0.54635375089959692</v>
+      </c>
+      <c r="N123">
+        <v>0.27759469813020737</v>
+      </c>
+      <c r="O123">
+        <v>4.0351247589000952E-2</v>
+      </c>
+      <c r="P123">
+        <v>1.6281037030972492E-5</v>
+      </c>
+      <c r="Q123">
+        <v>1.082436104787482E-5</v>
+      </c>
+      <c r="R123">
+        <v>6.091723387356965E-6</v>
+      </c>
+      <c r="S123">
+        <v>5.3296444077456453</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="59"/>
+      <c r="B124" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>6.9157459259563778E-2</v>
+      </c>
+      <c r="F124">
+        <v>0.20707895588664679</v>
+      </c>
+      <c r="G124">
+        <v>0.28338805111585358</v>
+      </c>
+      <c r="H124">
+        <v>0.59019611999094013</v>
+      </c>
+      <c r="I124">
+        <v>0.68614527124323277</v>
+      </c>
+      <c r="J124">
+        <v>0.71481080681410991</v>
+      </c>
+      <c r="K124">
+        <v>0.96221670846453655</v>
+      </c>
+      <c r="L124">
+        <v>0.93410796742351088</v>
+      </c>
+      <c r="M124">
+        <v>0.73200869162420545</v>
+      </c>
+      <c r="N124">
+        <v>0.35459835868575068</v>
+      </c>
+      <c r="O124">
+        <v>4.8811969375468472E-2</v>
+      </c>
+      <c r="P124">
+        <v>1.180797212969506E-5</v>
+      </c>
+      <c r="Q124">
+        <v>1.1822664543445789E-5</v>
+      </c>
+      <c r="R124">
+        <v>1.01613164687284E-5</v>
+      </c>
+      <c r="S124">
+        <v>5.5825541518369617</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="59"/>
+      <c r="B125" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0.10959942265835181</v>
+      </c>
+      <c r="F125">
+        <v>0.14312516718397081</v>
+      </c>
+      <c r="G125">
+        <v>0.196390164723314</v>
+      </c>
+      <c r="H125">
+        <v>0.35923233428158058</v>
+      </c>
+      <c r="I125">
+        <v>0.49814464851999479</v>
+      </c>
+      <c r="J125">
+        <v>0.46989527508425438</v>
+      </c>
+      <c r="K125">
+        <v>0.59716495564567307</v>
+      </c>
+      <c r="L125">
+        <v>0.47410850604828519</v>
+      </c>
+      <c r="M125">
+        <v>0.45339675914492811</v>
+      </c>
+      <c r="N125">
+        <v>0.28328374230302428</v>
+      </c>
+      <c r="O125">
+        <v>4.7359345317351753E-2</v>
+      </c>
+      <c r="P125">
+        <v>1.349783035371988E-5</v>
+      </c>
+      <c r="Q125">
+        <v>6.587399251519834E-6</v>
+      </c>
+      <c r="R125">
+        <v>6.6571675591286492E-6</v>
+      </c>
+      <c r="S125">
+        <v>3.6317270633078929</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="59"/>
+      <c r="B126" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>3.1588089056084338E-2</v>
+      </c>
+      <c r="F126">
+        <v>1.6569382532579589E-2</v>
+      </c>
+      <c r="G126">
+        <v>6.6643460665597204E-2</v>
+      </c>
+      <c r="H126">
+        <v>0.1181256574860247</v>
+      </c>
+      <c r="I126">
+        <v>0.12977954932630731</v>
+      </c>
+      <c r="J126">
+        <v>0.1534408116648435</v>
+      </c>
+      <c r="K126">
+        <v>0.1649304263855208</v>
+      </c>
+      <c r="L126">
+        <v>0.16208452102074389</v>
+      </c>
+      <c r="M126">
+        <v>0.12774223490284589</v>
+      </c>
+      <c r="N126">
+        <v>9.8457967317108E-2</v>
+      </c>
+      <c r="O126">
+        <v>1.386927159379627E-2</v>
+      </c>
+      <c r="P126">
+        <v>2.030195801259054E-5</v>
+      </c>
+      <c r="Q126">
+        <v>8.2610215574613784E-6</v>
+      </c>
+      <c r="R126">
+        <v>1.483981821636681E-5</v>
+      </c>
+      <c r="S126">
+        <v>1.0832747747492379</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="59"/>
+      <c r="B127" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>7.602995211457355E-6</v>
+      </c>
+      <c r="D127">
+        <v>3.3632675385513442E-6</v>
+      </c>
+      <c r="E127">
+        <v>7.6485529562267413E-6</v>
+      </c>
+      <c r="F127">
+        <v>2.276215322644046E-5</v>
+      </c>
+      <c r="G127">
+        <v>3.1493335121439779E-5</v>
+      </c>
+      <c r="H127">
+        <v>7.8930841022094474E-5</v>
+      </c>
+      <c r="I127">
+        <v>7.2421284181055644E-5</v>
+      </c>
+      <c r="J127">
+        <v>2.9174820295804419E-5</v>
+      </c>
+      <c r="K127">
+        <v>6.6187373191408909E-5</v>
+      </c>
+      <c r="L127">
+        <v>5.9569323761485908E-5</v>
+      </c>
+      <c r="M127">
+        <v>7.7071349967688558E-5</v>
+      </c>
+      <c r="N127">
+        <v>5.3068774755054708E-5</v>
+      </c>
+      <c r="O127">
+        <v>4.6603011672983138E-5</v>
+      </c>
+      <c r="P127">
+        <v>1.41633235369618E-5</v>
+      </c>
+      <c r="Q127">
+        <v>2.490662050944626E-5</v>
+      </c>
+      <c r="R127">
+        <v>1.191090375257413E-5</v>
+      </c>
+      <c r="S127">
+        <v>6.0687793070067367E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="59"/>
+      <c r="B128" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>5.7886384028014932E-55</v>
+      </c>
+      <c r="D128">
+        <v>7.8878514941672328E-42</v>
+      </c>
+      <c r="E128">
+        <v>2.5483041238549718E-6</v>
+      </c>
+      <c r="F128">
+        <v>2.6064819095335219E-5</v>
+      </c>
+      <c r="G128">
+        <v>1.6803620529205902E-5</v>
+      </c>
+      <c r="H128">
+        <v>2.1244673880160619E-5</v>
+      </c>
+      <c r="I128">
+        <v>3.5726760291416863E-5</v>
+      </c>
+      <c r="J128">
+        <v>4.0237703289940033E-5</v>
+      </c>
+      <c r="K128">
+        <v>3.5640193483851463E-5</v>
+      </c>
+      <c r="L128">
+        <v>3.0976925222088772E-5</v>
+      </c>
+      <c r="M128">
+        <v>2.1305338212640379E-5</v>
+      </c>
+      <c r="N128">
+        <v>4.497094136823173E-5</v>
+      </c>
+      <c r="O128">
+        <v>2.6136837287911721E-5</v>
+      </c>
+      <c r="P128">
+        <v>1.6826620345055789E-5</v>
+      </c>
+      <c r="Q128">
+        <v>1.6651432203896709E-5</v>
+      </c>
+      <c r="R128">
+        <v>2.6082281328611461E-5</v>
+      </c>
+      <c r="S128">
+        <v>3.612164506622016E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="59"/>
+      <c r="B129" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <v>2.3572127101661981E-141</v>
+      </c>
+      <c r="D129">
+        <v>9.0687167409415162E-97</v>
+      </c>
+      <c r="E129">
+        <v>1.186371221506312E-89</v>
+      </c>
+      <c r="F129">
+        <v>9.3993407642334476E-22</v>
+      </c>
+      <c r="G129">
+        <v>4.6600045172900577E-5</v>
+      </c>
+      <c r="H129">
+        <v>4.6966401121414998E-5</v>
+      </c>
+      <c r="I129">
+        <v>4.6931608219698722E-5</v>
+      </c>
+      <c r="J129">
+        <v>8.4218404379323794E-5</v>
+      </c>
+      <c r="K129">
+        <v>2.7778816787032399E-5</v>
+      </c>
+      <c r="L129">
+        <v>1.0329437771122591E-5</v>
+      </c>
+      <c r="M129">
+        <v>1.068036175255475E-5</v>
+      </c>
+      <c r="N129">
+        <v>7.2634182602282728E-75</v>
+      </c>
+      <c r="O129">
+        <v>1.1007397129367039E-65</v>
+      </c>
+      <c r="P129">
+        <v>1.0283167122541059E-5</v>
+      </c>
+      <c r="Q129">
+        <v>5.1690299352079659E-49</v>
+      </c>
+      <c r="R129">
+        <v>8.2804050872286741E-43</v>
+      </c>
+      <c r="S129">
+        <v>2.837882423265888E-4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A114:A129"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="A2:A17"/>
@@ -23873,10 +27084,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S113"/>
+  <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="M113" sqref="M113"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28512,7 +31723,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="59" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B82" s="41" t="s">
         <v>0</v>
@@ -29426,7 +32637,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="59" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B98" s="56" t="s">
         <v>0</v>
@@ -30338,8 +33549,923 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B114" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0.78194110341954004</v>
+      </c>
+      <c r="D114">
+        <v>0.35605099517111582</v>
+      </c>
+      <c r="E114">
+        <v>0.1825236280526995</v>
+      </c>
+      <c r="F114">
+        <v>0.14100898967103959</v>
+      </c>
+      <c r="G114">
+        <v>0.22483298506908181</v>
+      </c>
+      <c r="H114">
+        <v>0.33639471356341127</v>
+      </c>
+      <c r="I114">
+        <v>0.38951504461694941</v>
+      </c>
+      <c r="J114">
+        <v>0.34268836328931429</v>
+      </c>
+      <c r="K114">
+        <v>0.2437145499287065</v>
+      </c>
+      <c r="L114">
+        <v>0.1916213248613699</v>
+      </c>
+      <c r="M114">
+        <v>0.24773446590840489</v>
+      </c>
+      <c r="N114">
+        <v>0.21725590181941859</v>
+      </c>
+      <c r="O114">
+        <v>0.150219549274756</v>
+      </c>
+      <c r="P114">
+        <v>0.12551597698684841</v>
+      </c>
+      <c r="Q114">
+        <v>7.1103230521430777E-2</v>
+      </c>
+      <c r="R114">
+        <v>3.4367063611636037E-2</v>
+      </c>
+      <c r="S114">
+        <v>4.0364878857657231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="59"/>
+      <c r="B115" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0.38768509253006461</v>
+      </c>
+      <c r="D115">
+        <v>1.5359997335150879</v>
+      </c>
+      <c r="E115">
+        <v>0.56391949308001699</v>
+      </c>
+      <c r="F115">
+        <v>0.1635953095824052</v>
+      </c>
+      <c r="G115">
+        <v>0.13067963086504741</v>
+      </c>
+      <c r="H115">
+        <v>0.25408270622989121</v>
+      </c>
+      <c r="I115">
+        <v>0.31081033220528659</v>
+      </c>
+      <c r="J115">
+        <v>0.35397834043064502</v>
+      </c>
+      <c r="K115">
+        <v>0.31449193162447048</v>
+      </c>
+      <c r="L115">
+        <v>0.16772867158569971</v>
+      </c>
+      <c r="M115">
+        <v>0.14366219630080651</v>
+      </c>
+      <c r="N115">
+        <v>0.15636618854367751</v>
+      </c>
+      <c r="O115">
+        <v>0.15126272330882939</v>
+      </c>
+      <c r="P115">
+        <v>0.109607067862216</v>
+      </c>
+      <c r="Q115">
+        <v>4.6946613976119163E-2</v>
+      </c>
+      <c r="R115">
+        <v>3.5614181863736397E-2</v>
+      </c>
+      <c r="S115">
+        <v>4.8264302135039996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="59"/>
+      <c r="B116" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>0.1251298793549849</v>
+      </c>
+      <c r="D116">
+        <v>0.69975347208286087</v>
+      </c>
+      <c r="E116">
+        <v>2.479569354511006</v>
+      </c>
+      <c r="F116">
+        <v>0.40533291994199488</v>
+      </c>
+      <c r="G116">
+        <v>0.2528629091771647</v>
+      </c>
+      <c r="H116">
+        <v>0.20950659147335701</v>
+      </c>
+      <c r="I116">
+        <v>0.24231504206773971</v>
+      </c>
+      <c r="J116">
+        <v>0.29706646738030312</v>
+      </c>
+      <c r="K116">
+        <v>0.36029368764998981</v>
+      </c>
+      <c r="L116">
+        <v>0.25407542133007338</v>
+      </c>
+      <c r="M116">
+        <v>0.17854239030050131</v>
+      </c>
+      <c r="N116">
+        <v>0.11662078372551581</v>
+      </c>
+      <c r="O116">
+        <v>8.5243975686119744E-2</v>
+      </c>
+      <c r="P116">
+        <v>8.5622527754867533E-2</v>
+      </c>
+      <c r="Q116">
+        <v>5.4901188318233922E-2</v>
+      </c>
+      <c r="R116">
+        <v>4.8535991193385711E-2</v>
+      </c>
+      <c r="S116">
+        <v>5.8953726019480994</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="59"/>
+      <c r="B117" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>7.145178807234874E-2</v>
+      </c>
+      <c r="D117">
+        <v>0.23659089587277141</v>
+      </c>
+      <c r="E117">
+        <v>1.10281473300086</v>
+      </c>
+      <c r="F117">
+        <v>3.4589033459036842</v>
+      </c>
+      <c r="G117">
+        <v>0.7897981479408025</v>
+      </c>
+      <c r="H117">
+        <v>0.36191206822615651</v>
+      </c>
+      <c r="I117">
+        <v>0.22964790560314141</v>
+      </c>
+      <c r="J117">
+        <v>0.28190112634835768</v>
+      </c>
+      <c r="K117">
+        <v>0.30321235059149593</v>
+      </c>
+      <c r="L117">
+        <v>0.29933943945009728</v>
+      </c>
+      <c r="M117">
+        <v>0.14455252969973259</v>
+      </c>
+      <c r="N117">
+        <v>7.5401211123826417E-2</v>
+      </c>
+      <c r="O117">
+        <v>5.7563074625212388E-2</v>
+      </c>
+      <c r="P117">
+        <v>5.0889227696345227E-2</v>
+      </c>
+      <c r="Q117">
+        <v>2.7410371336876752E-2</v>
+      </c>
+      <c r="R117">
+        <v>1.8697065368957311E-2</v>
+      </c>
+      <c r="S117">
+        <v>7.5100852808606664</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="59"/>
+      <c r="B118" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>9.5673166776436433E-2</v>
+      </c>
+      <c r="D118">
+        <v>0.1281795902923048</v>
+      </c>
+      <c r="E118">
+        <v>0.19144194806490239</v>
+      </c>
+      <c r="F118">
+        <v>1.2893133600234481</v>
+      </c>
+      <c r="G118">
+        <v>1.966561875661561</v>
+      </c>
+      <c r="H118">
+        <v>0.76159968696494185</v>
+      </c>
+      <c r="I118">
+        <v>0.45218866921970807</v>
+      </c>
+      <c r="J118">
+        <v>0.30794740517281088</v>
+      </c>
+      <c r="K118">
+        <v>0.25152897899160997</v>
+      </c>
+      <c r="L118">
+        <v>0.32561658896208701</v>
+      </c>
+      <c r="M118">
+        <v>0.21152347728831511</v>
+      </c>
+      <c r="N118">
+        <v>0.1471479888630734</v>
+      </c>
+      <c r="O118">
+        <v>6.1660202130527697E-2</v>
+      </c>
+      <c r="P118">
+        <v>4.6011977516159958E-2</v>
+      </c>
+      <c r="Q118">
+        <v>4.5510481615780307E-2</v>
+      </c>
+      <c r="R118">
+        <v>3.6835908768962797E-2</v>
+      </c>
+      <c r="S118">
+        <v>6.3187413063126296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="59"/>
+      <c r="B119" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>0.1620198093160572</v>
+      </c>
+      <c r="D119">
+        <v>8.8593977768837248E-2</v>
+      </c>
+      <c r="E119">
+        <v>7.9900122597696216E-2</v>
+      </c>
+      <c r="F119">
+        <v>0.32667098330157412</v>
+      </c>
+      <c r="G119">
+        <v>0.86076912615532564</v>
+      </c>
+      <c r="H119">
+        <v>1.076146398908951</v>
+      </c>
+      <c r="I119">
+        <v>0.61310408134011818</v>
+      </c>
+      <c r="J119">
+        <v>0.42091386447883522</v>
+      </c>
+      <c r="K119">
+        <v>0.29559227616563888</v>
+      </c>
+      <c r="L119">
+        <v>0.2970796492008706</v>
+      </c>
+      <c r="M119">
+        <v>0.2686160397228709</v>
+      </c>
+      <c r="N119">
+        <v>0.1512912850907441</v>
+      </c>
+      <c r="O119">
+        <v>6.2080306253224818E-2</v>
+      </c>
+      <c r="P119">
+        <v>4.4934284529989717E-2</v>
+      </c>
+      <c r="Q119">
+        <v>2.5431686667282849E-2</v>
+      </c>
+      <c r="R119">
+        <v>1.317150977532641E-2</v>
+      </c>
+      <c r="S119">
+        <v>4.7863154012733444</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="59"/>
+      <c r="B120" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>0.16398345681096299</v>
+      </c>
+      <c r="D120">
+        <v>0.12259949030709801</v>
+      </c>
+      <c r="E120">
+        <v>0.18655822302870989</v>
+      </c>
+      <c r="F120">
+        <v>0.15552742018215451</v>
+      </c>
+      <c r="G120">
+        <v>0.38839143596949932</v>
+      </c>
+      <c r="H120">
+        <v>0.55942440048936404</v>
+      </c>
+      <c r="I120">
+        <v>0.70298147329404126</v>
+      </c>
+      <c r="J120">
+        <v>0.51458317262180109</v>
+      </c>
+      <c r="K120">
+        <v>0.34010665689454589</v>
+      </c>
+      <c r="L120">
+        <v>0.28845290956395642</v>
+      </c>
+      <c r="M120">
+        <v>0.31296378732147301</v>
+      </c>
+      <c r="N120">
+        <v>0.23726478595505679</v>
+      </c>
+      <c r="O120">
+        <v>0.1131057744775245</v>
+      </c>
+      <c r="P120">
+        <v>8.0178757181183544E-2</v>
+      </c>
+      <c r="Q120">
+        <v>3.6506760649086242E-2</v>
+      </c>
+      <c r="R120">
+        <v>3.4855967227013472E-2</v>
+      </c>
+      <c r="S120">
+        <v>4.2374844719734703</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="59"/>
+      <c r="B121" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>0.15257068968777529</v>
+      </c>
+      <c r="D121">
+        <v>0.18916941214546479</v>
+      </c>
+      <c r="E121">
+        <v>0.14274336247129049</v>
+      </c>
+      <c r="F121">
+        <v>0.1104991078357585</v>
+      </c>
+      <c r="G121">
+        <v>0.24827158272670291</v>
+      </c>
+      <c r="H121">
+        <v>0.42691575602965809</v>
+      </c>
+      <c r="I121">
+        <v>0.5353254275163547</v>
+      </c>
+      <c r="J121">
+        <v>0.66867413734703074</v>
+      </c>
+      <c r="K121">
+        <v>0.48969040795469237</v>
+      </c>
+      <c r="L121">
+        <v>0.34888244724040052</v>
+      </c>
+      <c r="M121">
+        <v>0.2543994950427732</v>
+      </c>
+      <c r="N121">
+        <v>0.211792196474793</v>
+      </c>
+      <c r="O121">
+        <v>0.18942744314157281</v>
+      </c>
+      <c r="P121">
+        <v>0.12884122773039011</v>
+      </c>
+      <c r="Q121">
+        <v>6.8636260370630739E-2</v>
+      </c>
+      <c r="R121">
+        <v>2.7909276951500681E-2</v>
+      </c>
+      <c r="S121">
+        <v>4.193748230666789</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="59"/>
+      <c r="B122" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>0.1096879221288577</v>
+      </c>
+      <c r="D122">
+        <v>0.14972404082789401</v>
+      </c>
+      <c r="E122">
+        <v>0.23498773328693459</v>
+      </c>
+      <c r="F122">
+        <v>0.15781687627165389</v>
+      </c>
+      <c r="G122">
+        <v>0.26719548725094849</v>
+      </c>
+      <c r="H122">
+        <v>0.31432825929962271</v>
+      </c>
+      <c r="I122">
+        <v>0.43469646281615271</v>
+      </c>
+      <c r="J122">
+        <v>0.48158177904406402</v>
+      </c>
+      <c r="K122">
+        <v>0.54860823755330546</v>
+      </c>
+      <c r="L122">
+        <v>0.37086371524002593</v>
+      </c>
+      <c r="M122">
+        <v>0.27220311022564631</v>
+      </c>
+      <c r="N122">
+        <v>0.13449859417755791</v>
+      </c>
+      <c r="O122">
+        <v>0.13268530113806759</v>
+      </c>
+      <c r="P122">
+        <v>9.1636762450784434E-2</v>
+      </c>
+      <c r="Q122">
+        <v>6.3045781138589663E-2</v>
+      </c>
+      <c r="R122">
+        <v>2.735266196349169E-2</v>
+      </c>
+      <c r="S122">
+        <v>3.7909127248135972</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="59"/>
+      <c r="B123" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>3.6786909762668067E-2</v>
+      </c>
+      <c r="D123">
+        <v>6.3611365314176438E-2</v>
+      </c>
+      <c r="E123">
+        <v>8.3010099333258966E-2</v>
+      </c>
+      <c r="F123">
+        <v>0.1655235657426449</v>
+      </c>
+      <c r="G123">
+        <v>0.2146052572628675</v>
+      </c>
+      <c r="H123">
+        <v>0.26099525291030612</v>
+      </c>
+      <c r="I123">
+        <v>0.32069757128469051</v>
+      </c>
+      <c r="J123">
+        <v>0.36729200192974071</v>
+      </c>
+      <c r="K123">
+        <v>0.37010494635850277</v>
+      </c>
+      <c r="L123">
+        <v>0.42109485901875993</v>
+      </c>
+      <c r="M123">
+        <v>0.35051125676922629</v>
+      </c>
+      <c r="N123">
+        <v>0.16857030520693209</v>
+      </c>
+      <c r="O123">
+        <v>0.1248567405519507</v>
+      </c>
+      <c r="P123">
+        <v>8.0434474570355588E-2</v>
+      </c>
+      <c r="Q123">
+        <v>6.4829499265598861E-2</v>
+      </c>
+      <c r="R123">
+        <v>5.1439988622535363E-2</v>
+      </c>
+      <c r="S123">
+        <v>3.144364093904215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="59"/>
+      <c r="B124" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>6.258801130876171E-2</v>
+      </c>
+      <c r="D124">
+        <v>0.123569195890965</v>
+      </c>
+      <c r="E124">
+        <v>0.14052417390354369</v>
+      </c>
+      <c r="F124">
+        <v>0.21840555001033621</v>
+      </c>
+      <c r="G124">
+        <v>0.37621919849178947</v>
+      </c>
+      <c r="H124">
+        <v>0.46788947790959212</v>
+      </c>
+      <c r="I124">
+        <v>0.34355978157237382</v>
+      </c>
+      <c r="J124">
+        <v>0.34167288865746548</v>
+      </c>
+      <c r="K124">
+        <v>0.40607347860596799</v>
+      </c>
+      <c r="L124">
+        <v>0.50354765352933195</v>
+      </c>
+      <c r="M124">
+        <v>0.4231261619289643</v>
+      </c>
+      <c r="N124">
+        <v>0.35216904772151381</v>
+      </c>
+      <c r="O124">
+        <v>0.22288408984527661</v>
+      </c>
+      <c r="P124">
+        <v>0.1197911628772327</v>
+      </c>
+      <c r="Q124">
+        <v>7.1400852345011742E-2</v>
+      </c>
+      <c r="R124">
+        <v>4.9463714848553463E-2</v>
+      </c>
+      <c r="S124">
+        <v>4.2228844394466796</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="59"/>
+      <c r="B125" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125">
+        <v>8.9502044587093404E-2</v>
+      </c>
+      <c r="D125">
+        <v>8.3779063898111447E-2</v>
+      </c>
+      <c r="E125">
+        <v>9.028688598728965E-2</v>
+      </c>
+      <c r="F125">
+        <v>0.11203313923218849</v>
+      </c>
+      <c r="G125">
+        <v>0.26463236965018921</v>
+      </c>
+      <c r="H125">
+        <v>0.43702429706615492</v>
+      </c>
+      <c r="I125">
+        <v>0.45376278824406568</v>
+      </c>
+      <c r="J125">
+        <v>0.38600647458674958</v>
+      </c>
+      <c r="K125">
+        <v>0.39624187892099938</v>
+      </c>
+      <c r="L125">
+        <v>0.30999943753243442</v>
+      </c>
+      <c r="M125">
+        <v>0.4866279073701596</v>
+      </c>
+      <c r="N125">
+        <v>0.47728452766833213</v>
+      </c>
+      <c r="O125">
+        <v>0.32182696419174522</v>
+      </c>
+      <c r="P125">
+        <v>0.1767461963751914</v>
+      </c>
+      <c r="Q125">
+        <v>8.8588138227982338E-2</v>
+      </c>
+      <c r="R125">
+        <v>4.9430124617058403E-2</v>
+      </c>
+      <c r="S125">
+        <v>4.2237722381557461</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="59"/>
+      <c r="B126" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>6.2648106939369314E-2</v>
+      </c>
+      <c r="D126">
+        <v>7.2068324948483892E-2</v>
+      </c>
+      <c r="E126">
+        <v>6.21325334032959E-2</v>
+      </c>
+      <c r="F126">
+        <v>0.1032080675336315</v>
+      </c>
+      <c r="G126">
+        <v>0.20517676806130319</v>
+      </c>
+      <c r="H126">
+        <v>0.3093458458051922</v>
+      </c>
+      <c r="I126">
+        <v>0.31988749899775809</v>
+      </c>
+      <c r="J126">
+        <v>0.39308890230470672</v>
+      </c>
+      <c r="K126">
+        <v>0.35602437752956367</v>
+      </c>
+      <c r="L126">
+        <v>0.32004054247942187</v>
+      </c>
+      <c r="M126">
+        <v>0.3098089507980421</v>
+      </c>
+      <c r="N126">
+        <v>0.40335100114035233</v>
+      </c>
+      <c r="O126">
+        <v>0.36532829206722189</v>
+      </c>
+      <c r="P126">
+        <v>0.26209068515928402</v>
+      </c>
+      <c r="Q126">
+        <v>0.16623604370431941</v>
+      </c>
+      <c r="R126">
+        <v>7.1683784890429911E-2</v>
+      </c>
+      <c r="S126">
+        <v>3.7821197257623762</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="59"/>
+      <c r="B127" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>5.859314988650742E-2</v>
+      </c>
+      <c r="D127">
+        <v>8.1494683936792198E-2</v>
+      </c>
+      <c r="E127">
+        <v>5.1875551996031513E-2</v>
+      </c>
+      <c r="F127">
+        <v>5.7097742601349817E-2</v>
+      </c>
+      <c r="G127">
+        <v>0.1572159303405484</v>
+      </c>
+      <c r="H127">
+        <v>0.24057587787109291</v>
+      </c>
+      <c r="I127">
+        <v>0.30513400893882958</v>
+      </c>
+      <c r="J127">
+        <v>0.2803676629561318</v>
+      </c>
+      <c r="K127">
+        <v>0.28029593198544872</v>
+      </c>
+      <c r="L127">
+        <v>0.24740854518613051</v>
+      </c>
+      <c r="M127">
+        <v>0.29247916091707488</v>
+      </c>
+      <c r="N127">
+        <v>0.33272623362887283</v>
+      </c>
+      <c r="O127">
+        <v>0.32860533923188862</v>
+      </c>
+      <c r="P127">
+        <v>0.28166519507322652</v>
+      </c>
+      <c r="Q127">
+        <v>0.13495833874093971</v>
+      </c>
+      <c r="R127">
+        <v>8.2748673066352391E-2</v>
+      </c>
+      <c r="S127">
+        <v>3.213242026357217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="59"/>
+      <c r="B128" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>1.985265427564769E-2</v>
+      </c>
+      <c r="D128">
+        <v>4.4279046076249447E-2</v>
+      </c>
+      <c r="E128">
+        <v>6.3901328710242164E-2</v>
+      </c>
+      <c r="F128">
+        <v>0.12468495067946241</v>
+      </c>
+      <c r="G128">
+        <v>0.10905245367335201</v>
+      </c>
+      <c r="H128">
+        <v>0.15580085244418579</v>
+      </c>
+      <c r="I128">
+        <v>0.1607814914493669</v>
+      </c>
+      <c r="J128">
+        <v>0.2294431425411689</v>
+      </c>
+      <c r="K128">
+        <v>0.28216144854909597</v>
+      </c>
+      <c r="L128">
+        <v>0.23608726005080091</v>
+      </c>
+      <c r="M128">
+        <v>0.20653018117892161</v>
+      </c>
+      <c r="N128">
+        <v>0.21668748973693</v>
+      </c>
+      <c r="O128">
+        <v>0.37137073957175559</v>
+      </c>
+      <c r="P128">
+        <v>0.32928053953043068</v>
+      </c>
+      <c r="Q128">
+        <v>0.27447522606738201</v>
+      </c>
+      <c r="R128">
+        <v>0.10282499706359879</v>
+      </c>
+      <c r="S128">
+        <v>2.9272138015985911</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="59"/>
+      <c r="B129" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <v>3.1475914229959573E-2</v>
+      </c>
+      <c r="D129">
+        <v>3.3690790733417818E-2</v>
+      </c>
+      <c r="E129">
+        <v>4.9844374087430823E-2</v>
+      </c>
+      <c r="F129">
+        <v>2.879107205033225E-2</v>
+      </c>
+      <c r="G129">
+        <v>5.9433507858719162E-2</v>
+      </c>
+      <c r="H129">
+        <v>7.775414282274494E-2</v>
+      </c>
+      <c r="I129">
+        <v>0.14792012828332449</v>
+      </c>
+      <c r="J129">
+        <v>0.1217290766080361</v>
+      </c>
+      <c r="K129">
+        <v>0.12196358153283041</v>
+      </c>
+      <c r="L129">
+        <v>0.1679094537997054</v>
+      </c>
+      <c r="M129">
+        <v>0.1309908066444101</v>
+      </c>
+      <c r="N129">
+        <v>0.1328018595067692</v>
+      </c>
+      <c r="O129">
+        <v>0.13088419767428169</v>
+      </c>
+      <c r="P129">
+        <v>0.17167678837729361</v>
+      </c>
+      <c r="Q129">
+        <v>0.1352237669403947</v>
+      </c>
+      <c r="R129">
+        <v>9.4273585203981713E-2</v>
+      </c>
+      <c r="S129">
+        <v>1.6363630463536321</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A114:A129"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="A2:A17"/>
@@ -30357,10 +34483,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30508,7 +34634,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>20.3510436432638</v>
@@ -30531,7 +34657,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>30.494764858101718</v>
@@ -30550,6 +34676,35 @@
       </c>
       <c r="G8">
         <v>8.4759405808561077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <f>66522/182631*100</f>
+        <v>36.424265321878543</v>
+      </c>
+      <c r="C9">
+        <f>57030/182631*100</f>
+        <v>31.22690014291112</v>
+      </c>
+      <c r="D9">
+        <f>31021/182631*100</f>
+        <v>16.985615804545777</v>
+      </c>
+      <c r="E9">
+        <f>28058/182631/3*100</f>
+        <v>5.1210729102215211</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:G9" si="0">28058/182631/3*100</f>
+        <v>5.1210729102215211</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>5.1210729102215211</v>
       </c>
     </row>
   </sheetData>
@@ -30563,10 +34718,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N256"/>
+  <dimension ref="A1:N250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30642,7 +34797,7 @@
         <v>88</v>
       </c>
       <c r="D2" s="50">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="E2" s="49">
         <v>1</v>
@@ -30674,13 +34829,13 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="70"/>
       <c r="B3" s="51" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="50">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="E3" s="49">
         <v>1</v>
@@ -30710,13 +34865,13 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="70"/>
       <c r="B4" s="51" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C4" s="52" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="50">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="E4" s="49">
         <v>1</v>
@@ -30744,13 +34899,13 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="50">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="49">
         <v>1</v>
@@ -30776,15 +34931,17 @@
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>96</v>
+      <c r="A6" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="50">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="49">
         <v>1</v>
@@ -30804,21 +34961,25 @@
       <c r="J6" s="49">
         <v>0</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="29">
+        <v>43908</v>
+      </c>
+      <c r="N6" s="29">
+        <v>43934</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="70"/>
       <c r="B7" s="51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D7" s="50">
-        <v>1</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E7" s="49">
         <v>1</v>
@@ -30840,21 +35001,21 @@
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="52"/>
-      <c r="M7" s="29"/>
+      <c r="M7" s="29">
+        <v>43934</v>
+      </c>
       <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>88</v>
+      <c r="A8" s="70"/>
+      <c r="B8" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>94</v>
       </c>
       <c r="D8" s="50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E8" s="49">
         <v>1</v>
@@ -30874,22 +35035,18 @@
       <c r="J8" s="49">
         <v>0</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="29">
-        <v>43908</v>
-      </c>
-      <c r="N8" s="29">
-        <v>43934</v>
-      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="70"/>
       <c r="B9" s="51" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D9" s="50">
         <v>1</v>
@@ -30914,18 +35071,18 @@
       </c>
       <c r="K9" s="52"/>
       <c r="L9" s="52"/>
-      <c r="M9" s="29">
-        <v>43934</v>
-      </c>
+      <c r="M9" s="29"/>
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>99</v>
+      <c r="A10" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="D10" s="50">
         <v>1</v>
@@ -30948,18 +35105,22 @@
       <c r="J10" s="49">
         <v>0</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="29">
+        <v>43908</v>
+      </c>
+      <c r="N10" s="29">
+        <v>43953</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="70"/>
       <c r="B11" s="51" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="50">
         <v>1</v>
@@ -30990,10 +35151,10 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
       <c r="B12" s="51" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="50">
         <v>1</v>
@@ -31022,42 +35183,42 @@
       <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="50">
+      <c r="A13" s="71"/>
+      <c r="B13" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="55">
         <v>1</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="55">
         <v>1</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="55">
         <v>1</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="55">
         <v>1</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="55">
         <v>1</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="55">
         <v>1</v>
       </c>
       <c r="J13" s="49">
         <v>0</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
-        <v>84</v>
+      <c r="A14" s="67" t="s">
+        <v>85</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>87</v>
@@ -31066,7 +35227,7 @@
         <v>88</v>
       </c>
       <c r="D14" s="50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E14" s="49">
         <v>1</v>
@@ -31092,19 +35253,19 @@
         <v>43908</v>
       </c>
       <c r="N14" s="29">
-        <v>43953</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="51" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="50">
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E15" s="49">
         <v>1</v>
@@ -31126,19 +35287,21 @@
       </c>
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
-      <c r="M15" s="29"/>
+      <c r="M15" s="29">
+        <v>43924</v>
+      </c>
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="51" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D16" s="50">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="E16" s="49">
         <v>1</v>
@@ -31164,51 +35327,51 @@
       <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="55">
+      <c r="C17" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="50">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="49">
         <v>1</v>
       </c>
-      <c r="E17" s="55">
+      <c r="F17" s="49">
         <v>1</v>
       </c>
-      <c r="F17" s="55">
+      <c r="G17" s="49">
         <v>1</v>
       </c>
-      <c r="G17" s="55">
+      <c r="H17" s="49">
         <v>1</v>
       </c>
-      <c r="H17" s="55">
+      <c r="I17" s="49">
         <v>1</v>
       </c>
-      <c r="I17" s="55">
-        <v>1</v>
-      </c>
       <c r="J17" s="49">
         <v>0</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
-        <v>85</v>
+      <c r="A18" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C18" s="49" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="50">
-        <v>1</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="E18" s="49">
         <v>1</v>
@@ -31231,22 +35394,22 @@
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
       <c r="M18" s="29">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="N18" s="29">
-        <v>43924</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>90</v>
       </c>
       <c r="D19" s="50">
-        <v>1</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E19" s="49">
         <v>1</v>
@@ -31269,20 +35432,22 @@
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
       <c r="M19" s="29">
-        <v>43924</v>
-      </c>
-      <c r="N19" s="29"/>
+        <v>43931</v>
+      </c>
+      <c r="N19" s="29">
+        <v>43966</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="51" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D20" s="50">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="E20" s="49">
         <v>1</v>
@@ -31304,87 +35469,91 @@
       </c>
       <c r="K20" s="52"/>
       <c r="L20" s="52"/>
-      <c r="M20" s="29"/>
+      <c r="M20" s="29">
+        <v>43966</v>
+      </c>
       <c r="N20" s="29"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="50">
+      <c r="A21" s="65"/>
+      <c r="B21" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="55">
+        <v>0.91</v>
+      </c>
+      <c r="E21" s="55">
         <v>1</v>
       </c>
-      <c r="E21" s="49">
+      <c r="F21" s="55">
         <v>1</v>
       </c>
-      <c r="F21" s="49">
+      <c r="G21" s="55">
         <v>1</v>
       </c>
-      <c r="G21" s="49">
+      <c r="H21" s="55">
         <v>1</v>
       </c>
-      <c r="H21" s="49">
+      <c r="I21" s="55">
         <v>1</v>
       </c>
-      <c r="I21" s="49">
-        <v>1</v>
-      </c>
       <c r="J21" s="49">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="52" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="55">
         <v>1</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="55">
         <v>1</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="55">
         <v>1</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="55">
         <v>1</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="55">
         <v>1</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="55">
         <v>1</v>
       </c>
       <c r="J22" s="49">
         <v>0</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="51" t="s">
+      <c r="A23" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>98</v>
+      <c r="C23" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="D23" s="50">
-        <v>1</v>
+        <v>0.95689999999999997</v>
       </c>
       <c r="E23" s="49">
         <v>1</v>
@@ -31404,23 +35573,25 @@
       <c r="J23" s="49">
         <v>0</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="29">
+        <v>43910</v>
+      </c>
+      <c r="N23" s="29">
+        <v>43931</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>88</v>
+      <c r="A24" s="65"/>
+      <c r="B24" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="D24" s="50">
-        <v>0.95699999999999996</v>
+        <v>0.251</v>
       </c>
       <c r="E24" s="49">
         <v>1</v>
@@ -31440,25 +35611,25 @@
       <c r="J24" s="49">
         <v>0</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="29">
-        <v>43910</v>
+        <v>43931</v>
       </c>
       <c r="N24" s="29">
-        <v>43931</v>
+        <v>43961</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="51" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D25" s="50">
-        <v>0.23499999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="E25" s="49">
         <v>1</v>
@@ -31481,58 +35652,54 @@
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
       <c r="M25" s="29">
-        <v>43931</v>
-      </c>
-      <c r="N25" s="29">
-        <v>43966</v>
-      </c>
+        <v>43961</v>
+      </c>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="52" t="s">
+      <c r="A26" s="65"/>
+      <c r="B26" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="50">
-        <v>0.71</v>
-      </c>
-      <c r="E26" s="49">
+      <c r="C26" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="55">
+        <v>0.98</v>
+      </c>
+      <c r="E26" s="55">
         <v>1</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="55">
         <v>1</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="55">
         <v>1</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="55">
         <v>1</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I26" s="55">
         <v>1</v>
       </c>
       <c r="J26" s="49">
         <v>0</v>
       </c>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="29">
-        <v>43966</v>
-      </c>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="29"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D27" s="55">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="E27" s="55">
         <v>1</v>
@@ -31558,51 +35725,55 @@
       <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="55">
+      <c r="A28" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="50">
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="49">
         <v>1</v>
       </c>
-      <c r="E28" s="55">
+      <c r="F28" s="49">
         <v>1</v>
       </c>
-      <c r="F28" s="55">
+      <c r="G28" s="49">
         <v>1</v>
       </c>
-      <c r="G28" s="55">
+      <c r="H28" s="49">
         <v>1</v>
       </c>
-      <c r="H28" s="55">
+      <c r="I28" s="49">
         <v>1</v>
       </c>
-      <c r="I28" s="55">
-        <v>1</v>
-      </c>
       <c r="J28" s="49">
         <v>0</v>
       </c>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="29">
+        <v>43907</v>
+      </c>
+      <c r="N28" s="29">
+        <v>43931</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>88</v>
+      <c r="A29" s="65"/>
+      <c r="B29" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="D29" s="50">
-        <v>0.95689999999999997</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E29" s="49">
         <v>1</v>
@@ -31622,25 +35793,25 @@
       <c r="J29" s="49">
         <v>0</v>
       </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
       <c r="M29" s="29">
-        <v>43910</v>
+        <v>43931</v>
       </c>
       <c r="N29" s="29">
-        <v>43931</v>
+        <v>43961</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="51" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D30" s="50">
-        <v>0.251</v>
+        <v>0.45</v>
       </c>
       <c r="E30" s="49">
         <v>1</v>
@@ -31663,58 +35834,54 @@
       <c r="K30" s="52"/>
       <c r="L30" s="52"/>
       <c r="M30" s="29">
-        <v>43931</v>
-      </c>
-      <c r="N30" s="29">
         <v>43961</v>
       </c>
+      <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="52" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="50">
-        <v>0.97</v>
-      </c>
-      <c r="E31" s="49">
+      <c r="C31" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="E31" s="55">
         <v>1</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="55">
         <v>1</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G31" s="55">
         <v>1</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="55">
         <v>1</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="55">
         <v>1</v>
       </c>
       <c r="J31" s="49">
         <v>0</v>
       </c>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="29">
-        <v>43961</v>
-      </c>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="29"/>
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D32" s="55">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="E32" s="55">
         <v>1</v>
@@ -31740,51 +35907,55 @@
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="55">
-        <v>1.02</v>
-      </c>
-      <c r="E33" s="55">
+      <c r="A33" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="50">
+        <v>0.42</v>
+      </c>
+      <c r="E33" s="49">
         <v>1</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="49">
         <v>1</v>
       </c>
-      <c r="G33" s="55">
+      <c r="G33" s="49">
         <v>1</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="49">
         <v>1</v>
       </c>
-      <c r="I33" s="55">
+      <c r="I33" s="49">
         <v>1</v>
       </c>
       <c r="J33" s="49">
         <v>0</v>
       </c>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="29">
+        <v>43907</v>
+      </c>
+      <c r="N33" s="29">
+        <v>43926</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>88</v>
+      <c r="A34" s="65"/>
+      <c r="B34" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="D34" s="50">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="E34" s="49">
         <v>1</v>
@@ -31804,25 +35975,25 @@
       <c r="J34" s="49">
         <v>0</v>
       </c>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
       <c r="M34" s="29">
-        <v>43907</v>
+        <v>43926</v>
       </c>
       <c r="N34" s="29">
-        <v>43931</v>
+        <v>43961</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="51" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D35" s="50">
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="E35" s="49">
         <v>1</v>
@@ -31845,58 +36016,54 @@
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
       <c r="M35" s="29">
-        <v>43931</v>
-      </c>
-      <c r="N35" s="29">
         <v>43961</v>
       </c>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="52" t="s">
+      <c r="A36" s="65"/>
+      <c r="B36" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="50">
-        <v>0.45</v>
-      </c>
-      <c r="E36" s="49">
+      <c r="C36" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="55">
+        <v>0.65</v>
+      </c>
+      <c r="E36" s="55">
         <v>1</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="55">
         <v>1</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G36" s="55">
         <v>1</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="55">
         <v>1</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="55">
         <v>1</v>
       </c>
       <c r="J36" s="49">
         <v>0</v>
       </c>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="29">
-        <v>43961</v>
-      </c>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="29"/>
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D37" s="55">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E37" s="55">
         <v>1</v>
@@ -31922,38 +36089,7 @@
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="55">
-        <v>0.75</v>
-      </c>
-      <c r="E38" s="55">
-        <v>1</v>
-      </c>
-      <c r="F38" s="55">
-        <v>1</v>
-      </c>
-      <c r="G38" s="55">
-        <v>1</v>
-      </c>
-      <c r="H38" s="55">
-        <v>1</v>
-      </c>
-      <c r="I38" s="55">
-        <v>1</v>
-      </c>
-      <c r="J38" s="49">
-        <v>0</v>
-      </c>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+      <c r="D38"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D39"/>
@@ -32591,33 +36727,16 @@
     <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D251"/>
-    </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D252"/>
-    </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D253"/>
-    </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D254"/>
-    </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D255"/>
-    </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D256"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+  <mergeCells count="8">
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -32629,10 +36748,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32778,13 +36897,13 @@
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S2">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -32856,13 +36975,13 @@
         <v>1000</v>
       </c>
       <c r="S3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V3">
         <v>3</v>
@@ -32928,13 +37047,13 @@
         <v>7000</v>
       </c>
       <c r="S4">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="V4">
         <v>3</v>
@@ -33089,7 +37208,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1">
         <v>43897</v>
@@ -33161,7 +37280,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1">
         <v>43897</v>
@@ -33228,6 +37347,78 @@
         <v>3</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43897</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44256</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>100000</v>
+      </c>
+      <c r="F9">
+        <f>470914/E9</f>
+        <v>4.7091399999999997</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>1.2</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L9">
+        <v>0.3</v>
+      </c>
+      <c r="M9">
+        <v>0.1</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>150</v>
+      </c>
+      <c r="Q9">
+        <v>5500</v>
+      </c>
+      <c r="R9">
+        <v>4500</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0.6</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
         <v>0</v>
       </c>
     </row>
@@ -33243,10 +37434,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33513,7 +37704,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>77</v>
@@ -33557,7 +37748,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>77</v>
@@ -33599,8 +37790,53 @@
       <c r="H15" s="39"/>
       <c r="I15" s="38"/>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
+        <v>10</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:A3"/>
@@ -33623,7 +37859,7 @@
   <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33834,7 +38070,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -33866,7 +38102,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -33897,8 +38133,36 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9"/>
-      <c r="J9"/>
+      <c r="A9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10"/>
@@ -34375,10 +38639,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34588,7 +38852,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -34620,7 +38884,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -34647,6 +38911,38 @@
         <v>0</v>
       </c>
       <c r="J8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>110</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
         <v>2</v>
       </c>
     </row>
@@ -34660,10 +38956,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34873,7 +39169,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -34905,7 +39201,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -34932,6 +39228,38 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10">
+        <v>65</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="15">
         <v>2</v>
       </c>
     </row>
@@ -34945,10 +39273,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35159,7 +39487,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B7" s="7">
         <v>20</v>
@@ -35191,7 +39519,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" s="7">
         <v>20</v>
@@ -35218,6 +39546,38 @@
         <v>0.8</v>
       </c>
       <c r="J8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="7">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="8">
         <v>2</v>
       </c>
     </row>

--- a/data/input_data_US_group1.xlsx
+++ b/data/input_data_US_group1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.walsh\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555E82AB-2A7F-40C8-8214-8087D024EEAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1352A44F-C552-43A6-915D-3DB9DF394117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1770" yWindow="3105" windowWidth="14745" windowHeight="7815" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -940,11 +940,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -957,6 +957,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,15 +980,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,8 +1362,8 @@
   </sheetPr>
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1447,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -1507,7 +1507,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="40" t="s">
         <v>20</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="60" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -1625,7 +1625,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="40" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +1683,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -1743,7 +1743,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="60" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="40" t="s">
@@ -1861,7 +1861,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="40" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="56" t="s">
@@ -2216,7 +2216,7 @@
       <c r="T14" s="42"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="56" t="s">
         <v>20</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="U15" s="42"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="61" t="s">
         <v>103</v>
       </c>
       <c r="B16" s="57" t="s">
@@ -2338,7 +2338,7 @@
       <c r="T16" s="59"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="57" t="s">
         <v>20</v>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="U17" s="42"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="61" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="58" t="s">
@@ -2459,7 +2459,7 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="58" t="s">
         <v>20</v>
       </c>
@@ -2519,7 +2519,7 @@
       <c r="U19" s="42"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="40" t="s">
@@ -2595,7 +2595,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="40" t="s">
         <v>21</v>
       </c>
@@ -2669,7 +2669,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="60" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="40" t="s">
@@ -2745,7 +2745,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="40" t="s">
         <v>21</v>
       </c>
@@ -2819,7 +2819,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="60" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="40" t="s">
@@ -2895,7 +2895,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="40" t="s">
         <v>21</v>
       </c>
@@ -3028,7 +3028,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="46" t="s">
         <v>21</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="61" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="46" t="s">
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="46" t="s">
         <v>21</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="61" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="46" t="s">
@@ -3311,7 +3311,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="46" t="s">
         <v>21</v>
       </c>
@@ -3385,7 +3385,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="61" t="s">
         <v>102</v>
       </c>
       <c r="B32" s="46" t="s">
@@ -3461,7 +3461,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
@@ -3535,7 +3535,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="61" t="s">
         <v>103</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -3612,7 +3612,7 @@
       <c r="T34" s="42"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="46" t="s">
         <v>21</v>
       </c>
@@ -3688,7 +3688,7 @@
       <c r="U35" s="42"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="61" t="s">
         <v>104</v>
       </c>
       <c r="B36" s="46" t="s">
@@ -3731,7 +3731,7 @@
         <v>30740</v>
       </c>
       <c r="L36" s="42">
-        <f t="shared" ref="L36:S36" si="18">L18+L19</f>
+        <f t="shared" ref="L36:R36" si="18">L18+L19</f>
         <v>30004</v>
       </c>
       <c r="M36" s="42">
@@ -3765,7 +3765,7 @@
       <c r="T36" s="42"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="46" t="s">
         <v>21</v>
       </c>
@@ -3932,10 +3932,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -3944,12 +3940,16 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5383,7 +5383,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -5442,7 +5442,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
@@ -5499,7 +5499,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
@@ -5556,7 +5556,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
@@ -5613,7 +5613,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
@@ -5670,7 +5670,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="40" t="s">
         <v>5</v>
       </c>
@@ -5727,7 +5727,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="40" t="s">
         <v>6</v>
       </c>
@@ -5784,7 +5784,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
@@ -5841,7 +5841,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="40" t="s">
         <v>8</v>
       </c>
@@ -5898,7 +5898,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
@@ -5955,7 +5955,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="40" t="s">
         <v>10</v>
       </c>
@@ -6012,7 +6012,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="40" t="s">
         <v>11</v>
       </c>
@@ -6069,7 +6069,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="40" t="s">
         <v>12</v>
       </c>
@@ -6126,7 +6126,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="40" t="s">
         <v>13</v>
       </c>
@@ -6183,7 +6183,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="40" t="s">
         <v>14</v>
       </c>
@@ -6240,7 +6240,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="40" t="s">
         <v>15</v>
       </c>
@@ -6297,7 +6297,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -6356,7 +6356,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="40" t="s">
         <v>1</v>
       </c>
@@ -6413,7 +6413,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="40" t="s">
         <v>2</v>
       </c>
@@ -6470,7 +6470,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="40" t="s">
         <v>3</v>
       </c>
@@ -6527,7 +6527,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="40" t="s">
         <v>4</v>
       </c>
@@ -6584,7 +6584,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="40" t="s">
         <v>5</v>
       </c>
@@ -6641,7 +6641,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="40" t="s">
         <v>6</v>
       </c>
@@ -6698,7 +6698,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="40" t="s">
         <v>7</v>
       </c>
@@ -6755,7 +6755,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="40" t="s">
         <v>8</v>
       </c>
@@ -6812,7 +6812,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="40" t="s">
         <v>9</v>
       </c>
@@ -6869,7 +6869,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="40" t="s">
         <v>10</v>
       </c>
@@ -6926,7 +6926,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="40" t="s">
         <v>11</v>
       </c>
@@ -6983,7 +6983,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="40" t="s">
         <v>12</v>
       </c>
@@ -7040,7 +7040,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="40" t="s">
         <v>13</v>
       </c>
@@ -7097,7 +7097,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="40" t="s">
         <v>14</v>
       </c>
@@ -7154,7 +7154,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="40" t="s">
         <v>15</v>
       </c>
@@ -7211,7 +7211,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="60" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -7270,7 +7270,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="40" t="s">
         <v>1</v>
       </c>
@@ -7327,7 +7327,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="40" t="s">
         <v>2</v>
       </c>
@@ -7384,7 +7384,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="40" t="s">
         <v>3</v>
       </c>
@@ -7441,7 +7441,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="40" t="s">
         <v>4</v>
       </c>
@@ -7498,7 +7498,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="40" t="s">
         <v>5</v>
       </c>
@@ -7555,7 +7555,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="40" t="s">
         <v>6</v>
       </c>
@@ -7612,7 +7612,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="40" t="s">
         <v>7</v>
       </c>
@@ -7669,7 +7669,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="40" t="s">
         <v>8</v>
       </c>
@@ -7726,7 +7726,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="40" t="s">
         <v>9</v>
       </c>
@@ -7783,7 +7783,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="40" t="s">
         <v>10</v>
       </c>
@@ -7840,7 +7840,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="40" t="s">
         <v>11</v>
       </c>
@@ -7897,7 +7897,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="40" t="s">
         <v>12</v>
       </c>
@@ -7954,7 +7954,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="40" t="s">
         <v>13</v>
       </c>
@@ -8011,7 +8011,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="40" t="s">
         <v>14</v>
       </c>
@@ -8068,7 +8068,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="40" t="s">
         <v>15</v>
       </c>
@@ -8125,7 +8125,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="60" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="40" t="s">
@@ -8184,7 +8184,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="40" t="s">
         <v>1</v>
       </c>
@@ -8241,7 +8241,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="40" t="s">
         <v>2</v>
       </c>
@@ -8298,7 +8298,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="40" t="s">
         <v>3</v>
       </c>
@@ -8355,7 +8355,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="40" t="s">
         <v>4</v>
       </c>
@@ -8412,7 +8412,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="40" t="s">
         <v>5</v>
       </c>
@@ -8469,7 +8469,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="40" t="s">
         <v>6</v>
       </c>
@@ -8526,7 +8526,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="40" t="s">
         <v>7</v>
       </c>
@@ -8583,7 +8583,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="40" t="s">
         <v>8</v>
       </c>
@@ -8640,7 +8640,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="40" t="s">
         <v>9</v>
       </c>
@@ -8697,7 +8697,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="40" t="s">
         <v>10</v>
       </c>
@@ -8754,7 +8754,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="40" t="s">
         <v>11</v>
       </c>
@@ -8811,7 +8811,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="40" t="s">
         <v>12</v>
       </c>
@@ -8868,7 +8868,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="40" t="s">
         <v>13</v>
       </c>
@@ -8925,7 +8925,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="40" t="s">
         <v>14</v>
       </c>
@@ -8982,7 +8982,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="40" t="s">
         <v>15</v>
       </c>
@@ -9039,7 +9039,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="60" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="40" t="s">
@@ -9098,7 +9098,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="40" t="s">
         <v>1</v>
       </c>
@@ -9155,7 +9155,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="40" t="s">
         <v>2</v>
       </c>
@@ -9212,7 +9212,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="40" t="s">
         <v>3</v>
       </c>
@@ -9269,7 +9269,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="40" t="s">
         <v>4</v>
       </c>
@@ -9326,7 +9326,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="40" t="s">
         <v>5</v>
       </c>
@@ -9383,7 +9383,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="40" t="s">
         <v>6</v>
       </c>
@@ -9440,7 +9440,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="40" t="s">
         <v>7</v>
       </c>
@@ -9497,7 +9497,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="40" t="s">
         <v>8</v>
       </c>
@@ -9554,7 +9554,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="40" t="s">
         <v>9</v>
       </c>
@@ -9611,7 +9611,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="40" t="s">
         <v>10</v>
       </c>
@@ -9668,7 +9668,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+      <c r="A77" s="60"/>
       <c r="B77" s="40" t="s">
         <v>11</v>
       </c>
@@ -9725,7 +9725,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="40" t="s">
         <v>12</v>
       </c>
@@ -9782,7 +9782,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="40" t="s">
         <v>13</v>
       </c>
@@ -9839,7 +9839,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="40" t="s">
         <v>14</v>
       </c>
@@ -9896,7 +9896,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="40" t="s">
         <v>15</v>
       </c>
@@ -9953,7 +9953,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="60" t="s">
         <v>101</v>
       </c>
       <c r="B82" s="41" t="s">
@@ -10012,7 +10012,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="41" t="s">
         <v>1</v>
       </c>
@@ -10069,7 +10069,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="41" t="s">
         <v>2</v>
       </c>
@@ -10126,7 +10126,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="41" t="s">
         <v>3</v>
       </c>
@@ -10183,7 +10183,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="41" t="s">
         <v>4</v>
       </c>
@@ -10240,7 +10240,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="41" t="s">
         <v>5</v>
       </c>
@@ -10297,7 +10297,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="41" t="s">
         <v>6</v>
       </c>
@@ -10354,7 +10354,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="41" t="s">
         <v>7</v>
       </c>
@@ -10411,7 +10411,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="41" t="s">
         <v>8</v>
       </c>
@@ -10468,7 +10468,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+      <c r="A91" s="60"/>
       <c r="B91" s="41" t="s">
         <v>9</v>
       </c>
@@ -10525,7 +10525,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="60"/>
       <c r="B92" s="41" t="s">
         <v>10</v>
       </c>
@@ -10582,7 +10582,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="41" t="s">
         <v>11</v>
       </c>
@@ -10639,7 +10639,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="41" t="s">
         <v>12</v>
       </c>
@@ -10696,7 +10696,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="41" t="s">
         <v>13</v>
       </c>
@@ -10753,7 +10753,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="41" t="s">
         <v>14</v>
       </c>
@@ -10810,7 +10810,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="41" t="s">
         <v>15</v>
       </c>
@@ -10867,7 +10867,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="60" t="s">
         <v>102</v>
       </c>
       <c r="B98" s="56" t="s">
@@ -10926,7 +10926,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="56" t="s">
         <v>1</v>
       </c>
@@ -10983,7 +10983,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="56" t="s">
         <v>2</v>
       </c>
@@ -11040,7 +11040,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="56" t="s">
         <v>3</v>
       </c>
@@ -11097,7 +11097,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="56" t="s">
         <v>4</v>
       </c>
@@ -11154,7 +11154,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="56" t="s">
         <v>5</v>
       </c>
@@ -11211,7 +11211,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="56" t="s">
         <v>6</v>
       </c>
@@ -11268,7 +11268,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="56" t="s">
         <v>7</v>
       </c>
@@ -11325,7 +11325,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
+      <c r="A106" s="60"/>
       <c r="B106" s="56" t="s">
         <v>8</v>
       </c>
@@ -11382,7 +11382,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
+      <c r="A107" s="60"/>
       <c r="B107" s="56" t="s">
         <v>9</v>
       </c>
@@ -11439,7 +11439,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
+      <c r="A108" s="60"/>
       <c r="B108" s="56" t="s">
         <v>10</v>
       </c>
@@ -11496,7 +11496,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
+      <c r="A109" s="60"/>
       <c r="B109" s="56" t="s">
         <v>11</v>
       </c>
@@ -11553,7 +11553,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
+      <c r="A110" s="60"/>
       <c r="B110" s="56" t="s">
         <v>12</v>
       </c>
@@ -11610,7 +11610,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
+      <c r="A111" s="60"/>
       <c r="B111" s="56" t="s">
         <v>13</v>
       </c>
@@ -11667,7 +11667,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
+      <c r="A112" s="60"/>
       <c r="B112" s="56" t="s">
         <v>14</v>
       </c>
@@ -11724,7 +11724,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
+      <c r="A113" s="60"/>
       <c r="B113" s="56" t="s">
         <v>15</v>
       </c>
@@ -11781,7 +11781,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="61" t="s">
+      <c r="A114" s="60" t="s">
         <v>103</v>
       </c>
       <c r="B114" s="57" t="s">
@@ -11840,7 +11840,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
+      <c r="A115" s="60"/>
       <c r="B115" s="57" t="s">
         <v>1</v>
       </c>
@@ -11897,7 +11897,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
+      <c r="A116" s="60"/>
       <c r="B116" s="57" t="s">
         <v>2</v>
       </c>
@@ -11954,7 +11954,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
+      <c r="A117" s="60"/>
       <c r="B117" s="57" t="s">
         <v>3</v>
       </c>
@@ -12011,7 +12011,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
+      <c r="A118" s="60"/>
       <c r="B118" s="57" t="s">
         <v>4</v>
       </c>
@@ -12068,7 +12068,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
+      <c r="A119" s="60"/>
       <c r="B119" s="57" t="s">
         <v>5</v>
       </c>
@@ -12125,7 +12125,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
+      <c r="A120" s="60"/>
       <c r="B120" s="57" t="s">
         <v>6</v>
       </c>
@@ -12182,7 +12182,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
+      <c r="A121" s="60"/>
       <c r="B121" s="57" t="s">
         <v>7</v>
       </c>
@@ -12239,7 +12239,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
+      <c r="A122" s="60"/>
       <c r="B122" s="57" t="s">
         <v>8</v>
       </c>
@@ -12296,7 +12296,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
+      <c r="A123" s="60"/>
       <c r="B123" s="57" t="s">
         <v>9</v>
       </c>
@@ -12353,7 +12353,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="57" t="s">
         <v>10</v>
       </c>
@@ -12410,7 +12410,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="61"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="57" t="s">
         <v>11</v>
       </c>
@@ -12467,7 +12467,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="61"/>
+      <c r="A126" s="60"/>
       <c r="B126" s="57" t="s">
         <v>12</v>
       </c>
@@ -12524,7 +12524,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
+      <c r="A127" s="60"/>
       <c r="B127" s="57" t="s">
         <v>13</v>
       </c>
@@ -12581,7 +12581,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="61"/>
+      <c r="A128" s="60"/>
       <c r="B128" s="57" t="s">
         <v>14</v>
       </c>
@@ -12638,7 +12638,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
+      <c r="A129" s="60"/>
       <c r="B129" s="57" t="s">
         <v>15</v>
       </c>
@@ -12695,7 +12695,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="61" t="s">
+      <c r="A130" s="60" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="58" t="s">
@@ -12754,7 +12754,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="61"/>
+      <c r="A131" s="60"/>
       <c r="B131" s="58" t="s">
         <v>1</v>
       </c>
@@ -12811,7 +12811,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="61"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="58" t="s">
         <v>2</v>
       </c>
@@ -12868,7 +12868,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="61"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="58" t="s">
         <v>3</v>
       </c>
@@ -12925,7 +12925,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="61"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="58" t="s">
         <v>4</v>
       </c>
@@ -12982,7 +12982,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="61"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="58" t="s">
         <v>5</v>
       </c>
@@ -13039,7 +13039,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="61"/>
+      <c r="A136" s="60"/>
       <c r="B136" s="58" t="s">
         <v>6</v>
       </c>
@@ -13096,7 +13096,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="61"/>
+      <c r="A137" s="60"/>
       <c r="B137" s="58" t="s">
         <v>7</v>
       </c>
@@ -13153,7 +13153,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="61"/>
+      <c r="A138" s="60"/>
       <c r="B138" s="58" t="s">
         <v>8</v>
       </c>
@@ -13210,7 +13210,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
+      <c r="A139" s="60"/>
       <c r="B139" s="58" t="s">
         <v>9</v>
       </c>
@@ -13267,7 +13267,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="61"/>
+      <c r="A140" s="60"/>
       <c r="B140" s="58" t="s">
         <v>10</v>
       </c>
@@ -13324,7 +13324,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="61"/>
+      <c r="A141" s="60"/>
       <c r="B141" s="58" t="s">
         <v>11</v>
       </c>
@@ -13381,7 +13381,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="61"/>
+      <c r="A142" s="60"/>
       <c r="B142" s="58" t="s">
         <v>12</v>
       </c>
@@ -13438,7 +13438,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="61"/>
+      <c r="A143" s="60"/>
       <c r="B143" s="58" t="s">
         <v>13</v>
       </c>
@@ -13495,7 +13495,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="61"/>
+      <c r="A144" s="60"/>
       <c r="B144" s="58" t="s">
         <v>14</v>
       </c>
@@ -13552,7 +13552,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="61"/>
+      <c r="A145" s="60"/>
       <c r="B145" s="58" t="s">
         <v>15</v>
       </c>
@@ -13697,7 +13697,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -13756,7 +13756,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
@@ -13813,7 +13813,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
@@ -13870,7 +13870,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
@@ -13927,7 +13927,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
@@ -13984,7 +13984,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="40" t="s">
         <v>5</v>
       </c>
@@ -14041,7 +14041,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="40" t="s">
         <v>6</v>
       </c>
@@ -14098,7 +14098,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
@@ -14155,7 +14155,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="40" t="s">
         <v>8</v>
       </c>
@@ -14212,7 +14212,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
@@ -14269,7 +14269,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="40" t="s">
         <v>10</v>
       </c>
@@ -14326,7 +14326,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="40" t="s">
         <v>11</v>
       </c>
@@ -14383,7 +14383,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="40" t="s">
         <v>12</v>
       </c>
@@ -14440,7 +14440,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="40" t="s">
         <v>13</v>
       </c>
@@ -14497,7 +14497,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="40" t="s">
         <v>14</v>
       </c>
@@ -14554,7 +14554,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="40" t="s">
         <v>15</v>
       </c>
@@ -14611,7 +14611,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -14670,7 +14670,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="40" t="s">
         <v>1</v>
       </c>
@@ -14727,7 +14727,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="40" t="s">
         <v>2</v>
       </c>
@@ -14784,7 +14784,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="40" t="s">
         <v>3</v>
       </c>
@@ -14841,7 +14841,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="40" t="s">
         <v>4</v>
       </c>
@@ -14898,7 +14898,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="40" t="s">
         <v>5</v>
       </c>
@@ -14955,7 +14955,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="40" t="s">
         <v>6</v>
       </c>
@@ -15012,7 +15012,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="40" t="s">
         <v>7</v>
       </c>
@@ -15069,7 +15069,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="40" t="s">
         <v>8</v>
       </c>
@@ -15126,7 +15126,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="40" t="s">
         <v>9</v>
       </c>
@@ -15183,7 +15183,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="40" t="s">
         <v>10</v>
       </c>
@@ -15240,7 +15240,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="40" t="s">
         <v>11</v>
       </c>
@@ -15297,7 +15297,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="40" t="s">
         <v>12</v>
       </c>
@@ -15354,7 +15354,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="40" t="s">
         <v>13</v>
       </c>
@@ -15411,7 +15411,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="40" t="s">
         <v>14</v>
       </c>
@@ -15468,7 +15468,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="40" t="s">
         <v>15</v>
       </c>
@@ -15525,7 +15525,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="60" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -15584,7 +15584,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="40" t="s">
         <v>1</v>
       </c>
@@ -15641,7 +15641,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="40" t="s">
         <v>2</v>
       </c>
@@ -15698,7 +15698,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="40" t="s">
         <v>3</v>
       </c>
@@ -15755,7 +15755,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="40" t="s">
         <v>4</v>
       </c>
@@ -15812,7 +15812,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="40" t="s">
         <v>5</v>
       </c>
@@ -15869,7 +15869,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="40" t="s">
         <v>6</v>
       </c>
@@ -15926,7 +15926,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="40" t="s">
         <v>7</v>
       </c>
@@ -15983,7 +15983,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="40" t="s">
         <v>8</v>
       </c>
@@ -16040,7 +16040,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="40" t="s">
         <v>9</v>
       </c>
@@ -16097,7 +16097,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="40" t="s">
         <v>10</v>
       </c>
@@ -16154,7 +16154,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="40" t="s">
         <v>11</v>
       </c>
@@ -16211,7 +16211,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="40" t="s">
         <v>12</v>
       </c>
@@ -16268,7 +16268,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="40" t="s">
         <v>13</v>
       </c>
@@ -16325,7 +16325,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="40" t="s">
         <v>14</v>
       </c>
@@ -16382,7 +16382,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="40" t="s">
         <v>15</v>
       </c>
@@ -16439,7 +16439,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="60" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="40" t="s">
@@ -16498,7 +16498,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="40" t="s">
         <v>1</v>
       </c>
@@ -16555,7 +16555,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="40" t="s">
         <v>2</v>
       </c>
@@ -16612,7 +16612,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="40" t="s">
         <v>3</v>
       </c>
@@ -16669,7 +16669,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="40" t="s">
         <v>4</v>
       </c>
@@ -16726,7 +16726,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="40" t="s">
         <v>5</v>
       </c>
@@ -16783,7 +16783,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="40" t="s">
         <v>6</v>
       </c>
@@ -16840,7 +16840,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="40" t="s">
         <v>7</v>
       </c>
@@ -16897,7 +16897,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="40" t="s">
         <v>8</v>
       </c>
@@ -16954,7 +16954,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="40" t="s">
         <v>9</v>
       </c>
@@ -17011,7 +17011,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="40" t="s">
         <v>10</v>
       </c>
@@ -17068,7 +17068,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="40" t="s">
         <v>11</v>
       </c>
@@ -17125,7 +17125,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="40" t="s">
         <v>12</v>
       </c>
@@ -17182,7 +17182,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="40" t="s">
         <v>13</v>
       </c>
@@ -17239,7 +17239,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="40" t="s">
         <v>14</v>
       </c>
@@ -17296,7 +17296,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="40" t="s">
         <v>15</v>
       </c>
@@ -17353,7 +17353,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="60" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="40" t="s">
@@ -17412,7 +17412,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="40" t="s">
         <v>1</v>
       </c>
@@ -17469,7 +17469,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="40" t="s">
         <v>2</v>
       </c>
@@ -17526,7 +17526,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="40" t="s">
         <v>3</v>
       </c>
@@ -17583,7 +17583,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="40" t="s">
         <v>4</v>
       </c>
@@ -17640,7 +17640,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="40" t="s">
         <v>5</v>
       </c>
@@ -17697,7 +17697,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="40" t="s">
         <v>6</v>
       </c>
@@ -17754,7 +17754,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="40" t="s">
         <v>7</v>
       </c>
@@ -17811,7 +17811,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="40" t="s">
         <v>8</v>
       </c>
@@ -17868,7 +17868,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="40" t="s">
         <v>9</v>
       </c>
@@ -17925,7 +17925,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="40" t="s">
         <v>10</v>
       </c>
@@ -17982,7 +17982,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+      <c r="A77" s="60"/>
       <c r="B77" s="40" t="s">
         <v>11</v>
       </c>
@@ -18039,7 +18039,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="40" t="s">
         <v>12</v>
       </c>
@@ -18096,7 +18096,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="40" t="s">
         <v>13</v>
       </c>
@@ -18153,7 +18153,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="40" t="s">
         <v>14</v>
       </c>
@@ -18210,7 +18210,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="40" t="s">
         <v>15</v>
       </c>
@@ -18267,7 +18267,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="60" t="s">
         <v>101</v>
       </c>
       <c r="B82" s="41" t="s">
@@ -18326,7 +18326,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="41" t="s">
         <v>1</v>
       </c>
@@ -18383,7 +18383,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="41" t="s">
         <v>2</v>
       </c>
@@ -18440,7 +18440,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="41" t="s">
         <v>3</v>
       </c>
@@ -18497,7 +18497,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="41" t="s">
         <v>4</v>
       </c>
@@ -18554,7 +18554,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="41" t="s">
         <v>5</v>
       </c>
@@ -18611,7 +18611,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="41" t="s">
         <v>6</v>
       </c>
@@ -18668,7 +18668,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="41" t="s">
         <v>7</v>
       </c>
@@ -18725,7 +18725,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="41" t="s">
         <v>8</v>
       </c>
@@ -18782,7 +18782,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+      <c r="A91" s="60"/>
       <c r="B91" s="41" t="s">
         <v>9</v>
       </c>
@@ -18839,7 +18839,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="60"/>
       <c r="B92" s="41" t="s">
         <v>10</v>
       </c>
@@ -18896,7 +18896,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="41" t="s">
         <v>11</v>
       </c>
@@ -18953,7 +18953,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="41" t="s">
         <v>12</v>
       </c>
@@ -19010,7 +19010,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="41" t="s">
         <v>13</v>
       </c>
@@ -19067,7 +19067,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="41" t="s">
         <v>14</v>
       </c>
@@ -19124,7 +19124,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="41" t="s">
         <v>15</v>
       </c>
@@ -19181,7 +19181,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="60" t="s">
         <v>102</v>
       </c>
       <c r="B98" s="56" t="s">
@@ -19240,7 +19240,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="56" t="s">
         <v>1</v>
       </c>
@@ -19297,7 +19297,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="56" t="s">
         <v>2</v>
       </c>
@@ -19354,7 +19354,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="56" t="s">
         <v>3</v>
       </c>
@@ -19411,7 +19411,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="56" t="s">
         <v>4</v>
       </c>
@@ -19468,7 +19468,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="56" t="s">
         <v>5</v>
       </c>
@@ -19525,7 +19525,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="56" t="s">
         <v>6</v>
       </c>
@@ -19582,7 +19582,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="56" t="s">
         <v>7</v>
       </c>
@@ -19639,7 +19639,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
+      <c r="A106" s="60"/>
       <c r="B106" s="56" t="s">
         <v>8</v>
       </c>
@@ -19696,7 +19696,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
+      <c r="A107" s="60"/>
       <c r="B107" s="56" t="s">
         <v>9</v>
       </c>
@@ -19753,7 +19753,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
+      <c r="A108" s="60"/>
       <c r="B108" s="56" t="s">
         <v>10</v>
       </c>
@@ -19810,7 +19810,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
+      <c r="A109" s="60"/>
       <c r="B109" s="56" t="s">
         <v>11</v>
       </c>
@@ -19867,7 +19867,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
+      <c r="A110" s="60"/>
       <c r="B110" s="56" t="s">
         <v>12</v>
       </c>
@@ -19924,7 +19924,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
+      <c r="A111" s="60"/>
       <c r="B111" s="56" t="s">
         <v>13</v>
       </c>
@@ -19981,7 +19981,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
+      <c r="A112" s="60"/>
       <c r="B112" s="56" t="s">
         <v>14</v>
       </c>
@@ -20038,7 +20038,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
+      <c r="A113" s="60"/>
       <c r="B113" s="56" t="s">
         <v>15</v>
       </c>
@@ -20095,7 +20095,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="61" t="s">
+      <c r="A114" s="60" t="s">
         <v>103</v>
       </c>
       <c r="B114" s="57" t="s">
@@ -20154,7 +20154,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
+      <c r="A115" s="60"/>
       <c r="B115" s="57" t="s">
         <v>1</v>
       </c>
@@ -20211,7 +20211,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
+      <c r="A116" s="60"/>
       <c r="B116" s="57" t="s">
         <v>2</v>
       </c>
@@ -20268,7 +20268,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
+      <c r="A117" s="60"/>
       <c r="B117" s="57" t="s">
         <v>3</v>
       </c>
@@ -20325,7 +20325,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
+      <c r="A118" s="60"/>
       <c r="B118" s="57" t="s">
         <v>4</v>
       </c>
@@ -20382,7 +20382,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
+      <c r="A119" s="60"/>
       <c r="B119" s="57" t="s">
         <v>5</v>
       </c>
@@ -20439,7 +20439,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
+      <c r="A120" s="60"/>
       <c r="B120" s="57" t="s">
         <v>6</v>
       </c>
@@ -20496,7 +20496,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
+      <c r="A121" s="60"/>
       <c r="B121" s="57" t="s">
         <v>7</v>
       </c>
@@ -20553,7 +20553,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
+      <c r="A122" s="60"/>
       <c r="B122" s="57" t="s">
         <v>8</v>
       </c>
@@ -20610,7 +20610,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
+      <c r="A123" s="60"/>
       <c r="B123" s="57" t="s">
         <v>9</v>
       </c>
@@ -20667,7 +20667,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="57" t="s">
         <v>10</v>
       </c>
@@ -20724,7 +20724,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="61"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="57" t="s">
         <v>11</v>
       </c>
@@ -20781,7 +20781,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="61"/>
+      <c r="A126" s="60"/>
       <c r="B126" s="57" t="s">
         <v>12</v>
       </c>
@@ -20838,7 +20838,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
+      <c r="A127" s="60"/>
       <c r="B127" s="57" t="s">
         <v>13</v>
       </c>
@@ -20895,7 +20895,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="61"/>
+      <c r="A128" s="60"/>
       <c r="B128" s="57" t="s">
         <v>14</v>
       </c>
@@ -20952,7 +20952,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
+      <c r="A129" s="60"/>
       <c r="B129" s="57" t="s">
         <v>15</v>
       </c>
@@ -21009,7 +21009,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="61" t="s">
+      <c r="A130" s="60" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="58" t="s">
@@ -21068,7 +21068,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="61"/>
+      <c r="A131" s="60"/>
       <c r="B131" s="58" t="s">
         <v>1</v>
       </c>
@@ -21125,7 +21125,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="61"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="58" t="s">
         <v>2</v>
       </c>
@@ -21182,7 +21182,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="61"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="58" t="s">
         <v>3</v>
       </c>
@@ -21239,7 +21239,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="61"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="58" t="s">
         <v>4</v>
       </c>
@@ -21296,7 +21296,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="61"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="58" t="s">
         <v>5</v>
       </c>
@@ -21353,7 +21353,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="61"/>
+      <c r="A136" s="60"/>
       <c r="B136" s="58" t="s">
         <v>6</v>
       </c>
@@ -21410,7 +21410,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="61"/>
+      <c r="A137" s="60"/>
       <c r="B137" s="58" t="s">
         <v>7</v>
       </c>
@@ -21467,7 +21467,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="61"/>
+      <c r="A138" s="60"/>
       <c r="B138" s="58" t="s">
         <v>8</v>
       </c>
@@ -21524,7 +21524,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
+      <c r="A139" s="60"/>
       <c r="B139" s="58" t="s">
         <v>9</v>
       </c>
@@ -21581,7 +21581,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="61"/>
+      <c r="A140" s="60"/>
       <c r="B140" s="58" t="s">
         <v>10</v>
       </c>
@@ -21638,7 +21638,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="61"/>
+      <c r="A141" s="60"/>
       <c r="B141" s="58" t="s">
         <v>11</v>
       </c>
@@ -21695,7 +21695,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="61"/>
+      <c r="A142" s="60"/>
       <c r="B142" s="58" t="s">
         <v>12</v>
       </c>
@@ -21752,7 +21752,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="61"/>
+      <c r="A143" s="60"/>
       <c r="B143" s="58" t="s">
         <v>13</v>
       </c>
@@ -21809,7 +21809,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="61"/>
+      <c r="A144" s="60"/>
       <c r="B144" s="58" t="s">
         <v>14</v>
       </c>
@@ -21866,7 +21866,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="61"/>
+      <c r="A145" s="60"/>
       <c r="B145" s="58" t="s">
         <v>15</v>
       </c>
@@ -22011,7 +22011,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -22070,7 +22070,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
@@ -22127,7 +22127,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
@@ -22184,7 +22184,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
@@ -22241,7 +22241,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
@@ -22298,7 +22298,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="40" t="s">
         <v>5</v>
       </c>
@@ -22355,7 +22355,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="40" t="s">
         <v>6</v>
       </c>
@@ -22412,7 +22412,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
@@ -22469,7 +22469,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="40" t="s">
         <v>8</v>
       </c>
@@ -22526,7 +22526,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
@@ -22583,7 +22583,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="40" t="s">
         <v>10</v>
       </c>
@@ -22640,7 +22640,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="40" t="s">
         <v>11</v>
       </c>
@@ -22697,7 +22697,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="40" t="s">
         <v>12</v>
       </c>
@@ -22754,7 +22754,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="40" t="s">
         <v>13</v>
       </c>
@@ -22811,7 +22811,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="40" t="s">
         <v>14</v>
       </c>
@@ -22868,7 +22868,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="40" t="s">
         <v>15</v>
       </c>
@@ -22925,7 +22925,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -22984,7 +22984,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="40" t="s">
         <v>1</v>
       </c>
@@ -23041,7 +23041,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="40" t="s">
         <v>2</v>
       </c>
@@ -23098,7 +23098,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="40" t="s">
         <v>3</v>
       </c>
@@ -23155,7 +23155,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="40" t="s">
         <v>4</v>
       </c>
@@ -23212,7 +23212,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="40" t="s">
         <v>5</v>
       </c>
@@ -23269,7 +23269,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="40" t="s">
         <v>6</v>
       </c>
@@ -23326,7 +23326,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="40" t="s">
         <v>7</v>
       </c>
@@ -23383,7 +23383,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="40" t="s">
         <v>8</v>
       </c>
@@ -23440,7 +23440,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="40" t="s">
         <v>9</v>
       </c>
@@ -23497,7 +23497,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="40" t="s">
         <v>10</v>
       </c>
@@ -23554,7 +23554,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="40" t="s">
         <v>11</v>
       </c>
@@ -23611,7 +23611,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="40" t="s">
         <v>12</v>
       </c>
@@ -23668,7 +23668,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="40" t="s">
         <v>13</v>
       </c>
@@ -23725,7 +23725,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="40" t="s">
         <v>14</v>
       </c>
@@ -23782,7 +23782,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="40" t="s">
         <v>15</v>
       </c>
@@ -23839,7 +23839,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="60" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -23898,7 +23898,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="40" t="s">
         <v>1</v>
       </c>
@@ -23955,7 +23955,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="40" t="s">
         <v>2</v>
       </c>
@@ -24012,7 +24012,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="40" t="s">
         <v>3</v>
       </c>
@@ -24069,7 +24069,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="40" t="s">
         <v>4</v>
       </c>
@@ -24126,7 +24126,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="40" t="s">
         <v>5</v>
       </c>
@@ -24183,7 +24183,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="40" t="s">
         <v>6</v>
       </c>
@@ -24240,7 +24240,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="40" t="s">
         <v>7</v>
       </c>
@@ -24297,7 +24297,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="40" t="s">
         <v>8</v>
       </c>
@@ -24354,7 +24354,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="40" t="s">
         <v>9</v>
       </c>
@@ -24411,7 +24411,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="40" t="s">
         <v>10</v>
       </c>
@@ -24468,7 +24468,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="40" t="s">
         <v>11</v>
       </c>
@@ -24525,7 +24525,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="40" t="s">
         <v>12</v>
       </c>
@@ -24582,7 +24582,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="40" t="s">
         <v>13</v>
       </c>
@@ -24639,7 +24639,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="40" t="s">
         <v>14</v>
       </c>
@@ -24696,7 +24696,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="40" t="s">
         <v>15</v>
       </c>
@@ -24753,7 +24753,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="60" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="40" t="s">
@@ -24812,7 +24812,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="40" t="s">
         <v>1</v>
       </c>
@@ -24869,7 +24869,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="40" t="s">
         <v>2</v>
       </c>
@@ -24926,7 +24926,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="40" t="s">
         <v>3</v>
       </c>
@@ -24983,7 +24983,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="40" t="s">
         <v>4</v>
       </c>
@@ -25040,7 +25040,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="40" t="s">
         <v>5</v>
       </c>
@@ -25097,7 +25097,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="40" t="s">
         <v>6</v>
       </c>
@@ -25154,7 +25154,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="40" t="s">
         <v>7</v>
       </c>
@@ -25211,7 +25211,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="40" t="s">
         <v>8</v>
       </c>
@@ -25268,7 +25268,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="40" t="s">
         <v>9</v>
       </c>
@@ -25325,7 +25325,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="40" t="s">
         <v>10</v>
       </c>
@@ -25382,7 +25382,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="40" t="s">
         <v>11</v>
       </c>
@@ -25439,7 +25439,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="40" t="s">
         <v>12</v>
       </c>
@@ -25496,7 +25496,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="40" t="s">
         <v>13</v>
       </c>
@@ -25553,7 +25553,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="40" t="s">
         <v>14</v>
       </c>
@@ -25610,7 +25610,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="40" t="s">
         <v>15</v>
       </c>
@@ -25667,7 +25667,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="60" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="40" t="s">
@@ -25726,7 +25726,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="40" t="s">
         <v>1</v>
       </c>
@@ -25783,7 +25783,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="40" t="s">
         <v>2</v>
       </c>
@@ -25840,7 +25840,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="40" t="s">
         <v>3</v>
       </c>
@@ -25897,7 +25897,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="40" t="s">
         <v>4</v>
       </c>
@@ -25954,7 +25954,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="40" t="s">
         <v>5</v>
       </c>
@@ -26011,7 +26011,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="40" t="s">
         <v>6</v>
       </c>
@@ -26068,7 +26068,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="40" t="s">
         <v>7</v>
       </c>
@@ -26125,7 +26125,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="40" t="s">
         <v>8</v>
       </c>
@@ -26182,7 +26182,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="40" t="s">
         <v>9</v>
       </c>
@@ -26239,7 +26239,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="40" t="s">
         <v>10</v>
       </c>
@@ -26296,7 +26296,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+      <c r="A77" s="60"/>
       <c r="B77" s="40" t="s">
         <v>11</v>
       </c>
@@ -26353,7 +26353,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="40" t="s">
         <v>12</v>
       </c>
@@ -26410,7 +26410,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="40" t="s">
         <v>13</v>
       </c>
@@ -26467,7 +26467,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="40" t="s">
         <v>14</v>
       </c>
@@ -26524,7 +26524,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="40" t="s">
         <v>15</v>
       </c>
@@ -26581,7 +26581,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="60" t="s">
         <v>101</v>
       </c>
       <c r="B82" s="41" t="s">
@@ -26640,7 +26640,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="41" t="s">
         <v>1</v>
       </c>
@@ -26697,7 +26697,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="41" t="s">
         <v>2</v>
       </c>
@@ -26754,7 +26754,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="41" t="s">
         <v>3</v>
       </c>
@@ -26811,7 +26811,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="41" t="s">
         <v>4</v>
       </c>
@@ -26868,7 +26868,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="41" t="s">
         <v>5</v>
       </c>
@@ -26925,7 +26925,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="41" t="s">
         <v>6</v>
       </c>
@@ -26982,7 +26982,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="41" t="s">
         <v>7</v>
       </c>
@@ -27039,7 +27039,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="41" t="s">
         <v>8</v>
       </c>
@@ -27096,7 +27096,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+      <c r="A91" s="60"/>
       <c r="B91" s="41" t="s">
         <v>9</v>
       </c>
@@ -27153,7 +27153,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="60"/>
       <c r="B92" s="41" t="s">
         <v>10</v>
       </c>
@@ -27210,7 +27210,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="41" t="s">
         <v>11</v>
       </c>
@@ -27267,7 +27267,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="41" t="s">
         <v>12</v>
       </c>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="41" t="s">
         <v>13</v>
       </c>
@@ -27381,7 +27381,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="41" t="s">
         <v>14</v>
       </c>
@@ -27438,7 +27438,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="41" t="s">
         <v>15</v>
       </c>
@@ -27495,7 +27495,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="60" t="s">
         <v>102</v>
       </c>
       <c r="B98" s="56" t="s">
@@ -27554,7 +27554,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="56" t="s">
         <v>1</v>
       </c>
@@ -27611,7 +27611,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="56" t="s">
         <v>2</v>
       </c>
@@ -27668,7 +27668,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="56" t="s">
         <v>3</v>
       </c>
@@ -27725,7 +27725,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="56" t="s">
         <v>4</v>
       </c>
@@ -27782,7 +27782,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="56" t="s">
         <v>5</v>
       </c>
@@ -27839,7 +27839,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="56" t="s">
         <v>6</v>
       </c>
@@ -27896,7 +27896,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="56" t="s">
         <v>7</v>
       </c>
@@ -27953,7 +27953,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
+      <c r="A106" s="60"/>
       <c r="B106" s="56" t="s">
         <v>8</v>
       </c>
@@ -28010,7 +28010,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
+      <c r="A107" s="60"/>
       <c r="B107" s="56" t="s">
         <v>9</v>
       </c>
@@ -28067,7 +28067,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
+      <c r="A108" s="60"/>
       <c r="B108" s="56" t="s">
         <v>10</v>
       </c>
@@ -28124,7 +28124,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
+      <c r="A109" s="60"/>
       <c r="B109" s="56" t="s">
         <v>11</v>
       </c>
@@ -28181,7 +28181,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
+      <c r="A110" s="60"/>
       <c r="B110" s="56" t="s">
         <v>12</v>
       </c>
@@ -28238,7 +28238,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
+      <c r="A111" s="60"/>
       <c r="B111" s="56" t="s">
         <v>13</v>
       </c>
@@ -28295,7 +28295,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
+      <c r="A112" s="60"/>
       <c r="B112" s="56" t="s">
         <v>14</v>
       </c>
@@ -28352,7 +28352,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
+      <c r="A113" s="60"/>
       <c r="B113" s="56" t="s">
         <v>15</v>
       </c>
@@ -28409,7 +28409,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="61" t="s">
+      <c r="A114" s="60" t="s">
         <v>103</v>
       </c>
       <c r="B114" s="57" t="s">
@@ -28468,7 +28468,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
+      <c r="A115" s="60"/>
       <c r="B115" s="57" t="s">
         <v>1</v>
       </c>
@@ -28525,7 +28525,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
+      <c r="A116" s="60"/>
       <c r="B116" s="57" t="s">
         <v>2</v>
       </c>
@@ -28582,7 +28582,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
+      <c r="A117" s="60"/>
       <c r="B117" s="57" t="s">
         <v>3</v>
       </c>
@@ -28639,7 +28639,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
+      <c r="A118" s="60"/>
       <c r="B118" s="57" t="s">
         <v>4</v>
       </c>
@@ -28696,7 +28696,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
+      <c r="A119" s="60"/>
       <c r="B119" s="57" t="s">
         <v>5</v>
       </c>
@@ -28753,7 +28753,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
+      <c r="A120" s="60"/>
       <c r="B120" s="57" t="s">
         <v>6</v>
       </c>
@@ -28810,7 +28810,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
+      <c r="A121" s="60"/>
       <c r="B121" s="57" t="s">
         <v>7</v>
       </c>
@@ -28867,7 +28867,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
+      <c r="A122" s="60"/>
       <c r="B122" s="57" t="s">
         <v>8</v>
       </c>
@@ -28924,7 +28924,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
+      <c r="A123" s="60"/>
       <c r="B123" s="57" t="s">
         <v>9</v>
       </c>
@@ -28981,7 +28981,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="57" t="s">
         <v>10</v>
       </c>
@@ -29038,7 +29038,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="61"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="57" t="s">
         <v>11</v>
       </c>
@@ -29095,7 +29095,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="61"/>
+      <c r="A126" s="60"/>
       <c r="B126" s="57" t="s">
         <v>12</v>
       </c>
@@ -29152,7 +29152,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
+      <c r="A127" s="60"/>
       <c r="B127" s="57" t="s">
         <v>13</v>
       </c>
@@ -29209,7 +29209,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="61"/>
+      <c r="A128" s="60"/>
       <c r="B128" s="57" t="s">
         <v>14</v>
       </c>
@@ -29266,7 +29266,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
+      <c r="A129" s="60"/>
       <c r="B129" s="57" t="s">
         <v>15</v>
       </c>
@@ -29323,7 +29323,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="61" t="s">
+      <c r="A130" s="60" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="58" t="s">
@@ -29382,7 +29382,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="61"/>
+      <c r="A131" s="60"/>
       <c r="B131" s="58" t="s">
         <v>1</v>
       </c>
@@ -29439,7 +29439,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="61"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="58" t="s">
         <v>2</v>
       </c>
@@ -29496,7 +29496,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="61"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="58" t="s">
         <v>3</v>
       </c>
@@ -29553,7 +29553,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="61"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="58" t="s">
         <v>4</v>
       </c>
@@ -29610,7 +29610,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="61"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="58" t="s">
         <v>5</v>
       </c>
@@ -29667,7 +29667,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="61"/>
+      <c r="A136" s="60"/>
       <c r="B136" s="58" t="s">
         <v>6</v>
       </c>
@@ -29724,7 +29724,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="61"/>
+      <c r="A137" s="60"/>
       <c r="B137" s="58" t="s">
         <v>7</v>
       </c>
@@ -29781,7 +29781,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="61"/>
+      <c r="A138" s="60"/>
       <c r="B138" s="58" t="s">
         <v>8</v>
       </c>
@@ -29838,7 +29838,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
+      <c r="A139" s="60"/>
       <c r="B139" s="58" t="s">
         <v>9</v>
       </c>
@@ -29895,7 +29895,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="61"/>
+      <c r="A140" s="60"/>
       <c r="B140" s="58" t="s">
         <v>10</v>
       </c>
@@ -29952,7 +29952,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="61"/>
+      <c r="A141" s="60"/>
       <c r="B141" s="58" t="s">
         <v>11</v>
       </c>
@@ -30009,7 +30009,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="61"/>
+      <c r="A142" s="60"/>
       <c r="B142" s="58" t="s">
         <v>12</v>
       </c>
@@ -30066,7 +30066,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="61"/>
+      <c r="A143" s="60"/>
       <c r="B143" s="58" t="s">
         <v>13</v>
       </c>
@@ -30123,7 +30123,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="61"/>
+      <c r="A144" s="60"/>
       <c r="B144" s="58" t="s">
         <v>14</v>
       </c>
@@ -30180,7 +30180,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="61"/>
+      <c r="A145" s="60"/>
       <c r="B145" s="58" t="s">
         <v>15</v>
       </c>
@@ -30325,7 +30325,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -30384,7 +30384,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
@@ -30441,7 +30441,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
@@ -30498,7 +30498,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
@@ -30555,7 +30555,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
@@ -30612,7 +30612,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="40" t="s">
         <v>5</v>
       </c>
@@ -30669,7 +30669,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="40" t="s">
         <v>6</v>
       </c>
@@ -30726,7 +30726,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
@@ -30783,7 +30783,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="40" t="s">
         <v>8</v>
       </c>
@@ -30840,7 +30840,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
@@ -30897,7 +30897,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="40" t="s">
         <v>10</v>
       </c>
@@ -30954,7 +30954,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="40" t="s">
         <v>11</v>
       </c>
@@ -31011,7 +31011,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="40" t="s">
         <v>12</v>
       </c>
@@ -31068,7 +31068,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="40" t="s">
         <v>13</v>
       </c>
@@ -31125,7 +31125,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="40" t="s">
         <v>14</v>
       </c>
@@ -31182,7 +31182,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="40" t="s">
         <v>15</v>
       </c>
@@ -31239,7 +31239,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -31298,7 +31298,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="40" t="s">
         <v>1</v>
       </c>
@@ -31355,7 +31355,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="40" t="s">
         <v>2</v>
       </c>
@@ -31412,7 +31412,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="40" t="s">
         <v>3</v>
       </c>
@@ -31469,7 +31469,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="40" t="s">
         <v>4</v>
       </c>
@@ -31526,7 +31526,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="40" t="s">
         <v>5</v>
       </c>
@@ -31583,7 +31583,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="40" t="s">
         <v>6</v>
       </c>
@@ -31640,7 +31640,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="40" t="s">
         <v>7</v>
       </c>
@@ -31697,7 +31697,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="40" t="s">
         <v>8</v>
       </c>
@@ -31754,7 +31754,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="40" t="s">
         <v>9</v>
       </c>
@@ -31811,7 +31811,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="40" t="s">
         <v>10</v>
       </c>
@@ -31868,7 +31868,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="40" t="s">
         <v>11</v>
       </c>
@@ -31925,7 +31925,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="40" t="s">
         <v>12</v>
       </c>
@@ -31982,7 +31982,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="40" t="s">
         <v>13</v>
       </c>
@@ -32039,7 +32039,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="40" t="s">
         <v>14</v>
       </c>
@@ -32096,7 +32096,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="40" t="s">
         <v>15</v>
       </c>
@@ -32153,7 +32153,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="60" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -32212,7 +32212,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="40" t="s">
         <v>1</v>
       </c>
@@ -32269,7 +32269,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="40" t="s">
         <v>2</v>
       </c>
@@ -32326,7 +32326,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="40" t="s">
         <v>3</v>
       </c>
@@ -32383,7 +32383,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="40" t="s">
         <v>4</v>
       </c>
@@ -32440,7 +32440,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="40" t="s">
         <v>5</v>
       </c>
@@ -32497,7 +32497,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="40" t="s">
         <v>6</v>
       </c>
@@ -32554,7 +32554,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="40" t="s">
         <v>7</v>
       </c>
@@ -32611,7 +32611,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="40" t="s">
         <v>8</v>
       </c>
@@ -32668,7 +32668,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="40" t="s">
         <v>9</v>
       </c>
@@ -32725,7 +32725,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="40" t="s">
         <v>10</v>
       </c>
@@ -32782,7 +32782,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="40" t="s">
         <v>11</v>
       </c>
@@ -32839,7 +32839,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="40" t="s">
         <v>12</v>
       </c>
@@ -32896,7 +32896,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="40" t="s">
         <v>13</v>
       </c>
@@ -32953,7 +32953,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="40" t="s">
         <v>14</v>
       </c>
@@ -33010,7 +33010,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="40" t="s">
         <v>15</v>
       </c>
@@ -33067,7 +33067,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="60" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="40" t="s">
@@ -33126,7 +33126,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="40" t="s">
         <v>1</v>
       </c>
@@ -33183,7 +33183,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="40" t="s">
         <v>2</v>
       </c>
@@ -33240,7 +33240,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="40" t="s">
         <v>3</v>
       </c>
@@ -33297,7 +33297,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="40" t="s">
         <v>4</v>
       </c>
@@ -33354,7 +33354,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="40" t="s">
         <v>5</v>
       </c>
@@ -33411,7 +33411,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="40" t="s">
         <v>6</v>
       </c>
@@ -33468,7 +33468,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="40" t="s">
         <v>7</v>
       </c>
@@ -33525,7 +33525,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="40" t="s">
         <v>8</v>
       </c>
@@ -33582,7 +33582,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="40" t="s">
         <v>9</v>
       </c>
@@ -33639,7 +33639,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="40" t="s">
         <v>10</v>
       </c>
@@ -33696,7 +33696,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="40" t="s">
         <v>11</v>
       </c>
@@ -33753,7 +33753,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="40" t="s">
         <v>12</v>
       </c>
@@ -33810,7 +33810,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="40" t="s">
         <v>13</v>
       </c>
@@ -33867,7 +33867,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="40" t="s">
         <v>14</v>
       </c>
@@ -33924,7 +33924,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="40" t="s">
         <v>15</v>
       </c>
@@ -33981,7 +33981,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="60" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="40" t="s">
@@ -34040,7 +34040,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="40" t="s">
         <v>1</v>
       </c>
@@ -34097,7 +34097,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="40" t="s">
         <v>2</v>
       </c>
@@ -34154,7 +34154,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="40" t="s">
         <v>3</v>
       </c>
@@ -34211,7 +34211,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="40" t="s">
         <v>4</v>
       </c>
@@ -34268,7 +34268,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="40" t="s">
         <v>5</v>
       </c>
@@ -34325,7 +34325,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="40" t="s">
         <v>6</v>
       </c>
@@ -34382,7 +34382,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="40" t="s">
         <v>7</v>
       </c>
@@ -34439,7 +34439,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="40" t="s">
         <v>8</v>
       </c>
@@ -34496,7 +34496,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="40" t="s">
         <v>9</v>
       </c>
@@ -34553,7 +34553,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="40" t="s">
         <v>10</v>
       </c>
@@ -34610,7 +34610,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+      <c r="A77" s="60"/>
       <c r="B77" s="40" t="s">
         <v>11</v>
       </c>
@@ -34667,7 +34667,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="40" t="s">
         <v>12</v>
       </c>
@@ -34724,7 +34724,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="40" t="s">
         <v>13</v>
       </c>
@@ -34781,7 +34781,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="40" t="s">
         <v>14</v>
       </c>
@@ -34838,7 +34838,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="40" t="s">
         <v>15</v>
       </c>
@@ -34895,7 +34895,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="60" t="s">
         <v>101</v>
       </c>
       <c r="B82" s="41" t="s">
@@ -34954,7 +34954,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="41" t="s">
         <v>1</v>
       </c>
@@ -35011,7 +35011,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="41" t="s">
         <v>2</v>
       </c>
@@ -35068,7 +35068,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="41" t="s">
         <v>3</v>
       </c>
@@ -35125,7 +35125,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="41" t="s">
         <v>4</v>
       </c>
@@ -35182,7 +35182,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="41" t="s">
         <v>5</v>
       </c>
@@ -35239,7 +35239,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="41" t="s">
         <v>6</v>
       </c>
@@ -35296,7 +35296,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="41" t="s">
         <v>7</v>
       </c>
@@ -35353,7 +35353,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="41" t="s">
         <v>8</v>
       </c>
@@ -35410,7 +35410,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+      <c r="A91" s="60"/>
       <c r="B91" s="41" t="s">
         <v>9</v>
       </c>
@@ -35467,7 +35467,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="60"/>
       <c r="B92" s="41" t="s">
         <v>10</v>
       </c>
@@ -35524,7 +35524,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="41" t="s">
         <v>11</v>
       </c>
@@ -35581,7 +35581,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="41" t="s">
         <v>12</v>
       </c>
@@ -35638,7 +35638,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="41" t="s">
         <v>13</v>
       </c>
@@ -35695,7 +35695,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="41" t="s">
         <v>14</v>
       </c>
@@ -35752,7 +35752,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="41" t="s">
         <v>15</v>
       </c>
@@ -35809,7 +35809,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="60" t="s">
         <v>102</v>
       </c>
       <c r="B98" s="56" t="s">
@@ -35868,7 +35868,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="56" t="s">
         <v>1</v>
       </c>
@@ -35925,7 +35925,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="56" t="s">
         <v>2</v>
       </c>
@@ -35982,7 +35982,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="56" t="s">
         <v>3</v>
       </c>
@@ -36039,7 +36039,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="56" t="s">
         <v>4</v>
       </c>
@@ -36096,7 +36096,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="56" t="s">
         <v>5</v>
       </c>
@@ -36153,7 +36153,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="56" t="s">
         <v>6</v>
       </c>
@@ -36210,7 +36210,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="56" t="s">
         <v>7</v>
       </c>
@@ -36267,7 +36267,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
+      <c r="A106" s="60"/>
       <c r="B106" s="56" t="s">
         <v>8</v>
       </c>
@@ -36324,7 +36324,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
+      <c r="A107" s="60"/>
       <c r="B107" s="56" t="s">
         <v>9</v>
       </c>
@@ -36381,7 +36381,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
+      <c r="A108" s="60"/>
       <c r="B108" s="56" t="s">
         <v>10</v>
       </c>
@@ -36438,7 +36438,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
+      <c r="A109" s="60"/>
       <c r="B109" s="56" t="s">
         <v>11</v>
       </c>
@@ -36495,7 +36495,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
+      <c r="A110" s="60"/>
       <c r="B110" s="56" t="s">
         <v>12</v>
       </c>
@@ -36552,7 +36552,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
+      <c r="A111" s="60"/>
       <c r="B111" s="56" t="s">
         <v>13</v>
       </c>
@@ -36609,7 +36609,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
+      <c r="A112" s="60"/>
       <c r="B112" s="56" t="s">
         <v>14</v>
       </c>
@@ -36666,7 +36666,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
+      <c r="A113" s="60"/>
       <c r="B113" s="56" t="s">
         <v>15</v>
       </c>
@@ -36723,7 +36723,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="61" t="s">
+      <c r="A114" s="60" t="s">
         <v>103</v>
       </c>
       <c r="B114" s="57" t="s">
@@ -36782,7 +36782,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
+      <c r="A115" s="60"/>
       <c r="B115" s="57" t="s">
         <v>1</v>
       </c>
@@ -36839,7 +36839,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
+      <c r="A116" s="60"/>
       <c r="B116" s="57" t="s">
         <v>2</v>
       </c>
@@ -36896,7 +36896,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
+      <c r="A117" s="60"/>
       <c r="B117" s="57" t="s">
         <v>3</v>
       </c>
@@ -36953,7 +36953,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
+      <c r="A118" s="60"/>
       <c r="B118" s="57" t="s">
         <v>4</v>
       </c>
@@ -37010,7 +37010,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
+      <c r="A119" s="60"/>
       <c r="B119" s="57" t="s">
         <v>5</v>
       </c>
@@ -37067,7 +37067,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
+      <c r="A120" s="60"/>
       <c r="B120" s="57" t="s">
         <v>6</v>
       </c>
@@ -37124,7 +37124,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
+      <c r="A121" s="60"/>
       <c r="B121" s="57" t="s">
         <v>7</v>
       </c>
@@ -37181,7 +37181,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
+      <c r="A122" s="60"/>
       <c r="B122" s="57" t="s">
         <v>8</v>
       </c>
@@ -37238,7 +37238,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
+      <c r="A123" s="60"/>
       <c r="B123" s="57" t="s">
         <v>9</v>
       </c>
@@ -37295,7 +37295,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="57" t="s">
         <v>10</v>
       </c>
@@ -37352,7 +37352,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="61"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="57" t="s">
         <v>11</v>
       </c>
@@ -37409,7 +37409,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="61"/>
+      <c r="A126" s="60"/>
       <c r="B126" s="57" t="s">
         <v>12</v>
       </c>
@@ -37466,7 +37466,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
+      <c r="A127" s="60"/>
       <c r="B127" s="57" t="s">
         <v>13</v>
       </c>
@@ -37523,7 +37523,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="61"/>
+      <c r="A128" s="60"/>
       <c r="B128" s="57" t="s">
         <v>14</v>
       </c>
@@ -37580,7 +37580,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
+      <c r="A129" s="60"/>
       <c r="B129" s="57" t="s">
         <v>15</v>
       </c>
@@ -37637,7 +37637,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="61" t="s">
+      <c r="A130" s="60" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="58" t="s">
@@ -37696,7 +37696,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="61"/>
+      <c r="A131" s="60"/>
       <c r="B131" s="58" t="s">
         <v>1</v>
       </c>
@@ -37753,7 +37753,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="61"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="58" t="s">
         <v>2</v>
       </c>
@@ -37810,7 +37810,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="61"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="58" t="s">
         <v>3</v>
       </c>
@@ -37867,7 +37867,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="61"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="58" t="s">
         <v>4</v>
       </c>
@@ -37924,7 +37924,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="61"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="58" t="s">
         <v>5</v>
       </c>
@@ -37981,7 +37981,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="61"/>
+      <c r="A136" s="60"/>
       <c r="B136" s="58" t="s">
         <v>6</v>
       </c>
@@ -38038,7 +38038,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="61"/>
+      <c r="A137" s="60"/>
       <c r="B137" s="58" t="s">
         <v>7</v>
       </c>
@@ -38095,7 +38095,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="61"/>
+      <c r="A138" s="60"/>
       <c r="B138" s="58" t="s">
         <v>8</v>
       </c>
@@ -38152,7 +38152,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
+      <c r="A139" s="60"/>
       <c r="B139" s="58" t="s">
         <v>9</v>
       </c>
@@ -38209,7 +38209,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="61"/>
+      <c r="A140" s="60"/>
       <c r="B140" s="58" t="s">
         <v>10</v>
       </c>
@@ -38266,7 +38266,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="61"/>
+      <c r="A141" s="60"/>
       <c r="B141" s="58" t="s">
         <v>11</v>
       </c>
@@ -38323,7 +38323,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="61"/>
+      <c r="A142" s="60"/>
       <c r="B142" s="58" t="s">
         <v>12</v>
       </c>
@@ -38380,7 +38380,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="61"/>
+      <c r="A143" s="60"/>
       <c r="B143" s="58" t="s">
         <v>13</v>
       </c>
@@ -38437,7 +38437,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="61"/>
+      <c r="A144" s="60"/>
       <c r="B144" s="58" t="s">
         <v>14</v>
       </c>
@@ -38494,7 +38494,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="61"/>
+      <c r="A145" s="60"/>
       <c r="B145" s="58" t="s">
         <v>15</v>
       </c>
@@ -38837,8 +38837,8 @@
   </sheetPr>
   <dimension ref="A1:N255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38904,7 +38904,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="66" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -38944,7 +38944,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="51" t="s">
         <v>98</v>
       </c>
@@ -38980,7 +38980,7 @@
       <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="51" t="s">
         <v>99</v>
       </c>
@@ -39014,7 +39014,7 @@
       <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="51" t="s">
         <v>100</v>
       </c>
@@ -39048,7 +39048,7 @@
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="66" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="48" t="s">
@@ -39088,7 +39088,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="51" t="s">
         <v>98</v>
       </c>
@@ -39124,7 +39124,7 @@
       <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="51" t="s">
         <v>99</v>
       </c>
@@ -39158,7 +39158,7 @@
       <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="51" t="s">
         <v>100</v>
       </c>
@@ -39192,7 +39192,7 @@
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="66" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="48" t="s">
@@ -39232,7 +39232,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="51" t="s">
         <v>89</v>
       </c>
@@ -39266,7 +39266,7 @@
       <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="51" t="s">
         <v>91</v>
       </c>
@@ -39300,7 +39300,7 @@
       <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="53" t="s">
         <v>95</v>
       </c>
@@ -39334,7 +39334,7 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="72" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="48" t="s">
@@ -39374,7 +39374,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51" t="s">
         <v>98</v>
       </c>
@@ -39410,7 +39410,7 @@
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51" t="s">
         <v>99</v>
       </c>
@@ -39418,7 +39418,7 @@
         <v>94</v>
       </c>
       <c r="D16" s="50">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="E16" s="49">
         <v>1</v>
@@ -39444,7 +39444,7 @@
       <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="51" t="s">
         <v>100</v>
       </c>
@@ -39452,7 +39452,7 @@
         <v>93</v>
       </c>
       <c r="D17" s="50">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="E17" s="49">
         <v>1</v>
@@ -39478,7 +39478,7 @@
       <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="69" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -39518,7 +39518,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="51" t="s">
         <v>87</v>
       </c>
@@ -39556,7 +39556,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="51" t="s">
         <v>98</v>
       </c>
@@ -39592,7 +39592,7 @@
       <c r="N20" s="29"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="53" t="s">
         <v>99</v>
       </c>
@@ -39600,7 +39600,7 @@
         <v>96</v>
       </c>
       <c r="D21" s="55">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="55">
         <v>1</v>
@@ -39626,7 +39626,7 @@
       <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="53" t="s">
         <v>100</v>
       </c>
@@ -39634,7 +39634,7 @@
         <v>96</v>
       </c>
       <c r="D22" s="55">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E22" s="55">
         <v>1</v>
@@ -39660,7 +39660,7 @@
       <c r="N22" s="29"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="69" t="s">
         <v>101</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -39670,7 +39670,7 @@
         <v>88</v>
       </c>
       <c r="D23" s="50">
-        <v>0.95689999999999997</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="E23" s="49">
         <v>1</v>
@@ -39700,7 +39700,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="51" t="s">
         <v>87</v>
       </c>
@@ -39708,7 +39708,7 @@
         <v>90</v>
       </c>
       <c r="D24" s="50">
-        <v>0.251</v>
+        <v>0.3</v>
       </c>
       <c r="E24" s="49">
         <v>1</v>
@@ -39738,7 +39738,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="51" t="s">
         <v>98</v>
       </c>
@@ -39746,7 +39746,7 @@
         <v>94</v>
       </c>
       <c r="D25" s="50">
-        <v>0.97</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E25" s="49">
         <v>1</v>
@@ -39774,7 +39774,7 @@
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="53" t="s">
         <v>99</v>
       </c>
@@ -39782,7 +39782,7 @@
         <v>96</v>
       </c>
       <c r="D26" s="55">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="E26" s="55">
         <v>1</v>
@@ -39808,7 +39808,7 @@
       <c r="N26" s="29"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="53" t="s">
         <v>100</v>
       </c>
@@ -39816,7 +39816,7 @@
         <v>96</v>
       </c>
       <c r="D27" s="55">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="E27" s="55">
         <v>1</v>
@@ -39842,7 +39842,7 @@
       <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="69" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="48" t="s">
@@ -39882,7 +39882,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="51" t="s">
         <v>87</v>
       </c>
@@ -39920,7 +39920,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="51" t="s">
         <v>98</v>
       </c>
@@ -39928,7 +39928,7 @@
         <v>94</v>
       </c>
       <c r="D30" s="50">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="E30" s="49">
         <v>1</v>
@@ -39956,7 +39956,7 @@
       <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="53" t="s">
         <v>99</v>
       </c>
@@ -39964,7 +39964,7 @@
         <v>96</v>
       </c>
       <c r="D31" s="55">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="E31" s="55">
         <v>1</v>
@@ -39990,7 +39990,7 @@
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="53" t="s">
         <v>100</v>
       </c>
@@ -40024,7 +40024,7 @@
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="69" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="48" t="s">
@@ -40064,7 +40064,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="51" t="s">
         <v>87</v>
       </c>
@@ -40102,7 +40102,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="51" t="s">
         <v>98</v>
       </c>
@@ -40110,7 +40110,7 @@
         <v>94</v>
       </c>
       <c r="D35" s="50">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="E35" s="49">
         <v>1</v>
@@ -40138,7 +40138,7 @@
       <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="53" t="s">
         <v>99</v>
       </c>
@@ -40172,7 +40172,7 @@
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="53" t="s">
         <v>100</v>
       </c>
@@ -40206,7 +40206,7 @@
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="69" t="s">
         <v>104</v>
       </c>
       <c r="B38" s="48" t="s">
@@ -40246,7 +40246,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+      <c r="A39" s="70"/>
       <c r="B39" s="51" t="s">
         <v>87</v>
       </c>
@@ -40284,7 +40284,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="51" t="s">
         <v>98</v>
       </c>
@@ -40320,7 +40320,7 @@
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="53" t="s">
         <v>99</v>
       </c>
@@ -40354,7 +40354,7 @@
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="53" t="s">
         <v>100</v>
       </c>
@@ -41050,8 +41050,8 @@
   </sheetPr>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41198,10 +41198,10 @@
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S2">
         <v>40</v>
@@ -41270,7 +41270,7 @@
         <v>120</v>
       </c>
       <c r="Q3">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="R3">
         <v>1000</v>
@@ -41477,7 +41477,7 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -41486,13 +41486,13 @@
         <v>100</v>
       </c>
       <c r="Q6">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="R6">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="S6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -41561,10 +41561,10 @@
         <v>1000</v>
       </c>
       <c r="R7">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="S7">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -42277,7 +42277,7 @@
   <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43088,7 +43088,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43437,7 +43437,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/input_data_US_group1.xlsx
+++ b/data/input_data_US_group1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.walsh\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1352A44F-C552-43A6-915D-3DB9DF394117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2544FD-404E-4ECA-A824-187A758B6F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1770" yWindow="3105" windowWidth="14745" windowHeight="7815" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-7380" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -943,9 +943,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -953,6 +950,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1919,7 +1919,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="63" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -1979,7 +1979,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="40" t="s">
         <v>20</v>
       </c>
@@ -2037,7 +2037,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="41" t="s">
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="41" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="64" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="56" t="s">
@@ -2216,7 +2216,7 @@
       <c r="T14" s="42"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="56" t="s">
         <v>20</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="U15" s="42"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="64" t="s">
         <v>103</v>
       </c>
       <c r="B16" s="57" t="s">
@@ -2338,7 +2338,7 @@
       <c r="T16" s="59"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="57" t="s">
         <v>20</v>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="U17" s="42"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="64" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="58" t="s">
@@ -2459,7 +2459,7 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="58" t="s">
         <v>20</v>
       </c>
@@ -3028,7 +3028,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="46" t="s">
         <v>21</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="64" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="46" t="s">
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="46" t="s">
         <v>21</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="64" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="46" t="s">
@@ -3311,7 +3311,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="46" t="s">
         <v>21</v>
       </c>
@@ -3385,7 +3385,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="64" t="s">
         <v>102</v>
       </c>
       <c r="B32" s="46" t="s">
@@ -3461,7 +3461,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
@@ -3535,7 +3535,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="64" t="s">
         <v>103</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -3612,7 +3612,7 @@
       <c r="T34" s="42"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="46" t="s">
         <v>21</v>
       </c>
@@ -3688,7 +3688,7 @@
       <c r="U35" s="42"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="64" t="s">
         <v>104</v>
       </c>
       <c r="B36" s="46" t="s">
@@ -3765,7 +3765,7 @@
       <c r="T36" s="42"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="46" t="s">
         <v>21</v>
       </c>
@@ -3932,14 +3932,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
@@ -3950,6 +3942,14 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38837,8 +38837,8 @@
   </sheetPr>
   <dimension ref="A1:N255"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38855,8 +38855,8 @@
     <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -41051,7 +41051,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41059,14 +41059,16 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="24" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
     <col min="17" max="17" width="13.140625" customWidth="1"/>
     <col min="18" max="18" width="9.5703125" customWidth="1"/>
@@ -41270,7 +41272,7 @@
         <v>120</v>
       </c>
       <c r="Q3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="R3">
         <v>1000</v>
@@ -41702,7 +41704,7 @@
         <v>150</v>
       </c>
       <c r="Q9">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="R9">
         <v>4500</v>

--- a/data/input_data_US_group1.xlsx
+++ b/data/input_data_US_group1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.walsh\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2544FD-404E-4ECA-A824-187A758B6F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B843B919-80F6-4D8D-B832-7A4E45B42857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-7380" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -943,6 +943,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,12 +956,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,7 +1919,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="65" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -1979,7 +1979,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="40" t="s">
         <v>20</v>
       </c>
@@ -2037,7 +2037,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="63" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="41" t="s">
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="41" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="61" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="56" t="s">
@@ -2216,7 +2216,7 @@
       <c r="T14" s="42"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="56" t="s">
         <v>20</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="U15" s="42"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="61" t="s">
         <v>103</v>
       </c>
       <c r="B16" s="57" t="s">
@@ -2338,7 +2338,7 @@
       <c r="T16" s="59"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="57" t="s">
         <v>20</v>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="U17" s="42"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="61" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="58" t="s">
@@ -2459,7 +2459,7 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="58" t="s">
         <v>20</v>
       </c>
@@ -2969,7 +2969,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="62" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="46" t="s">
@@ -3028,7 +3028,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="46" t="s">
         <v>21</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="61" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="46" t="s">
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="46" t="s">
         <v>21</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="61" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="46" t="s">
@@ -3311,7 +3311,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="46" t="s">
         <v>21</v>
       </c>
@@ -3385,7 +3385,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="61" t="s">
         <v>102</v>
       </c>
       <c r="B32" s="46" t="s">
@@ -3461,7 +3461,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
@@ -3535,7 +3535,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="61" t="s">
         <v>103</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -3612,7 +3612,7 @@
       <c r="T34" s="42"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="46" t="s">
         <v>21</v>
       </c>
@@ -3688,7 +3688,7 @@
       <c r="U35" s="42"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="61" t="s">
         <v>104</v>
       </c>
       <c r="B36" s="46" t="s">
@@ -3765,7 +3765,7 @@
       <c r="T36" s="42"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="46" t="s">
         <v>21</v>
       </c>
@@ -3932,6 +3932,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
@@ -3942,14 +3950,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38837,8 +38837,8 @@
   </sheetPr>
   <dimension ref="A1:N255"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39132,7 +39132,7 @@
         <v>94</v>
       </c>
       <c r="D8" s="50">
-        <v>0.8</v>
+        <v>0.43</v>
       </c>
       <c r="E8" s="49">
         <v>1</v>
@@ -39166,7 +39166,7 @@
         <v>93</v>
       </c>
       <c r="D9" s="50">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="E9" s="49">
         <v>1</v>
@@ -39418,7 +39418,7 @@
         <v>94</v>
       </c>
       <c r="D16" s="50">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="E16" s="49">
         <v>1</v>
@@ -39452,7 +39452,7 @@
         <v>93</v>
       </c>
       <c r="D17" s="50">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="E17" s="49">
         <v>1</v>
@@ -39998,7 +39998,7 @@
         <v>96</v>
       </c>
       <c r="D32" s="55">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="E32" s="55">
         <v>1</v>
@@ -40146,7 +40146,7 @@
         <v>96</v>
       </c>
       <c r="D36" s="55">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="E36" s="55">
         <v>1</v>
@@ -40180,7 +40180,7 @@
         <v>96</v>
       </c>
       <c r="D37" s="55">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E37" s="55">
         <v>1</v>
@@ -41050,8 +41050,8 @@
   </sheetPr>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P1" sqref="C1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41071,7 +41071,7 @@
     <col min="15" max="15" width="24" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
     <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" customWidth="1"/>
     <col min="19" max="20" width="12.140625" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" customWidth="1"/>
@@ -41206,7 +41206,7 @@
         <v>100</v>
       </c>
       <c r="S2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -43788,7 +43788,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E19" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43845,7 +43845,7 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -43877,7 +43877,7 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
         <v>0</v>

--- a/data/input_data_US_group1.xlsx
+++ b/data/input_data_US_group1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.walsh\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6814DF-15BE-4F71-B491-DE9BD5D80CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A64360-B5AA-45D4-8197-D227F0FEE156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="contact matrices-other" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="114">
   <si>
     <t>0-4</t>
   </si>
@@ -451,6 +452,30 @@
   </si>
   <si>
     <t>Hartford</t>
+  </si>
+  <si>
+    <t>Initial restrictions (travel ban)</t>
+  </si>
+  <si>
+    <t>lockdown_1</t>
+  </si>
+  <si>
+    <t>Non-essential businesses closed</t>
+  </si>
+  <si>
+    <t>lockdown_2</t>
+  </si>
+  <si>
+    <t>Non-essential businesses social gatherings restricted to 5 people</t>
+  </si>
+  <si>
+    <t>Phased-in reopening</t>
+  </si>
+  <si>
+    <t>Further relaxation</t>
+  </si>
+  <si>
+    <t>Modification to stay at home, camp grounds re-opened, extension of essentialbusiness hours</t>
   </si>
 </sst>
 </file>
@@ -947,14 +972,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,6 +985,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,12 +1004,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,7 +1027,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1370,8 +1395,8 @@
   </sheetPr>
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1480,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -1515,7 +1540,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="40" t="s">
         <v>20</v>
       </c>
@@ -1573,7 +1598,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -1633,7 +1658,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="40" t="s">
         <v>20</v>
       </c>
@@ -1691,7 +1716,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -1751,7 +1776,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
@@ -1809,7 +1834,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="40" t="s">
@@ -1869,7 +1894,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="40" t="s">
         <v>20</v>
       </c>
@@ -1927,7 +1952,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="65" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -1987,7 +2012,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="40" t="s">
         <v>20</v>
       </c>
@@ -2045,7 +2070,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="63" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="41" t="s">
@@ -2105,7 +2130,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="41" t="s">
         <v>20</v>
       </c>
@@ -2163,7 +2188,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="66" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="56" t="s">
@@ -2224,7 +2249,7 @@
       <c r="T14" s="42"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="56" t="s">
         <v>20</v>
       </c>
@@ -2285,7 +2310,7 @@
       <c r="U15" s="42"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="66" t="s">
         <v>103</v>
       </c>
       <c r="B16" s="57" t="s">
@@ -2346,7 +2371,7 @@
       <c r="T16" s="59"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="57" t="s">
         <v>20</v>
       </c>
@@ -2406,7 +2431,7 @@
       <c r="U17" s="42"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="66" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="58" t="s">
@@ -2467,7 +2492,7 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="58" t="s">
         <v>20</v>
       </c>
@@ -2527,128 +2552,128 @@
       <c r="U19" s="42"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="66" t="s">
         <v>105</v>
       </c>
       <c r="B20" s="60" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="59">
-        <v>23205</v>
+        <v>3660</v>
       </c>
       <c r="D20" s="59">
-        <v>23591</v>
+        <v>4221</v>
       </c>
       <c r="E20" s="59">
-        <v>28062</v>
+        <v>4079</v>
       </c>
       <c r="F20" s="59">
-        <v>28213</v>
+        <v>4733</v>
       </c>
       <c r="G20" s="59">
-        <v>27667</v>
+        <v>5556</v>
       </c>
       <c r="H20" s="59">
-        <v>28374</v>
+        <v>4888</v>
       </c>
       <c r="I20" s="59">
-        <v>29429</v>
+        <v>4547</v>
       </c>
       <c r="J20" s="59">
-        <v>29363</v>
+        <v>4783</v>
       </c>
       <c r="K20" s="59">
-        <v>26502</v>
+        <v>4799</v>
       </c>
       <c r="L20" s="59">
-        <v>29602</v>
+        <v>4239</v>
       </c>
       <c r="M20" s="59">
-        <v>32245</v>
+        <v>3128</v>
       </c>
       <c r="N20" s="59">
-        <v>32685</v>
+        <v>3827</v>
       </c>
       <c r="O20" s="59">
-        <v>31887</v>
+        <v>2620</v>
       </c>
       <c r="P20" s="59">
-        <v>24026</v>
+        <v>2450</v>
       </c>
       <c r="Q20" s="59">
-        <v>21670</v>
+        <v>2555</v>
       </c>
       <c r="R20" s="59">
-        <v>16790</v>
+        <v>1587</v>
       </c>
       <c r="S20">
         <f t="shared" si="1"/>
-        <v>433311</v>
+        <v>61672</v>
       </c>
       <c r="T20" s="59"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="60" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="59">
-        <v>24552</v>
+        <v>4471</v>
       </c>
       <c r="D21" s="59">
-        <v>24745</v>
+        <v>5009</v>
       </c>
       <c r="E21" s="59">
-        <v>28559</v>
+        <v>4424</v>
       </c>
       <c r="F21" s="59">
-        <v>30016</v>
+        <v>3832</v>
       </c>
       <c r="G21" s="59">
-        <v>29548</v>
+        <v>4942</v>
       </c>
       <c r="H21" s="59">
-        <v>30577</v>
+        <v>5782</v>
       </c>
       <c r="I21" s="59">
-        <v>29831</v>
+        <v>4283</v>
       </c>
       <c r="J21" s="59">
-        <v>27719</v>
+        <v>3352</v>
       </c>
       <c r="K21" s="59">
-        <v>26499</v>
+        <v>4591</v>
       </c>
       <c r="L21" s="59">
-        <v>27636</v>
+        <v>3959</v>
       </c>
       <c r="M21" s="59">
-        <v>30210</v>
+        <v>3377</v>
       </c>
       <c r="N21" s="59">
-        <v>31987</v>
+        <v>3293</v>
       </c>
       <c r="O21" s="59">
-        <v>27319</v>
+        <v>2122</v>
       </c>
       <c r="P21" s="59">
-        <v>21608</v>
+        <v>1676</v>
       </c>
       <c r="Q21" s="59">
-        <v>17278</v>
+        <v>1916</v>
       </c>
       <c r="R21" s="59">
-        <v>11122</v>
+        <v>897</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
-        <v>419206</v>
+        <v>57926</v>
       </c>
       <c r="T21" s="59"/>
       <c r="U21" s="42"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="62" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="40" t="s">
@@ -2724,7 +2749,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="40" t="s">
         <v>21</v>
       </c>
@@ -2798,7 +2823,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="62" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="40" t="s">
@@ -2874,7 +2899,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="40" t="s">
         <v>21</v>
       </c>
@@ -2948,7 +2973,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="62" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="40" t="s">
@@ -3024,7 +3049,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="40" t="s">
         <v>21</v>
       </c>
@@ -3033,7 +3058,7 @@
         <v>6.6453487926261628E-2</v>
       </c>
       <c r="D27" s="42">
-        <f t="shared" ref="D27:S27" si="7">D26/$S$26</f>
+        <f t="shared" ref="D27:R27" si="7">D26/$S$26</f>
         <v>6.3340158120346296E-2</v>
       </c>
       <c r="E27" s="42">
@@ -3093,12 +3118,12 @@
         <v>2.0428351238813869E-2</v>
       </c>
       <c r="S27" s="42">
-        <f t="shared" si="7"/>
+        <f>S26/$S$26</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="67" t="s">
         <v>85</v>
       </c>
       <c r="B28" s="46" t="s">
@@ -3157,7 +3182,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="46" t="s">
         <v>21</v>
       </c>
@@ -3214,7 +3239,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="66" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="46" t="s">
@@ -3290,7 +3315,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="46" t="s">
         <v>21</v>
       </c>
@@ -3364,7 +3389,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="66" t="s">
         <v>101</v>
       </c>
       <c r="B32" s="46" t="s">
@@ -3440,7 +3465,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
@@ -3514,7 +3539,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="66" t="s">
         <v>102</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -3590,7 +3615,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="46" t="s">
         <v>21</v>
       </c>
@@ -3664,7 +3689,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="66" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="46" t="s">
@@ -3741,7 +3766,7 @@
       <c r="T36" s="42"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="46" t="s">
         <v>21</v>
       </c>
@@ -3817,14 +3842,14 @@
       <c r="U37" s="42"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="66" t="s">
         <v>104</v>
       </c>
       <c r="B38" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="42">
-        <f t="shared" ref="C38:G38" si="17">C18+C19</f>
+        <f t="shared" ref="C38:R40" si="17">C18+C19</f>
         <v>25179</v>
       </c>
       <c r="D38" s="42">
@@ -3894,7 +3919,7 @@
       <c r="T38" s="42"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="46" t="s">
         <v>21</v>
       </c>
@@ -3970,137 +3995,153 @@
       <c r="U39" s="42"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="66" t="s">
         <v>105</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="59">
-        <v>24552</v>
-      </c>
-      <c r="D40" s="59">
-        <v>24745</v>
-      </c>
-      <c r="E40" s="59">
-        <v>28559</v>
-      </c>
-      <c r="F40" s="59">
-        <v>30016</v>
-      </c>
-      <c r="G40" s="59">
-        <v>29548</v>
-      </c>
-      <c r="H40" s="59">
-        <v>30577</v>
-      </c>
-      <c r="I40" s="59">
-        <v>29831</v>
-      </c>
-      <c r="J40" s="59">
-        <v>27719</v>
-      </c>
-      <c r="K40" s="59">
-        <v>26499</v>
-      </c>
-      <c r="L40" s="59">
-        <v>27636</v>
-      </c>
-      <c r="M40" s="59">
-        <v>30210</v>
-      </c>
-      <c r="N40" s="59">
-        <v>31987</v>
-      </c>
-      <c r="O40" s="59">
-        <v>27319</v>
-      </c>
-      <c r="P40" s="59">
-        <v>21608</v>
-      </c>
-      <c r="Q40" s="59">
-        <v>17278</v>
-      </c>
-      <c r="R40" s="59">
-        <v>11122</v>
-      </c>
-      <c r="S40" s="59">
-        <f>SUM(C40:R40)</f>
-        <v>419206</v>
+      <c r="C40" s="42">
+        <f t="shared" si="17"/>
+        <v>8131</v>
+      </c>
+      <c r="D40" s="42">
+        <f t="shared" si="17"/>
+        <v>9230</v>
+      </c>
+      <c r="E40" s="42">
+        <f t="shared" si="17"/>
+        <v>8503</v>
+      </c>
+      <c r="F40" s="42">
+        <f t="shared" si="17"/>
+        <v>8565</v>
+      </c>
+      <c r="G40" s="42">
+        <f t="shared" si="17"/>
+        <v>10498</v>
+      </c>
+      <c r="H40" s="42">
+        <f t="shared" si="17"/>
+        <v>10670</v>
+      </c>
+      <c r="I40" s="42">
+        <f t="shared" si="17"/>
+        <v>8830</v>
+      </c>
+      <c r="J40" s="42">
+        <f t="shared" si="17"/>
+        <v>8135</v>
+      </c>
+      <c r="K40" s="42">
+        <f t="shared" si="17"/>
+        <v>9390</v>
+      </c>
+      <c r="L40" s="42">
+        <f t="shared" si="17"/>
+        <v>8198</v>
+      </c>
+      <c r="M40" s="42">
+        <f t="shared" si="17"/>
+        <v>6505</v>
+      </c>
+      <c r="N40" s="42">
+        <f t="shared" si="17"/>
+        <v>7120</v>
+      </c>
+      <c r="O40" s="42">
+        <f t="shared" si="17"/>
+        <v>4742</v>
+      </c>
+      <c r="P40" s="42">
+        <f t="shared" si="17"/>
+        <v>4126</v>
+      </c>
+      <c r="Q40" s="42">
+        <f t="shared" si="17"/>
+        <v>4471</v>
+      </c>
+      <c r="R40" s="42">
+        <f t="shared" si="17"/>
+        <v>2484</v>
+      </c>
+      <c r="S40" s="42">
+        <f t="shared" ref="S40" si="20">S20+S21</f>
+        <v>119598</v>
       </c>
       <c r="T40" s="59"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="42">
         <f>C40/$S$40</f>
-        <v>5.8567864009580015E-2</v>
+        <v>6.7986086723858252E-2</v>
       </c>
       <c r="D41" s="42">
-        <f t="shared" ref="D41:S41" si="20">D40/$S$40</f>
-        <v>5.9028258183327527E-2</v>
+        <f t="shared" ref="D41:S41" si="21">D40/$S$40</f>
+        <v>7.7175203598722389E-2</v>
       </c>
       <c r="E41" s="42">
-        <f t="shared" si="20"/>
-        <v>6.8126410404431237E-2</v>
+        <f t="shared" si="21"/>
+        <v>7.1096506630545661E-2</v>
       </c>
       <c r="F41" s="42">
-        <f t="shared" si="20"/>
-        <v>7.1602028596918943E-2</v>
+        <f t="shared" si="21"/>
+        <v>7.1614909948326894E-2</v>
       </c>
       <c r="G41" s="42">
-        <f t="shared" si="20"/>
-        <v>7.0485632362132219E-2</v>
+        <f t="shared" si="21"/>
+        <v>8.7777387581732133E-2</v>
       </c>
       <c r="H41" s="42">
-        <f t="shared" si="20"/>
-        <v>7.2940272801438916E-2</v>
+        <f t="shared" si="21"/>
+        <v>8.9215538721383297E-2</v>
       </c>
       <c r="I41" s="42">
-        <f t="shared" si="20"/>
-        <v>7.1160718119492566E-2</v>
+        <f t="shared" si="21"/>
+        <v>7.3830666064649914E-2</v>
       </c>
       <c r="J41" s="42">
-        <f t="shared" si="20"/>
-        <v>6.6122622290711489E-2</v>
+        <f t="shared" si="21"/>
+        <v>6.801953209919899E-2</v>
       </c>
       <c r="K41" s="42">
-        <f t="shared" si="20"/>
-        <v>6.3212358601737573E-2</v>
+        <f t="shared" si="21"/>
+        <v>7.8513018612351382E-2</v>
       </c>
       <c r="L41" s="42">
-        <f t="shared" si="20"/>
-        <v>6.5924628941379654E-2</v>
+        <f t="shared" si="21"/>
+        <v>6.8546296760815403E-2</v>
       </c>
       <c r="M41" s="42">
-        <f t="shared" si="20"/>
-        <v>7.2064808232706598E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.4390541647853646E-2</v>
       </c>
       <c r="N41" s="42">
-        <f t="shared" si="20"/>
-        <v>7.6303774278039915E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.9532768106490074E-2</v>
       </c>
       <c r="O41" s="42">
-        <f t="shared" si="20"/>
-        <v>6.5168437474654464E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.9649492466429202E-2</v>
       </c>
       <c r="P41" s="42">
-        <f t="shared" si="20"/>
-        <v>5.1545063763400331E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.4498904663957594E-2</v>
       </c>
       <c r="Q41" s="42">
-        <f t="shared" si="20"/>
-        <v>4.1216013129583069E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.7383568287095104E-2</v>
       </c>
       <c r="R41" s="42">
-        <f t="shared" si="20"/>
-        <v>2.6531108810465498E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.0769578086590076E-2</v>
       </c>
       <c r="S41" s="42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T41" s="42"/>
@@ -4119,103 +4160,75 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
       <c r="D44" s="59"/>
-      <c r="F44" s="59"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
       <c r="D45" s="59"/>
-      <c r="F45" s="59"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
       <c r="D46" s="59"/>
-      <c r="F46" s="59"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
       <c r="D47" s="59"/>
-      <c r="F47" s="59"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
       <c r="D48" s="59"/>
-      <c r="F48" s="59"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
       <c r="D49" s="59"/>
-      <c r="F49" s="59"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
       <c r="D50" s="59"/>
-      <c r="F50" s="59"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
       <c r="D51" s="59"/>
-      <c r="F51" s="59"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
       <c r="D52" s="59"/>
-      <c r="F52" s="59"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
       <c r="D53" s="59"/>
-      <c r="F53" s="59"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
       <c r="D54" s="59"/>
-      <c r="F54" s="59"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
       <c r="D55" s="59"/>
-      <c r="F55" s="59"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
       <c r="D56" s="59"/>
-      <c r="F56" s="59"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
       <c r="D57" s="59"/>
-      <c r="F57" s="59"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -4225,16 +4238,8 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5796,7 +5801,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -5855,7 +5860,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
@@ -5912,7 +5917,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
@@ -5969,7 +5974,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
@@ -6026,7 +6031,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
@@ -6083,7 +6088,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="40" t="s">
         <v>5</v>
       </c>
@@ -6140,7 +6145,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="40" t="s">
         <v>6</v>
       </c>
@@ -6197,7 +6202,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
@@ -6254,7 +6259,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="40" t="s">
         <v>8</v>
       </c>
@@ -6311,7 +6316,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
@@ -6368,7 +6373,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="40" t="s">
         <v>10</v>
       </c>
@@ -6425,7 +6430,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="40" t="s">
         <v>11</v>
       </c>
@@ -6482,7 +6487,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="40" t="s">
         <v>12</v>
       </c>
@@ -6539,7 +6544,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="40" t="s">
         <v>13</v>
       </c>
@@ -6596,7 +6601,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="40" t="s">
         <v>14</v>
       </c>
@@ -6653,7 +6658,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="40" t="s">
         <v>15</v>
       </c>
@@ -6710,7 +6715,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="62" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -6769,7 +6774,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="40" t="s">
         <v>1</v>
       </c>
@@ -6826,7 +6831,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="40" t="s">
         <v>2</v>
       </c>
@@ -6883,7 +6888,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="40" t="s">
         <v>3</v>
       </c>
@@ -6940,7 +6945,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="40" t="s">
         <v>4</v>
       </c>
@@ -6997,7 +7002,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="40" t="s">
         <v>5</v>
       </c>
@@ -7054,7 +7059,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="40" t="s">
         <v>6</v>
       </c>
@@ -7111,7 +7116,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="40" t="s">
         <v>7</v>
       </c>
@@ -7168,7 +7173,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="40" t="s">
         <v>8</v>
       </c>
@@ -7225,7 +7230,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="40" t="s">
         <v>9</v>
       </c>
@@ -7282,7 +7287,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="40" t="s">
         <v>10</v>
       </c>
@@ -7339,7 +7344,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="40" t="s">
         <v>11</v>
       </c>
@@ -7396,7 +7401,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="40" t="s">
         <v>12</v>
       </c>
@@ -7453,7 +7458,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="40" t="s">
         <v>13</v>
       </c>
@@ -7510,7 +7515,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="40" t="s">
         <v>14</v>
       </c>
@@ -7567,7 +7572,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="40" t="s">
         <v>15</v>
       </c>
@@ -7624,7 +7629,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -7683,7 +7688,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="40" t="s">
         <v>1</v>
       </c>
@@ -7740,7 +7745,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="40" t="s">
         <v>2</v>
       </c>
@@ -7797,7 +7802,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="40" t="s">
         <v>3</v>
       </c>
@@ -7854,7 +7859,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="40" t="s">
         <v>4</v>
       </c>
@@ -7911,7 +7916,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="40" t="s">
         <v>5</v>
       </c>
@@ -7968,7 +7973,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="40" t="s">
         <v>6</v>
       </c>
@@ -8025,7 +8030,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="40" t="s">
         <v>7</v>
       </c>
@@ -8082,7 +8087,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="40" t="s">
         <v>8</v>
       </c>
@@ -8139,7 +8144,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="40" t="s">
         <v>9</v>
       </c>
@@ -8196,7 +8201,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="40" t="s">
         <v>10</v>
       </c>
@@ -8253,7 +8258,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="40" t="s">
         <v>11</v>
       </c>
@@ -8310,7 +8315,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="40" t="s">
         <v>12</v>
       </c>
@@ -8367,7 +8372,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="40" t="s">
         <v>13</v>
       </c>
@@ -8424,7 +8429,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="40" t="s">
         <v>14</v>
       </c>
@@ -8481,7 +8486,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="40" t="s">
         <v>15</v>
       </c>
@@ -8538,7 +8543,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="62" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="40" t="s">
@@ -8597,7 +8602,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="40" t="s">
         <v>1</v>
       </c>
@@ -8654,7 +8659,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="40" t="s">
         <v>2</v>
       </c>
@@ -8711,7 +8716,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="40" t="s">
         <v>3</v>
       </c>
@@ -8768,7 +8773,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="40" t="s">
         <v>4</v>
       </c>
@@ -8825,7 +8830,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="40" t="s">
         <v>5</v>
       </c>
@@ -8882,7 +8887,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="40" t="s">
         <v>6</v>
       </c>
@@ -8939,7 +8944,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="40" t="s">
         <v>7</v>
       </c>
@@ -8996,7 +9001,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="40" t="s">
         <v>8</v>
       </c>
@@ -9053,7 +9058,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="40" t="s">
         <v>9</v>
       </c>
@@ -9110,7 +9115,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="40" t="s">
         <v>10</v>
       </c>
@@ -9167,7 +9172,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="40" t="s">
         <v>11</v>
       </c>
@@ -9224,7 +9229,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="40" t="s">
         <v>12</v>
       </c>
@@ -9281,7 +9286,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="40" t="s">
         <v>13</v>
       </c>
@@ -9338,7 +9343,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="40" t="s">
         <v>14</v>
       </c>
@@ -9395,7 +9400,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="40" t="s">
         <v>15</v>
       </c>
@@ -9452,7 +9457,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="62" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="40" t="s">
@@ -9511,7 +9516,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="40" t="s">
         <v>1</v>
       </c>
@@ -9568,7 +9573,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="40" t="s">
         <v>2</v>
       </c>
@@ -9625,7 +9630,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="40" t="s">
         <v>3</v>
       </c>
@@ -9682,7 +9687,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="40" t="s">
         <v>4</v>
       </c>
@@ -9739,7 +9744,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="40" t="s">
         <v>5</v>
       </c>
@@ -9796,7 +9801,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="40" t="s">
         <v>6</v>
       </c>
@@ -9853,7 +9858,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="40" t="s">
         <v>7</v>
       </c>
@@ -9910,7 +9915,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="40" t="s">
         <v>8</v>
       </c>
@@ -9967,7 +9972,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="40" t="s">
         <v>9</v>
       </c>
@@ -10024,7 +10029,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="40" t="s">
         <v>10</v>
       </c>
@@ -10081,7 +10086,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="40" t="s">
         <v>11</v>
       </c>
@@ -10138,7 +10143,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="40" t="s">
         <v>12</v>
       </c>
@@ -10195,7 +10200,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="40" t="s">
         <v>13</v>
       </c>
@@ -10252,7 +10257,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="40" t="s">
         <v>14</v>
       </c>
@@ -10309,7 +10314,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="40" t="s">
         <v>15</v>
       </c>
@@ -10366,7 +10371,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="62" t="s">
         <v>101</v>
       </c>
       <c r="B82" s="41" t="s">
@@ -10425,7 +10430,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="41" t="s">
         <v>1</v>
       </c>
@@ -10482,7 +10487,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="41" t="s">
         <v>2</v>
       </c>
@@ -10539,7 +10544,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="41" t="s">
         <v>3</v>
       </c>
@@ -10596,7 +10601,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="41" t="s">
         <v>4</v>
       </c>
@@ -10653,7 +10658,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="41" t="s">
         <v>5</v>
       </c>
@@ -10710,7 +10715,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="41" t="s">
         <v>6</v>
       </c>
@@ -10767,7 +10772,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="41" t="s">
         <v>7</v>
       </c>
@@ -10824,7 +10829,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="41" t="s">
         <v>8</v>
       </c>
@@ -10881,7 +10886,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+      <c r="A91" s="62"/>
       <c r="B91" s="41" t="s">
         <v>9</v>
       </c>
@@ -10938,7 +10943,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="41" t="s">
         <v>10</v>
       </c>
@@ -10995,7 +11000,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="41" t="s">
         <v>11</v>
       </c>
@@ -11052,7 +11057,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="41" t="s">
         <v>12</v>
       </c>
@@ -11109,7 +11114,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="41" t="s">
         <v>13</v>
       </c>
@@ -11166,7 +11171,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="41" t="s">
         <v>14</v>
       </c>
@@ -11223,7 +11228,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="41" t="s">
         <v>15</v>
       </c>
@@ -11280,7 +11285,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="62" t="s">
         <v>102</v>
       </c>
       <c r="B98" s="56" t="s">
@@ -11339,7 +11344,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="56" t="s">
         <v>1</v>
       </c>
@@ -11396,7 +11401,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="56" t="s">
         <v>2</v>
       </c>
@@ -11453,7 +11458,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="56" t="s">
         <v>3</v>
       </c>
@@ -11510,7 +11515,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="56" t="s">
         <v>4</v>
       </c>
@@ -11567,7 +11572,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="56" t="s">
         <v>5</v>
       </c>
@@ -11624,7 +11629,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="56" t="s">
         <v>6</v>
       </c>
@@ -11681,7 +11686,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="56" t="s">
         <v>7</v>
       </c>
@@ -11738,7 +11743,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
+      <c r="A106" s="62"/>
       <c r="B106" s="56" t="s">
         <v>8</v>
       </c>
@@ -11795,7 +11800,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
+      <c r="A107" s="62"/>
       <c r="B107" s="56" t="s">
         <v>9</v>
       </c>
@@ -11852,7 +11857,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
+      <c r="A108" s="62"/>
       <c r="B108" s="56" t="s">
         <v>10</v>
       </c>
@@ -11909,7 +11914,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
+      <c r="A109" s="62"/>
       <c r="B109" s="56" t="s">
         <v>11</v>
       </c>
@@ -11966,7 +11971,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
+      <c r="A110" s="62"/>
       <c r="B110" s="56" t="s">
         <v>12</v>
       </c>
@@ -12023,7 +12028,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
+      <c r="A111" s="62"/>
       <c r="B111" s="56" t="s">
         <v>13</v>
       </c>
@@ -12080,7 +12085,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
+      <c r="A112" s="62"/>
       <c r="B112" s="56" t="s">
         <v>14</v>
       </c>
@@ -12137,7 +12142,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
+      <c r="A113" s="62"/>
       <c r="B113" s="56" t="s">
         <v>15</v>
       </c>
@@ -12194,7 +12199,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="61" t="s">
+      <c r="A114" s="62" t="s">
         <v>103</v>
       </c>
       <c r="B114" s="57" t="s">
@@ -12253,7 +12258,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
+      <c r="A115" s="62"/>
       <c r="B115" s="57" t="s">
         <v>1</v>
       </c>
@@ -12310,7 +12315,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
+      <c r="A116" s="62"/>
       <c r="B116" s="57" t="s">
         <v>2</v>
       </c>
@@ -12367,7 +12372,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
+      <c r="A117" s="62"/>
       <c r="B117" s="57" t="s">
         <v>3</v>
       </c>
@@ -12424,7 +12429,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
+      <c r="A118" s="62"/>
       <c r="B118" s="57" t="s">
         <v>4</v>
       </c>
@@ -12481,7 +12486,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
+      <c r="A119" s="62"/>
       <c r="B119" s="57" t="s">
         <v>5</v>
       </c>
@@ -12538,7 +12543,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
+      <c r="A120" s="62"/>
       <c r="B120" s="57" t="s">
         <v>6</v>
       </c>
@@ -12595,7 +12600,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
+      <c r="A121" s="62"/>
       <c r="B121" s="57" t="s">
         <v>7</v>
       </c>
@@ -12652,7 +12657,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
+      <c r="A122" s="62"/>
       <c r="B122" s="57" t="s">
         <v>8</v>
       </c>
@@ -12709,7 +12714,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="57" t="s">
         <v>9</v>
       </c>
@@ -12766,7 +12771,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="57" t="s">
         <v>10</v>
       </c>
@@ -12823,7 +12828,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="57" t="s">
         <v>11</v>
       </c>
@@ -12880,7 +12885,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="57" t="s">
         <v>12</v>
       </c>
@@ -12937,7 +12942,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="57" t="s">
         <v>13</v>
       </c>
@@ -12994,7 +12999,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="61"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="57" t="s">
         <v>14</v>
       </c>
@@ -13051,7 +13056,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
+      <c r="A129" s="62"/>
       <c r="B129" s="57" t="s">
         <v>15</v>
       </c>
@@ -13108,7 +13113,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="61" t="s">
+      <c r="A130" s="62" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="58" t="s">
@@ -13167,7 +13172,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="58" t="s">
         <v>1</v>
       </c>
@@ -13224,7 +13229,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="58" t="s">
         <v>2</v>
       </c>
@@ -13281,7 +13286,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="58" t="s">
         <v>3</v>
       </c>
@@ -13338,7 +13343,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="58" t="s">
         <v>4</v>
       </c>
@@ -13395,7 +13400,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="58" t="s">
         <v>5</v>
       </c>
@@ -13452,7 +13457,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="61"/>
+      <c r="A136" s="62"/>
       <c r="B136" s="58" t="s">
         <v>6</v>
       </c>
@@ -13509,7 +13514,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="61"/>
+      <c r="A137" s="62"/>
       <c r="B137" s="58" t="s">
         <v>7</v>
       </c>
@@ -13566,7 +13571,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="61"/>
+      <c r="A138" s="62"/>
       <c r="B138" s="58" t="s">
         <v>8</v>
       </c>
@@ -13623,7 +13628,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
+      <c r="A139" s="62"/>
       <c r="B139" s="58" t="s">
         <v>9</v>
       </c>
@@ -13680,7 +13685,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="61"/>
+      <c r="A140" s="62"/>
       <c r="B140" s="58" t="s">
         <v>10</v>
       </c>
@@ -13737,7 +13742,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="61"/>
+      <c r="A141" s="62"/>
       <c r="B141" s="58" t="s">
         <v>11</v>
       </c>
@@ -13794,7 +13799,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="61"/>
+      <c r="A142" s="62"/>
       <c r="B142" s="58" t="s">
         <v>12</v>
       </c>
@@ -13851,7 +13856,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="61"/>
+      <c r="A143" s="62"/>
       <c r="B143" s="58" t="s">
         <v>13</v>
       </c>
@@ -13908,7 +13913,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="61"/>
+      <c r="A144" s="62"/>
       <c r="B144" s="58" t="s">
         <v>14</v>
       </c>
@@ -13965,7 +13970,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="61"/>
+      <c r="A145" s="62"/>
       <c r="B145" s="58" t="s">
         <v>15</v>
       </c>
@@ -14022,7 +14027,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="61" t="s">
+      <c r="A146" s="62" t="s">
         <v>105</v>
       </c>
       <c r="B146" s="60" t="s">
@@ -14081,7 +14086,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="61"/>
+      <c r="A147" s="62"/>
       <c r="B147" s="60" t="s">
         <v>1</v>
       </c>
@@ -14138,7 +14143,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="61"/>
+      <c r="A148" s="62"/>
       <c r="B148" s="60" t="s">
         <v>2</v>
       </c>
@@ -14195,7 +14200,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="61"/>
+      <c r="A149" s="62"/>
       <c r="B149" s="60" t="s">
         <v>3</v>
       </c>
@@ -14252,7 +14257,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="61"/>
+      <c r="A150" s="62"/>
       <c r="B150" s="60" t="s">
         <v>4</v>
       </c>
@@ -14309,7 +14314,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="61"/>
+      <c r="A151" s="62"/>
       <c r="B151" s="60" t="s">
         <v>5</v>
       </c>
@@ -14366,7 +14371,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="61"/>
+      <c r="A152" s="62"/>
       <c r="B152" s="60" t="s">
         <v>6</v>
       </c>
@@ -14423,7 +14428,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="61"/>
+      <c r="A153" s="62"/>
       <c r="B153" s="60" t="s">
         <v>7</v>
       </c>
@@ -14480,7 +14485,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="61"/>
+      <c r="A154" s="62"/>
       <c r="B154" s="60" t="s">
         <v>8</v>
       </c>
@@ -14537,7 +14542,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="61"/>
+      <c r="A155" s="62"/>
       <c r="B155" s="60" t="s">
         <v>9</v>
       </c>
@@ -14594,7 +14599,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="61"/>
+      <c r="A156" s="62"/>
       <c r="B156" s="60" t="s">
         <v>10</v>
       </c>
@@ -14651,7 +14656,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="61"/>
+      <c r="A157" s="62"/>
       <c r="B157" s="60" t="s">
         <v>11</v>
       </c>
@@ -14708,7 +14713,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="61"/>
+      <c r="A158" s="62"/>
       <c r="B158" s="60" t="s">
         <v>12</v>
       </c>
@@ -14765,7 +14770,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="61"/>
+      <c r="A159" s="62"/>
       <c r="B159" s="60" t="s">
         <v>13</v>
       </c>
@@ -14822,7 +14827,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="61"/>
+      <c r="A160" s="62"/>
       <c r="B160" s="60" t="s">
         <v>14</v>
       </c>
@@ -14879,7 +14884,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="61"/>
+      <c r="A161" s="62"/>
       <c r="B161" s="60" t="s">
         <v>15</v>
       </c>
@@ -14937,16 +14942,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
     <mergeCell ref="A146:A161"/>
     <mergeCell ref="A130:A145"/>
     <mergeCell ref="A114:A129"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15025,7 +15030,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -15084,7 +15089,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
@@ -15141,7 +15146,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
@@ -15198,7 +15203,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
@@ -15255,7 +15260,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
@@ -15312,7 +15317,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="40" t="s">
         <v>5</v>
       </c>
@@ -15369,7 +15374,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="40" t="s">
         <v>6</v>
       </c>
@@ -15426,7 +15431,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
@@ -15483,7 +15488,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="40" t="s">
         <v>8</v>
       </c>
@@ -15540,7 +15545,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
@@ -15597,7 +15602,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="40" t="s">
         <v>10</v>
       </c>
@@ -15654,7 +15659,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="40" t="s">
         <v>11</v>
       </c>
@@ -15711,7 +15716,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="40" t="s">
         <v>12</v>
       </c>
@@ -15768,7 +15773,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="40" t="s">
         <v>13</v>
       </c>
@@ -15825,7 +15830,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="40" t="s">
         <v>14</v>
       </c>
@@ -15882,7 +15887,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="40" t="s">
         <v>15</v>
       </c>
@@ -15939,7 +15944,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="62" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -15998,7 +16003,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="40" t="s">
         <v>1</v>
       </c>
@@ -16055,7 +16060,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="40" t="s">
         <v>2</v>
       </c>
@@ -16112,7 +16117,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="40" t="s">
         <v>3</v>
       </c>
@@ -16169,7 +16174,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="40" t="s">
         <v>4</v>
       </c>
@@ -16226,7 +16231,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="40" t="s">
         <v>5</v>
       </c>
@@ -16283,7 +16288,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="40" t="s">
         <v>6</v>
       </c>
@@ -16340,7 +16345,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="40" t="s">
         <v>7</v>
       </c>
@@ -16397,7 +16402,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="40" t="s">
         <v>8</v>
       </c>
@@ -16454,7 +16459,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="40" t="s">
         <v>9</v>
       </c>
@@ -16511,7 +16516,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="40" t="s">
         <v>10</v>
       </c>
@@ -16568,7 +16573,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="40" t="s">
         <v>11</v>
       </c>
@@ -16625,7 +16630,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="40" t="s">
         <v>12</v>
       </c>
@@ -16682,7 +16687,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="40" t="s">
         <v>13</v>
       </c>
@@ -16739,7 +16744,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="40" t="s">
         <v>14</v>
       </c>
@@ -16796,7 +16801,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="40" t="s">
         <v>15</v>
       </c>
@@ -16853,7 +16858,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -16912,7 +16917,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="40" t="s">
         <v>1</v>
       </c>
@@ -16969,7 +16974,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="40" t="s">
         <v>2</v>
       </c>
@@ -17026,7 +17031,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="40" t="s">
         <v>3</v>
       </c>
@@ -17083,7 +17088,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="40" t="s">
         <v>4</v>
       </c>
@@ -17140,7 +17145,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="40" t="s">
         <v>5</v>
       </c>
@@ -17197,7 +17202,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="40" t="s">
         <v>6</v>
       </c>
@@ -17254,7 +17259,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="40" t="s">
         <v>7</v>
       </c>
@@ -17311,7 +17316,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="40" t="s">
         <v>8</v>
       </c>
@@ -17368,7 +17373,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="40" t="s">
         <v>9</v>
       </c>
@@ -17425,7 +17430,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="40" t="s">
         <v>10</v>
       </c>
@@ -17482,7 +17487,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="40" t="s">
         <v>11</v>
       </c>
@@ -17539,7 +17544,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="40" t="s">
         <v>12</v>
       </c>
@@ -17596,7 +17601,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="40" t="s">
         <v>13</v>
       </c>
@@ -17653,7 +17658,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="40" t="s">
         <v>14</v>
       </c>
@@ -17710,7 +17715,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="40" t="s">
         <v>15</v>
       </c>
@@ -17767,7 +17772,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="62" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="40" t="s">
@@ -17826,7 +17831,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="40" t="s">
         <v>1</v>
       </c>
@@ -17883,7 +17888,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="40" t="s">
         <v>2</v>
       </c>
@@ -17940,7 +17945,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="40" t="s">
         <v>3</v>
       </c>
@@ -17997,7 +18002,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="40" t="s">
         <v>4</v>
       </c>
@@ -18054,7 +18059,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="40" t="s">
         <v>5</v>
       </c>
@@ -18111,7 +18116,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="40" t="s">
         <v>6</v>
       </c>
@@ -18168,7 +18173,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="40" t="s">
         <v>7</v>
       </c>
@@ -18225,7 +18230,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="40" t="s">
         <v>8</v>
       </c>
@@ -18282,7 +18287,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="40" t="s">
         <v>9</v>
       </c>
@@ -18339,7 +18344,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="40" t="s">
         <v>10</v>
       </c>
@@ -18396,7 +18401,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="40" t="s">
         <v>11</v>
       </c>
@@ -18453,7 +18458,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="40" t="s">
         <v>12</v>
       </c>
@@ -18510,7 +18515,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="40" t="s">
         <v>13</v>
       </c>
@@ -18567,7 +18572,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="40" t="s">
         <v>14</v>
       </c>
@@ -18624,7 +18629,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="40" t="s">
         <v>15</v>
       </c>
@@ -18681,7 +18686,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="62" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="40" t="s">
@@ -18740,7 +18745,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="40" t="s">
         <v>1</v>
       </c>
@@ -18797,7 +18802,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="40" t="s">
         <v>2</v>
       </c>
@@ -18854,7 +18859,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="40" t="s">
         <v>3</v>
       </c>
@@ -18911,7 +18916,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="40" t="s">
         <v>4</v>
       </c>
@@ -18968,7 +18973,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="40" t="s">
         <v>5</v>
       </c>
@@ -19025,7 +19030,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="40" t="s">
         <v>6</v>
       </c>
@@ -19082,7 +19087,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="40" t="s">
         <v>7</v>
       </c>
@@ -19139,7 +19144,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="40" t="s">
         <v>8</v>
       </c>
@@ -19196,7 +19201,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="40" t="s">
         <v>9</v>
       </c>
@@ -19253,7 +19258,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="40" t="s">
         <v>10</v>
       </c>
@@ -19310,7 +19315,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="40" t="s">
         <v>11</v>
       </c>
@@ -19367,7 +19372,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="40" t="s">
         <v>12</v>
       </c>
@@ -19424,7 +19429,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="40" t="s">
         <v>13</v>
       </c>
@@ -19481,7 +19486,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="40" t="s">
         <v>14</v>
       </c>
@@ -19538,7 +19543,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="40" t="s">
         <v>15</v>
       </c>
@@ -19595,7 +19600,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="62" t="s">
         <v>101</v>
       </c>
       <c r="B82" s="41" t="s">
@@ -19654,7 +19659,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="41" t="s">
         <v>1</v>
       </c>
@@ -19711,7 +19716,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="41" t="s">
         <v>2</v>
       </c>
@@ -19768,7 +19773,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="41" t="s">
         <v>3</v>
       </c>
@@ -19825,7 +19830,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="41" t="s">
         <v>4</v>
       </c>
@@ -19882,7 +19887,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="41" t="s">
         <v>5</v>
       </c>
@@ -19939,7 +19944,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="41" t="s">
         <v>6</v>
       </c>
@@ -19996,7 +20001,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="41" t="s">
         <v>7</v>
       </c>
@@ -20053,7 +20058,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="41" t="s">
         <v>8</v>
       </c>
@@ -20110,7 +20115,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+      <c r="A91" s="62"/>
       <c r="B91" s="41" t="s">
         <v>9</v>
       </c>
@@ -20167,7 +20172,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="41" t="s">
         <v>10</v>
       </c>
@@ -20224,7 +20229,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="41" t="s">
         <v>11</v>
       </c>
@@ -20281,7 +20286,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="41" t="s">
         <v>12</v>
       </c>
@@ -20338,7 +20343,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="41" t="s">
         <v>13</v>
       </c>
@@ -20395,7 +20400,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="41" t="s">
         <v>14</v>
       </c>
@@ -20452,7 +20457,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="41" t="s">
         <v>15</v>
       </c>
@@ -20509,7 +20514,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="62" t="s">
         <v>102</v>
       </c>
       <c r="B98" s="56" t="s">
@@ -20568,7 +20573,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="56" t="s">
         <v>1</v>
       </c>
@@ -20625,7 +20630,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="56" t="s">
         <v>2</v>
       </c>
@@ -20682,7 +20687,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="56" t="s">
         <v>3</v>
       </c>
@@ -20739,7 +20744,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="56" t="s">
         <v>4</v>
       </c>
@@ -20796,7 +20801,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="56" t="s">
         <v>5</v>
       </c>
@@ -20853,7 +20858,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="56" t="s">
         <v>6</v>
       </c>
@@ -20910,7 +20915,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="56" t="s">
         <v>7</v>
       </c>
@@ -20967,7 +20972,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
+      <c r="A106" s="62"/>
       <c r="B106" s="56" t="s">
         <v>8</v>
       </c>
@@ -21024,7 +21029,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
+      <c r="A107" s="62"/>
       <c r="B107" s="56" t="s">
         <v>9</v>
       </c>
@@ -21081,7 +21086,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
+      <c r="A108" s="62"/>
       <c r="B108" s="56" t="s">
         <v>10</v>
       </c>
@@ -21138,7 +21143,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
+      <c r="A109" s="62"/>
       <c r="B109" s="56" t="s">
         <v>11</v>
       </c>
@@ -21195,7 +21200,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
+      <c r="A110" s="62"/>
       <c r="B110" s="56" t="s">
         <v>12</v>
       </c>
@@ -21252,7 +21257,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
+      <c r="A111" s="62"/>
       <c r="B111" s="56" t="s">
         <v>13</v>
       </c>
@@ -21309,7 +21314,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
+      <c r="A112" s="62"/>
       <c r="B112" s="56" t="s">
         <v>14</v>
       </c>
@@ -21366,7 +21371,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
+      <c r="A113" s="62"/>
       <c r="B113" s="56" t="s">
         <v>15</v>
       </c>
@@ -21423,7 +21428,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="61" t="s">
+      <c r="A114" s="62" t="s">
         <v>103</v>
       </c>
       <c r="B114" s="57" t="s">
@@ -21482,7 +21487,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
+      <c r="A115" s="62"/>
       <c r="B115" s="57" t="s">
         <v>1</v>
       </c>
@@ -21539,7 +21544,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
+      <c r="A116" s="62"/>
       <c r="B116" s="57" t="s">
         <v>2</v>
       </c>
@@ -21596,7 +21601,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
+      <c r="A117" s="62"/>
       <c r="B117" s="57" t="s">
         <v>3</v>
       </c>
@@ -21653,7 +21658,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
+      <c r="A118" s="62"/>
       <c r="B118" s="57" t="s">
         <v>4</v>
       </c>
@@ -21710,7 +21715,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
+      <c r="A119" s="62"/>
       <c r="B119" s="57" t="s">
         <v>5</v>
       </c>
@@ -21767,7 +21772,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
+      <c r="A120" s="62"/>
       <c r="B120" s="57" t="s">
         <v>6</v>
       </c>
@@ -21824,7 +21829,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
+      <c r="A121" s="62"/>
       <c r="B121" s="57" t="s">
         <v>7</v>
       </c>
@@ -21881,7 +21886,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
+      <c r="A122" s="62"/>
       <c r="B122" s="57" t="s">
         <v>8</v>
       </c>
@@ -21938,7 +21943,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="57" t="s">
         <v>9</v>
       </c>
@@ -21995,7 +22000,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="57" t="s">
         <v>10</v>
       </c>
@@ -22052,7 +22057,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="57" t="s">
         <v>11</v>
       </c>
@@ -22109,7 +22114,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="57" t="s">
         <v>12</v>
       </c>
@@ -22166,7 +22171,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="57" t="s">
         <v>13</v>
       </c>
@@ -22223,7 +22228,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="61"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="57" t="s">
         <v>14</v>
       </c>
@@ -22280,7 +22285,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
+      <c r="A129" s="62"/>
       <c r="B129" s="57" t="s">
         <v>15</v>
       </c>
@@ -22337,7 +22342,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="61" t="s">
+      <c r="A130" s="62" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="58" t="s">
@@ -22396,7 +22401,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="58" t="s">
         <v>1</v>
       </c>
@@ -22453,7 +22458,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="58" t="s">
         <v>2</v>
       </c>
@@ -22510,7 +22515,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="58" t="s">
         <v>3</v>
       </c>
@@ -22567,7 +22572,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="58" t="s">
         <v>4</v>
       </c>
@@ -22624,7 +22629,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="58" t="s">
         <v>5</v>
       </c>
@@ -22681,7 +22686,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="61"/>
+      <c r="A136" s="62"/>
       <c r="B136" s="58" t="s">
         <v>6</v>
       </c>
@@ -22738,7 +22743,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="61"/>
+      <c r="A137" s="62"/>
       <c r="B137" s="58" t="s">
         <v>7</v>
       </c>
@@ -22795,7 +22800,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="61"/>
+      <c r="A138" s="62"/>
       <c r="B138" s="58" t="s">
         <v>8</v>
       </c>
@@ -22852,7 +22857,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
+      <c r="A139" s="62"/>
       <c r="B139" s="58" t="s">
         <v>9</v>
       </c>
@@ -22909,7 +22914,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="61"/>
+      <c r="A140" s="62"/>
       <c r="B140" s="58" t="s">
         <v>10</v>
       </c>
@@ -22966,7 +22971,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="61"/>
+      <c r="A141" s="62"/>
       <c r="B141" s="58" t="s">
         <v>11</v>
       </c>
@@ -23023,7 +23028,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="61"/>
+      <c r="A142" s="62"/>
       <c r="B142" s="58" t="s">
         <v>12</v>
       </c>
@@ -23080,7 +23085,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="61"/>
+      <c r="A143" s="62"/>
       <c r="B143" s="58" t="s">
         <v>13</v>
       </c>
@@ -23137,7 +23142,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="61"/>
+      <c r="A144" s="62"/>
       <c r="B144" s="58" t="s">
         <v>14</v>
       </c>
@@ -23194,7 +23199,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="61"/>
+      <c r="A145" s="62"/>
       <c r="B145" s="58" t="s">
         <v>15</v>
       </c>
@@ -23251,7 +23256,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="61" t="s">
+      <c r="A146" s="62" t="s">
         <v>105</v>
       </c>
       <c r="B146" s="60" t="s">
@@ -23310,7 +23315,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="61"/>
+      <c r="A147" s="62"/>
       <c r="B147" s="60" t="s">
         <v>1</v>
       </c>
@@ -23367,7 +23372,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="61"/>
+      <c r="A148" s="62"/>
       <c r="B148" s="60" t="s">
         <v>2</v>
       </c>
@@ -23424,7 +23429,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="61"/>
+      <c r="A149" s="62"/>
       <c r="B149" s="60" t="s">
         <v>3</v>
       </c>
@@ -23481,7 +23486,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="61"/>
+      <c r="A150" s="62"/>
       <c r="B150" s="60" t="s">
         <v>4</v>
       </c>
@@ -23538,7 +23543,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="61"/>
+      <c r="A151" s="62"/>
       <c r="B151" s="60" t="s">
         <v>5</v>
       </c>
@@ -23595,7 +23600,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="61"/>
+      <c r="A152" s="62"/>
       <c r="B152" s="60" t="s">
         <v>6</v>
       </c>
@@ -23652,7 +23657,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="61"/>
+      <c r="A153" s="62"/>
       <c r="B153" s="60" t="s">
         <v>7</v>
       </c>
@@ -23709,7 +23714,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="61"/>
+      <c r="A154" s="62"/>
       <c r="B154" s="60" t="s">
         <v>8</v>
       </c>
@@ -23766,7 +23771,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="61"/>
+      <c r="A155" s="62"/>
       <c r="B155" s="60" t="s">
         <v>9</v>
       </c>
@@ -23823,7 +23828,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="61"/>
+      <c r="A156" s="62"/>
       <c r="B156" s="60" t="s">
         <v>10</v>
       </c>
@@ -23880,7 +23885,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="61"/>
+      <c r="A157" s="62"/>
       <c r="B157" s="60" t="s">
         <v>11</v>
       </c>
@@ -23937,7 +23942,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="61"/>
+      <c r="A158" s="62"/>
       <c r="B158" s="60" t="s">
         <v>12</v>
       </c>
@@ -23994,7 +23999,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="61"/>
+      <c r="A159" s="62"/>
       <c r="B159" s="60" t="s">
         <v>13</v>
       </c>
@@ -24051,7 +24056,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="61"/>
+      <c r="A160" s="62"/>
       <c r="B160" s="60" t="s">
         <v>14</v>
       </c>
@@ -24108,7 +24113,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="61"/>
+      <c r="A161" s="62"/>
       <c r="B161" s="60" t="s">
         <v>15</v>
       </c>
@@ -24166,16 +24171,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
     <mergeCell ref="A146:A161"/>
     <mergeCell ref="A130:A145"/>
     <mergeCell ref="A114:A129"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24254,7 +24259,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -24313,7 +24318,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
@@ -24370,7 +24375,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
@@ -24427,7 +24432,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
@@ -24484,7 +24489,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
@@ -24541,7 +24546,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="40" t="s">
         <v>5</v>
       </c>
@@ -24598,7 +24603,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="40" t="s">
         <v>6</v>
       </c>
@@ -24655,7 +24660,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
@@ -24712,7 +24717,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="40" t="s">
         <v>8</v>
       </c>
@@ -24769,7 +24774,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
@@ -24826,7 +24831,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="40" t="s">
         <v>10</v>
       </c>
@@ -24883,7 +24888,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="40" t="s">
         <v>11</v>
       </c>
@@ -24940,7 +24945,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="40" t="s">
         <v>12</v>
       </c>
@@ -24997,7 +25002,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="40" t="s">
         <v>13</v>
       </c>
@@ -25054,7 +25059,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="40" t="s">
         <v>14</v>
       </c>
@@ -25111,7 +25116,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="40" t="s">
         <v>15</v>
       </c>
@@ -25168,7 +25173,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="62" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -25227,7 +25232,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="40" t="s">
         <v>1</v>
       </c>
@@ -25284,7 +25289,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="40" t="s">
         <v>2</v>
       </c>
@@ -25341,7 +25346,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="40" t="s">
         <v>3</v>
       </c>
@@ -25398,7 +25403,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="40" t="s">
         <v>4</v>
       </c>
@@ -25455,7 +25460,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="40" t="s">
         <v>5</v>
       </c>
@@ -25512,7 +25517,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="40" t="s">
         <v>6</v>
       </c>
@@ -25569,7 +25574,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="40" t="s">
         <v>7</v>
       </c>
@@ -25626,7 +25631,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="40" t="s">
         <v>8</v>
       </c>
@@ -25683,7 +25688,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="40" t="s">
         <v>9</v>
       </c>
@@ -25740,7 +25745,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="40" t="s">
         <v>10</v>
       </c>
@@ -25797,7 +25802,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="40" t="s">
         <v>11</v>
       </c>
@@ -25854,7 +25859,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="40" t="s">
         <v>12</v>
       </c>
@@ -25911,7 +25916,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="40" t="s">
         <v>13</v>
       </c>
@@ -25968,7 +25973,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="40" t="s">
         <v>14</v>
       </c>
@@ -26025,7 +26030,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="40" t="s">
         <v>15</v>
       </c>
@@ -26082,7 +26087,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -26141,7 +26146,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="40" t="s">
         <v>1</v>
       </c>
@@ -26198,7 +26203,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="40" t="s">
         <v>2</v>
       </c>
@@ -26255,7 +26260,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="40" t="s">
         <v>3</v>
       </c>
@@ -26312,7 +26317,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="40" t="s">
         <v>4</v>
       </c>
@@ -26369,7 +26374,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="40" t="s">
         <v>5</v>
       </c>
@@ -26426,7 +26431,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="40" t="s">
         <v>6</v>
       </c>
@@ -26483,7 +26488,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="40" t="s">
         <v>7</v>
       </c>
@@ -26540,7 +26545,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="40" t="s">
         <v>8</v>
       </c>
@@ -26597,7 +26602,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="40" t="s">
         <v>9</v>
       </c>
@@ -26654,7 +26659,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="40" t="s">
         <v>10</v>
       </c>
@@ -26711,7 +26716,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="40" t="s">
         <v>11</v>
       </c>
@@ -26768,7 +26773,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="40" t="s">
         <v>12</v>
       </c>
@@ -26825,7 +26830,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="40" t="s">
         <v>13</v>
       </c>
@@ -26882,7 +26887,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="40" t="s">
         <v>14</v>
       </c>
@@ -26939,7 +26944,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="40" t="s">
         <v>15</v>
       </c>
@@ -26996,7 +27001,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="62" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="40" t="s">
@@ -27055,7 +27060,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="40" t="s">
         <v>1</v>
       </c>
@@ -27112,7 +27117,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="40" t="s">
         <v>2</v>
       </c>
@@ -27169,7 +27174,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="40" t="s">
         <v>3</v>
       </c>
@@ -27226,7 +27231,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="40" t="s">
         <v>4</v>
       </c>
@@ -27283,7 +27288,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="40" t="s">
         <v>5</v>
       </c>
@@ -27340,7 +27345,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="40" t="s">
         <v>6</v>
       </c>
@@ -27397,7 +27402,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="40" t="s">
         <v>7</v>
       </c>
@@ -27454,7 +27459,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="40" t="s">
         <v>8</v>
       </c>
@@ -27511,7 +27516,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="40" t="s">
         <v>9</v>
       </c>
@@ -27568,7 +27573,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="40" t="s">
         <v>10</v>
       </c>
@@ -27625,7 +27630,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="40" t="s">
         <v>11</v>
       </c>
@@ -27682,7 +27687,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="40" t="s">
         <v>12</v>
       </c>
@@ -27739,7 +27744,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="40" t="s">
         <v>13</v>
       </c>
@@ -27796,7 +27801,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="40" t="s">
         <v>14</v>
       </c>
@@ -27853,7 +27858,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="40" t="s">
         <v>15</v>
       </c>
@@ -27910,7 +27915,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="62" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="40" t="s">
@@ -27969,7 +27974,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="40" t="s">
         <v>1</v>
       </c>
@@ -28026,7 +28031,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="40" t="s">
         <v>2</v>
       </c>
@@ -28083,7 +28088,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="40" t="s">
         <v>3</v>
       </c>
@@ -28140,7 +28145,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="40" t="s">
         <v>4</v>
       </c>
@@ -28197,7 +28202,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="40" t="s">
         <v>5</v>
       </c>
@@ -28254,7 +28259,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="40" t="s">
         <v>6</v>
       </c>
@@ -28311,7 +28316,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="40" t="s">
         <v>7</v>
       </c>
@@ -28368,7 +28373,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="40" t="s">
         <v>8</v>
       </c>
@@ -28425,7 +28430,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="40" t="s">
         <v>9</v>
       </c>
@@ -28482,7 +28487,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="40" t="s">
         <v>10</v>
       </c>
@@ -28539,7 +28544,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="40" t="s">
         <v>11</v>
       </c>
@@ -28596,7 +28601,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="40" t="s">
         <v>12</v>
       </c>
@@ -28653,7 +28658,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="40" t="s">
         <v>13</v>
       </c>
@@ -28710,7 +28715,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="40" t="s">
         <v>14</v>
       </c>
@@ -28767,7 +28772,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="40" t="s">
         <v>15</v>
       </c>
@@ -28824,7 +28829,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="62" t="s">
         <v>101</v>
       </c>
       <c r="B82" s="41" t="s">
@@ -28883,7 +28888,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="41" t="s">
         <v>1</v>
       </c>
@@ -28940,7 +28945,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="41" t="s">
         <v>2</v>
       </c>
@@ -28997,7 +29002,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="41" t="s">
         <v>3</v>
       </c>
@@ -29054,7 +29059,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="41" t="s">
         <v>4</v>
       </c>
@@ -29111,7 +29116,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="41" t="s">
         <v>5</v>
       </c>
@@ -29168,7 +29173,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="41" t="s">
         <v>6</v>
       </c>
@@ -29225,7 +29230,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="41" t="s">
         <v>7</v>
       </c>
@@ -29282,7 +29287,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="41" t="s">
         <v>8</v>
       </c>
@@ -29339,7 +29344,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+      <c r="A91" s="62"/>
       <c r="B91" s="41" t="s">
         <v>9</v>
       </c>
@@ -29396,7 +29401,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="41" t="s">
         <v>10</v>
       </c>
@@ -29453,7 +29458,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="41" t="s">
         <v>11</v>
       </c>
@@ -29510,7 +29515,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="41" t="s">
         <v>12</v>
       </c>
@@ -29567,7 +29572,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="41" t="s">
         <v>13</v>
       </c>
@@ -29624,7 +29629,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="41" t="s">
         <v>14</v>
       </c>
@@ -29681,7 +29686,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="41" t="s">
         <v>15</v>
       </c>
@@ -29738,7 +29743,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="62" t="s">
         <v>102</v>
       </c>
       <c r="B98" s="56" t="s">
@@ -29797,7 +29802,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="56" t="s">
         <v>1</v>
       </c>
@@ -29854,7 +29859,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="56" t="s">
         <v>2</v>
       </c>
@@ -29911,7 +29916,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="56" t="s">
         <v>3</v>
       </c>
@@ -29968,7 +29973,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="56" t="s">
         <v>4</v>
       </c>
@@ -30025,7 +30030,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="56" t="s">
         <v>5</v>
       </c>
@@ -30082,7 +30087,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="56" t="s">
         <v>6</v>
       </c>
@@ -30139,7 +30144,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="56" t="s">
         <v>7</v>
       </c>
@@ -30196,7 +30201,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
+      <c r="A106" s="62"/>
       <c r="B106" s="56" t="s">
         <v>8</v>
       </c>
@@ -30253,7 +30258,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
+      <c r="A107" s="62"/>
       <c r="B107" s="56" t="s">
         <v>9</v>
       </c>
@@ -30310,7 +30315,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
+      <c r="A108" s="62"/>
       <c r="B108" s="56" t="s">
         <v>10</v>
       </c>
@@ -30367,7 +30372,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
+      <c r="A109" s="62"/>
       <c r="B109" s="56" t="s">
         <v>11</v>
       </c>
@@ -30424,7 +30429,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
+      <c r="A110" s="62"/>
       <c r="B110" s="56" t="s">
         <v>12</v>
       </c>
@@ -30481,7 +30486,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
+      <c r="A111" s="62"/>
       <c r="B111" s="56" t="s">
         <v>13</v>
       </c>
@@ -30538,7 +30543,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
+      <c r="A112" s="62"/>
       <c r="B112" s="56" t="s">
         <v>14</v>
       </c>
@@ -30595,7 +30600,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
+      <c r="A113" s="62"/>
       <c r="B113" s="56" t="s">
         <v>15</v>
       </c>
@@ -30652,7 +30657,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="61" t="s">
+      <c r="A114" s="62" t="s">
         <v>103</v>
       </c>
       <c r="B114" s="57" t="s">
@@ -30711,7 +30716,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
+      <c r="A115" s="62"/>
       <c r="B115" s="57" t="s">
         <v>1</v>
       </c>
@@ -30768,7 +30773,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
+      <c r="A116" s="62"/>
       <c r="B116" s="57" t="s">
         <v>2</v>
       </c>
@@ -30825,7 +30830,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
+      <c r="A117" s="62"/>
       <c r="B117" s="57" t="s">
         <v>3</v>
       </c>
@@ -30882,7 +30887,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
+      <c r="A118" s="62"/>
       <c r="B118" s="57" t="s">
         <v>4</v>
       </c>
@@ -30939,7 +30944,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
+      <c r="A119" s="62"/>
       <c r="B119" s="57" t="s">
         <v>5</v>
       </c>
@@ -30996,7 +31001,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
+      <c r="A120" s="62"/>
       <c r="B120" s="57" t="s">
         <v>6</v>
       </c>
@@ -31053,7 +31058,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
+      <c r="A121" s="62"/>
       <c r="B121" s="57" t="s">
         <v>7</v>
       </c>
@@ -31110,7 +31115,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
+      <c r="A122" s="62"/>
       <c r="B122" s="57" t="s">
         <v>8</v>
       </c>
@@ -31167,7 +31172,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="57" t="s">
         <v>9</v>
       </c>
@@ -31224,7 +31229,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="57" t="s">
         <v>10</v>
       </c>
@@ -31281,7 +31286,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="57" t="s">
         <v>11</v>
       </c>
@@ -31338,7 +31343,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="57" t="s">
         <v>12</v>
       </c>
@@ -31395,7 +31400,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="57" t="s">
         <v>13</v>
       </c>
@@ -31452,7 +31457,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="61"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="57" t="s">
         <v>14</v>
       </c>
@@ -31509,7 +31514,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
+      <c r="A129" s="62"/>
       <c r="B129" s="57" t="s">
         <v>15</v>
       </c>
@@ -31566,7 +31571,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="61" t="s">
+      <c r="A130" s="62" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="58" t="s">
@@ -31625,7 +31630,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="58" t="s">
         <v>1</v>
       </c>
@@ -31682,7 +31687,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="58" t="s">
         <v>2</v>
       </c>
@@ -31739,7 +31744,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="58" t="s">
         <v>3</v>
       </c>
@@ -31796,7 +31801,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="58" t="s">
         <v>4</v>
       </c>
@@ -31853,7 +31858,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="58" t="s">
         <v>5</v>
       </c>
@@ -31910,7 +31915,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="61"/>
+      <c r="A136" s="62"/>
       <c r="B136" s="58" t="s">
         <v>6</v>
       </c>
@@ -31967,7 +31972,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="61"/>
+      <c r="A137" s="62"/>
       <c r="B137" s="58" t="s">
         <v>7</v>
       </c>
@@ -32024,7 +32029,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="61"/>
+      <c r="A138" s="62"/>
       <c r="B138" s="58" t="s">
         <v>8</v>
       </c>
@@ -32081,7 +32086,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
+      <c r="A139" s="62"/>
       <c r="B139" s="58" t="s">
         <v>9</v>
       </c>
@@ -32138,7 +32143,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="61"/>
+      <c r="A140" s="62"/>
       <c r="B140" s="58" t="s">
         <v>10</v>
       </c>
@@ -32195,7 +32200,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="61"/>
+      <c r="A141" s="62"/>
       <c r="B141" s="58" t="s">
         <v>11</v>
       </c>
@@ -32252,7 +32257,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="61"/>
+      <c r="A142" s="62"/>
       <c r="B142" s="58" t="s">
         <v>12</v>
       </c>
@@ -32309,7 +32314,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="61"/>
+      <c r="A143" s="62"/>
       <c r="B143" s="58" t="s">
         <v>13</v>
       </c>
@@ -32366,7 +32371,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="61"/>
+      <c r="A144" s="62"/>
       <c r="B144" s="58" t="s">
         <v>14</v>
       </c>
@@ -32423,7 +32428,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="61"/>
+      <c r="A145" s="62"/>
       <c r="B145" s="58" t="s">
         <v>15</v>
       </c>
@@ -32480,7 +32485,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="61" t="s">
+      <c r="A146" s="62" t="s">
         <v>105</v>
       </c>
       <c r="B146" s="60" t="s">
@@ -32539,7 +32544,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="61"/>
+      <c r="A147" s="62"/>
       <c r="B147" s="60" t="s">
         <v>1</v>
       </c>
@@ -32596,7 +32601,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="61"/>
+      <c r="A148" s="62"/>
       <c r="B148" s="60" t="s">
         <v>2</v>
       </c>
@@ -32653,7 +32658,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="61"/>
+      <c r="A149" s="62"/>
       <c r="B149" s="60" t="s">
         <v>3</v>
       </c>
@@ -32710,7 +32715,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="61"/>
+      <c r="A150" s="62"/>
       <c r="B150" s="60" t="s">
         <v>4</v>
       </c>
@@ -32767,7 +32772,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="61"/>
+      <c r="A151" s="62"/>
       <c r="B151" s="60" t="s">
         <v>5</v>
       </c>
@@ -32824,7 +32829,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="61"/>
+      <c r="A152" s="62"/>
       <c r="B152" s="60" t="s">
         <v>6</v>
       </c>
@@ -32881,7 +32886,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="61"/>
+      <c r="A153" s="62"/>
       <c r="B153" s="60" t="s">
         <v>7</v>
       </c>
@@ -32938,7 +32943,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="61"/>
+      <c r="A154" s="62"/>
       <c r="B154" s="60" t="s">
         <v>8</v>
       </c>
@@ -32995,7 +33000,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="61"/>
+      <c r="A155" s="62"/>
       <c r="B155" s="60" t="s">
         <v>9</v>
       </c>
@@ -33052,7 +33057,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="61"/>
+      <c r="A156" s="62"/>
       <c r="B156" s="60" t="s">
         <v>10</v>
       </c>
@@ -33109,7 +33114,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="61"/>
+      <c r="A157" s="62"/>
       <c r="B157" s="60" t="s">
         <v>11</v>
       </c>
@@ -33166,7 +33171,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="61"/>
+      <c r="A158" s="62"/>
       <c r="B158" s="60" t="s">
         <v>12</v>
       </c>
@@ -33223,7 +33228,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="61"/>
+      <c r="A159" s="62"/>
       <c r="B159" s="60" t="s">
         <v>13</v>
       </c>
@@ -33280,7 +33285,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="61"/>
+      <c r="A160" s="62"/>
       <c r="B160" s="60" t="s">
         <v>14</v>
       </c>
@@ -33337,7 +33342,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="61"/>
+      <c r="A161" s="62"/>
       <c r="B161" s="60" t="s">
         <v>15</v>
       </c>
@@ -33395,16 +33400,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
     <mergeCell ref="A146:A161"/>
     <mergeCell ref="A130:A145"/>
     <mergeCell ref="A114:A129"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33417,7 +33422,7 @@
   </sheetPr>
   <dimension ref="A1:S161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
@@ -33483,7 +33488,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -33542,7 +33547,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
@@ -33599,7 +33604,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
@@ -33656,7 +33661,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
@@ -33713,7 +33718,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
@@ -33770,7 +33775,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="40" t="s">
         <v>5</v>
       </c>
@@ -33827,7 +33832,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="40" t="s">
         <v>6</v>
       </c>
@@ -33884,7 +33889,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
@@ -33941,7 +33946,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="40" t="s">
         <v>8</v>
       </c>
@@ -33998,7 +34003,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
@@ -34055,7 +34060,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="40" t="s">
         <v>10</v>
       </c>
@@ -34112,7 +34117,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="40" t="s">
         <v>11</v>
       </c>
@@ -34169,7 +34174,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="40" t="s">
         <v>12</v>
       </c>
@@ -34226,7 +34231,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="40" t="s">
         <v>13</v>
       </c>
@@ -34283,7 +34288,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="40" t="s">
         <v>14</v>
       </c>
@@ -34340,7 +34345,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="40" t="s">
         <v>15</v>
       </c>
@@ -34397,7 +34402,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="62" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -34456,7 +34461,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="40" t="s">
         <v>1</v>
       </c>
@@ -34513,7 +34518,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="40" t="s">
         <v>2</v>
       </c>
@@ -34570,7 +34575,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="40" t="s">
         <v>3</v>
       </c>
@@ -34627,7 +34632,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="40" t="s">
         <v>4</v>
       </c>
@@ -34684,7 +34689,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="40" t="s">
         <v>5</v>
       </c>
@@ -34741,7 +34746,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="40" t="s">
         <v>6</v>
       </c>
@@ -34798,7 +34803,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="40" t="s">
         <v>7</v>
       </c>
@@ -34855,7 +34860,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="40" t="s">
         <v>8</v>
       </c>
@@ -34912,7 +34917,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="40" t="s">
         <v>9</v>
       </c>
@@ -34969,7 +34974,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="40" t="s">
         <v>10</v>
       </c>
@@ -35026,7 +35031,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="40" t="s">
         <v>11</v>
       </c>
@@ -35083,7 +35088,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="40" t="s">
         <v>12</v>
       </c>
@@ -35140,7 +35145,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="40" t="s">
         <v>13</v>
       </c>
@@ -35197,7 +35202,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="40" t="s">
         <v>14</v>
       </c>
@@ -35254,7 +35259,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="40" t="s">
         <v>15</v>
       </c>
@@ -35311,7 +35316,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -35370,7 +35375,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="40" t="s">
         <v>1</v>
       </c>
@@ -35427,7 +35432,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="40" t="s">
         <v>2</v>
       </c>
@@ -35484,7 +35489,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="40" t="s">
         <v>3</v>
       </c>
@@ -35541,7 +35546,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="40" t="s">
         <v>4</v>
       </c>
@@ -35598,7 +35603,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="40" t="s">
         <v>5</v>
       </c>
@@ -35655,7 +35660,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="40" t="s">
         <v>6</v>
       </c>
@@ -35712,7 +35717,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="40" t="s">
         <v>7</v>
       </c>
@@ -35769,7 +35774,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="40" t="s">
         <v>8</v>
       </c>
@@ -35826,7 +35831,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="40" t="s">
         <v>9</v>
       </c>
@@ -35883,7 +35888,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="40" t="s">
         <v>10</v>
       </c>
@@ -35940,7 +35945,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="40" t="s">
         <v>11</v>
       </c>
@@ -35997,7 +36002,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="40" t="s">
         <v>12</v>
       </c>
@@ -36054,7 +36059,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="40" t="s">
         <v>13</v>
       </c>
@@ -36111,7 +36116,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="40" t="s">
         <v>14</v>
       </c>
@@ -36168,7 +36173,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="40" t="s">
         <v>15</v>
       </c>
@@ -36225,7 +36230,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="62" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="40" t="s">
@@ -36284,7 +36289,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="40" t="s">
         <v>1</v>
       </c>
@@ -36341,7 +36346,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="40" t="s">
         <v>2</v>
       </c>
@@ -36398,7 +36403,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="40" t="s">
         <v>3</v>
       </c>
@@ -36455,7 +36460,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="40" t="s">
         <v>4</v>
       </c>
@@ -36512,7 +36517,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="40" t="s">
         <v>5</v>
       </c>
@@ -36569,7 +36574,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="40" t="s">
         <v>6</v>
       </c>
@@ -36626,7 +36631,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="40" t="s">
         <v>7</v>
       </c>
@@ -36683,7 +36688,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="40" t="s">
         <v>8</v>
       </c>
@@ -36740,7 +36745,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="40" t="s">
         <v>9</v>
       </c>
@@ -36797,7 +36802,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="40" t="s">
         <v>10</v>
       </c>
@@ -36854,7 +36859,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="40" t="s">
         <v>11</v>
       </c>
@@ -36911,7 +36916,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="40" t="s">
         <v>12</v>
       </c>
@@ -36968,7 +36973,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="40" t="s">
         <v>13</v>
       </c>
@@ -37025,7 +37030,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="40" t="s">
         <v>14</v>
       </c>
@@ -37082,7 +37087,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="40" t="s">
         <v>15</v>
       </c>
@@ -37139,7 +37144,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="62" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="40" t="s">
@@ -37198,7 +37203,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="40" t="s">
         <v>1</v>
       </c>
@@ -37255,7 +37260,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="40" t="s">
         <v>2</v>
       </c>
@@ -37312,7 +37317,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="40" t="s">
         <v>3</v>
       </c>
@@ -37369,7 +37374,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="40" t="s">
         <v>4</v>
       </c>
@@ -37426,7 +37431,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="40" t="s">
         <v>5</v>
       </c>
@@ -37483,7 +37488,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="40" t="s">
         <v>6</v>
       </c>
@@ -37540,7 +37545,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="40" t="s">
         <v>7</v>
       </c>
@@ -37597,7 +37602,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="40" t="s">
         <v>8</v>
       </c>
@@ -37654,7 +37659,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="40" t="s">
         <v>9</v>
       </c>
@@ -37711,7 +37716,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="40" t="s">
         <v>10</v>
       </c>
@@ -37768,7 +37773,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="40" t="s">
         <v>11</v>
       </c>
@@ -37825,7 +37830,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="40" t="s">
         <v>12</v>
       </c>
@@ -37882,7 +37887,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="40" t="s">
         <v>13</v>
       </c>
@@ -37939,7 +37944,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="40" t="s">
         <v>14</v>
       </c>
@@ -37996,7 +38001,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="40" t="s">
         <v>15</v>
       </c>
@@ -38053,7 +38058,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="62" t="s">
         <v>101</v>
       </c>
       <c r="B82" s="41" t="s">
@@ -38112,7 +38117,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="41" t="s">
         <v>1</v>
       </c>
@@ -38169,7 +38174,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="41" t="s">
         <v>2</v>
       </c>
@@ -38226,7 +38231,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="41" t="s">
         <v>3</v>
       </c>
@@ -38283,7 +38288,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="41" t="s">
         <v>4</v>
       </c>
@@ -38340,7 +38345,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="41" t="s">
         <v>5</v>
       </c>
@@ -38397,7 +38402,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="41" t="s">
         <v>6</v>
       </c>
@@ -38454,7 +38459,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="41" t="s">
         <v>7</v>
       </c>
@@ -38511,7 +38516,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="41" t="s">
         <v>8</v>
       </c>
@@ -38568,7 +38573,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+      <c r="A91" s="62"/>
       <c r="B91" s="41" t="s">
         <v>9</v>
       </c>
@@ -38625,7 +38630,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="41" t="s">
         <v>10</v>
       </c>
@@ -38682,7 +38687,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="41" t="s">
         <v>11</v>
       </c>
@@ -38739,7 +38744,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="41" t="s">
         <v>12</v>
       </c>
@@ -38796,7 +38801,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="41" t="s">
         <v>13</v>
       </c>
@@ -38853,7 +38858,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="41" t="s">
         <v>14</v>
       </c>
@@ -38910,7 +38915,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="41" t="s">
         <v>15</v>
       </c>
@@ -38967,7 +38972,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="62" t="s">
         <v>102</v>
       </c>
       <c r="B98" s="56" t="s">
@@ -39026,7 +39031,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="56" t="s">
         <v>1</v>
       </c>
@@ -39083,7 +39088,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="56" t="s">
         <v>2</v>
       </c>
@@ -39140,7 +39145,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="56" t="s">
         <v>3</v>
       </c>
@@ -39197,7 +39202,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="56" t="s">
         <v>4</v>
       </c>
@@ -39254,7 +39259,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="56" t="s">
         <v>5</v>
       </c>
@@ -39311,7 +39316,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="56" t="s">
         <v>6</v>
       </c>
@@ -39368,7 +39373,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="56" t="s">
         <v>7</v>
       </c>
@@ -39425,7 +39430,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
+      <c r="A106" s="62"/>
       <c r="B106" s="56" t="s">
         <v>8</v>
       </c>
@@ -39482,7 +39487,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
+      <c r="A107" s="62"/>
       <c r="B107" s="56" t="s">
         <v>9</v>
       </c>
@@ -39539,7 +39544,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
+      <c r="A108" s="62"/>
       <c r="B108" s="56" t="s">
         <v>10</v>
       </c>
@@ -39596,7 +39601,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
+      <c r="A109" s="62"/>
       <c r="B109" s="56" t="s">
         <v>11</v>
       </c>
@@ -39653,7 +39658,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
+      <c r="A110" s="62"/>
       <c r="B110" s="56" t="s">
         <v>12</v>
       </c>
@@ -39710,7 +39715,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
+      <c r="A111" s="62"/>
       <c r="B111" s="56" t="s">
         <v>13</v>
       </c>
@@ -39767,7 +39772,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
+      <c r="A112" s="62"/>
       <c r="B112" s="56" t="s">
         <v>14</v>
       </c>
@@ -39824,7 +39829,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
+      <c r="A113" s="62"/>
       <c r="B113" s="56" t="s">
         <v>15</v>
       </c>
@@ -39881,7 +39886,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="61" t="s">
+      <c r="A114" s="62" t="s">
         <v>103</v>
       </c>
       <c r="B114" s="57" t="s">
@@ -39940,7 +39945,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
+      <c r="A115" s="62"/>
       <c r="B115" s="57" t="s">
         <v>1</v>
       </c>
@@ -39997,7 +40002,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
+      <c r="A116" s="62"/>
       <c r="B116" s="57" t="s">
         <v>2</v>
       </c>
@@ -40054,7 +40059,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
+      <c r="A117" s="62"/>
       <c r="B117" s="57" t="s">
         <v>3</v>
       </c>
@@ -40111,7 +40116,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
+      <c r="A118" s="62"/>
       <c r="B118" s="57" t="s">
         <v>4</v>
       </c>
@@ -40168,7 +40173,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
+      <c r="A119" s="62"/>
       <c r="B119" s="57" t="s">
         <v>5</v>
       </c>
@@ -40225,7 +40230,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
+      <c r="A120" s="62"/>
       <c r="B120" s="57" t="s">
         <v>6</v>
       </c>
@@ -40282,7 +40287,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
+      <c r="A121" s="62"/>
       <c r="B121" s="57" t="s">
         <v>7</v>
       </c>
@@ -40339,7 +40344,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
+      <c r="A122" s="62"/>
       <c r="B122" s="57" t="s">
         <v>8</v>
       </c>
@@ -40396,7 +40401,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="57" t="s">
         <v>9</v>
       </c>
@@ -40453,7 +40458,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="57" t="s">
         <v>10</v>
       </c>
@@ -40510,7 +40515,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="57" t="s">
         <v>11</v>
       </c>
@@ -40567,7 +40572,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="57" t="s">
         <v>12</v>
       </c>
@@ -40624,7 +40629,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="57" t="s">
         <v>13</v>
       </c>
@@ -40681,7 +40686,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="61"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="57" t="s">
         <v>14</v>
       </c>
@@ -40738,7 +40743,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
+      <c r="A129" s="62"/>
       <c r="B129" s="57" t="s">
         <v>15</v>
       </c>
@@ -40795,7 +40800,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="61" t="s">
+      <c r="A130" s="62" t="s">
         <v>104</v>
       </c>
       <c r="B130" s="58" t="s">
@@ -40854,7 +40859,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="58" t="s">
         <v>1</v>
       </c>
@@ -40911,7 +40916,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="58" t="s">
         <v>2</v>
       </c>
@@ -40968,7 +40973,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="58" t="s">
         <v>3</v>
       </c>
@@ -41025,7 +41030,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="58" t="s">
         <v>4</v>
       </c>
@@ -41082,7 +41087,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="58" t="s">
         <v>5</v>
       </c>
@@ -41139,7 +41144,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="61"/>
+      <c r="A136" s="62"/>
       <c r="B136" s="58" t="s">
         <v>6</v>
       </c>
@@ -41196,7 +41201,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="61"/>
+      <c r="A137" s="62"/>
       <c r="B137" s="58" t="s">
         <v>7</v>
       </c>
@@ -41253,7 +41258,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="61"/>
+      <c r="A138" s="62"/>
       <c r="B138" s="58" t="s">
         <v>8</v>
       </c>
@@ -41310,7 +41315,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
+      <c r="A139" s="62"/>
       <c r="B139" s="58" t="s">
         <v>9</v>
       </c>
@@ -41367,7 +41372,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="61"/>
+      <c r="A140" s="62"/>
       <c r="B140" s="58" t="s">
         <v>10</v>
       </c>
@@ -41424,7 +41429,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="61"/>
+      <c r="A141" s="62"/>
       <c r="B141" s="58" t="s">
         <v>11</v>
       </c>
@@ -41481,7 +41486,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="61"/>
+      <c r="A142" s="62"/>
       <c r="B142" s="58" t="s">
         <v>12</v>
       </c>
@@ -41538,7 +41543,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="61"/>
+      <c r="A143" s="62"/>
       <c r="B143" s="58" t="s">
         <v>13</v>
       </c>
@@ -41595,7 +41600,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="61"/>
+      <c r="A144" s="62"/>
       <c r="B144" s="58" t="s">
         <v>14</v>
       </c>
@@ -41652,7 +41657,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="61"/>
+      <c r="A145" s="62"/>
       <c r="B145" s="58" t="s">
         <v>15</v>
       </c>
@@ -41709,7 +41714,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="61" t="s">
+      <c r="A146" s="62" t="s">
         <v>105</v>
       </c>
       <c r="B146" s="60" t="s">
@@ -41768,7 +41773,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="61"/>
+      <c r="A147" s="62"/>
       <c r="B147" s="60" t="s">
         <v>1</v>
       </c>
@@ -41825,7 +41830,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="61"/>
+      <c r="A148" s="62"/>
       <c r="B148" s="60" t="s">
         <v>2</v>
       </c>
@@ -41882,7 +41887,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="61"/>
+      <c r="A149" s="62"/>
       <c r="B149" s="60" t="s">
         <v>3</v>
       </c>
@@ -41939,7 +41944,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="61"/>
+      <c r="A150" s="62"/>
       <c r="B150" s="60" t="s">
         <v>4</v>
       </c>
@@ -41996,7 +42001,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="61"/>
+      <c r="A151" s="62"/>
       <c r="B151" s="60" t="s">
         <v>5</v>
       </c>
@@ -42053,7 +42058,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="61"/>
+      <c r="A152" s="62"/>
       <c r="B152" s="60" t="s">
         <v>6</v>
       </c>
@@ -42110,7 +42115,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="61"/>
+      <c r="A153" s="62"/>
       <c r="B153" s="60" t="s">
         <v>7</v>
       </c>
@@ -42167,7 +42172,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="61"/>
+      <c r="A154" s="62"/>
       <c r="B154" s="60" t="s">
         <v>8</v>
       </c>
@@ -42224,7 +42229,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="61"/>
+      <c r="A155" s="62"/>
       <c r="B155" s="60" t="s">
         <v>9</v>
       </c>
@@ -42281,7 +42286,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="61"/>
+      <c r="A156" s="62"/>
       <c r="B156" s="60" t="s">
         <v>10</v>
       </c>
@@ -42338,7 +42343,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="61"/>
+      <c r="A157" s="62"/>
       <c r="B157" s="60" t="s">
         <v>11</v>
       </c>
@@ -42395,7 +42400,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="61"/>
+      <c r="A158" s="62"/>
       <c r="B158" s="60" t="s">
         <v>12</v>
       </c>
@@ -42452,7 +42457,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="61"/>
+      <c r="A159" s="62"/>
       <c r="B159" s="60" t="s">
         <v>13</v>
       </c>
@@ -42509,7 +42514,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="61"/>
+      <c r="A160" s="62"/>
       <c r="B160" s="60" t="s">
         <v>14</v>
       </c>
@@ -42566,7 +42571,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="61"/>
+      <c r="A161" s="62"/>
       <c r="B161" s="60" t="s">
         <v>15</v>
       </c>
@@ -42624,16 +42629,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
     <mergeCell ref="A146:A161"/>
     <mergeCell ref="A130:A145"/>
     <mergeCell ref="A114:A129"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42647,7 +42652,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42891,7 +42896,7 @@
         <v>6.1175191738631556</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:G11" si="1">30390/165590*100/3</f>
+        <f t="shared" ref="F10:G10" si="1">30390/165590*100/3</f>
         <v>6.1175191738631556</v>
       </c>
       <c r="G10">
@@ -42913,23 +42918,23 @@
         <v>17.866666666666667</v>
       </c>
       <c r="E11">
-        <v>2.2123456790123455</v>
+        <v>3.2123456790123499</v>
       </c>
       <c r="F11">
         <v>2.2123456790123455</v>
       </c>
       <c r="G11">
-        <v>2.2123456790123455</v>
+        <v>1.2123456790123499</v>
       </c>
       <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
@@ -42951,10 +42956,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N255"/>
+  <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:N47"/>
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43020,7 +43025,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -43060,7 +43065,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="51" t="s">
         <v>98</v>
       </c>
@@ -43096,7 +43101,7 @@
       <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="51" t="s">
         <v>99</v>
       </c>
@@ -43130,7 +43135,7 @@
       <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="51" t="s">
         <v>100</v>
       </c>
@@ -43164,7 +43169,7 @@
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="70" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="48" t="s">
@@ -43204,7 +43209,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="51" t="s">
         <v>98</v>
       </c>
@@ -43240,7 +43245,7 @@
       <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="51" t="s">
         <v>99</v>
       </c>
@@ -43274,7 +43279,7 @@
       <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="51" t="s">
         <v>100</v>
       </c>
@@ -43308,7 +43313,7 @@
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="70" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="48" t="s">
@@ -43348,7 +43353,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="51" t="s">
         <v>89</v>
       </c>
@@ -43382,7 +43387,7 @@
       <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="51" t="s">
         <v>91</v>
       </c>
@@ -43416,7 +43421,7 @@
       <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="53" t="s">
         <v>95</v>
       </c>
@@ -43450,7 +43455,7 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="74" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="48" t="s">
@@ -43490,7 +43495,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="51" t="s">
         <v>98</v>
       </c>
@@ -43526,7 +43531,7 @@
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="51" t="s">
         <v>99</v>
       </c>
@@ -43560,7 +43565,7 @@
       <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="51" t="s">
         <v>100</v>
       </c>
@@ -43594,7 +43599,7 @@
       <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="68" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -43634,7 +43639,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="51" t="s">
         <v>87</v>
       </c>
@@ -43672,7 +43677,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="51" t="s">
         <v>98</v>
       </c>
@@ -43708,7 +43713,7 @@
       <c r="N20" s="29"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="53" t="s">
         <v>99</v>
       </c>
@@ -43742,7 +43747,7 @@
       <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="53" t="s">
         <v>100</v>
       </c>
@@ -43776,7 +43781,7 @@
       <c r="N22" s="29"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="68" t="s">
         <v>101</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -43816,7 +43821,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="51" t="s">
         <v>87</v>
       </c>
@@ -43854,7 +43859,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="51" t="s">
         <v>98</v>
       </c>
@@ -43890,7 +43895,7 @@
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="53" t="s">
         <v>99</v>
       </c>
@@ -43924,7 +43929,7 @@
       <c r="N26" s="29"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="53" t="s">
         <v>100</v>
       </c>
@@ -43958,7 +43963,7 @@
       <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="68" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="48" t="s">
@@ -43998,7 +44003,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="51" t="s">
         <v>87</v>
       </c>
@@ -44036,7 +44041,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="51" t="s">
         <v>98</v>
       </c>
@@ -44072,7 +44077,7 @@
       <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="53" t="s">
         <v>99</v>
       </c>
@@ -44106,7 +44111,7 @@
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="53" t="s">
         <v>100</v>
       </c>
@@ -44140,7 +44145,7 @@
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="68" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="48" t="s">
@@ -44180,7 +44185,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="51" t="s">
         <v>87</v>
       </c>
@@ -44218,7 +44223,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="51" t="s">
         <v>98</v>
       </c>
@@ -44254,7 +44259,7 @@
       <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="53" t="s">
         <v>99</v>
       </c>
@@ -44288,7 +44293,7 @@
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="53" t="s">
         <v>100</v>
       </c>
@@ -44322,7 +44327,7 @@
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="68" t="s">
         <v>104</v>
       </c>
       <c r="B38" s="48" t="s">
@@ -44362,7 +44367,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="51" t="s">
         <v>87</v>
       </c>
@@ -44400,7 +44405,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="51" t="s">
         <v>98</v>
       </c>
@@ -44436,7 +44441,7 @@
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="53" t="s">
         <v>99</v>
       </c>
@@ -44470,7 +44475,7 @@
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="53" t="s">
         <v>100</v>
       </c>
@@ -44504,156 +44509,341 @@
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="68" t="s">
         <v>105</v>
       </c>
       <c r="B43" s="48" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
+        <v>106</v>
+      </c>
+      <c r="D43" s="50">
+        <v>0.95</v>
+      </c>
+      <c r="E43" s="55">
+        <v>1</v>
+      </c>
+      <c r="F43" s="55">
+        <v>1</v>
+      </c>
+      <c r="G43" s="55">
+        <v>1</v>
+      </c>
+      <c r="H43" s="55">
+        <v>1</v>
+      </c>
+      <c r="I43" s="55">
+        <v>1</v>
+      </c>
+      <c r="J43" s="49">
+        <v>0</v>
+      </c>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
+      <c r="M43" s="29">
+        <v>43899</v>
+      </c>
+      <c r="N43" s="29">
+        <v>43906</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="51" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+        <v>108</v>
+      </c>
+      <c r="D44" s="50">
+        <v>0.84</v>
+      </c>
+      <c r="E44" s="49">
+        <v>1</v>
+      </c>
+      <c r="F44" s="49">
+        <v>1</v>
+      </c>
+      <c r="G44" s="49">
+        <v>1</v>
+      </c>
+      <c r="H44" s="49">
+        <v>1</v>
+      </c>
+      <c r="I44" s="49">
+        <v>1</v>
+      </c>
+      <c r="J44" s="49">
+        <v>0</v>
+      </c>
       <c r="K44" s="52"/>
       <c r="L44" s="52"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
+      <c r="M44" s="29">
+        <v>43906</v>
+      </c>
+      <c r="N44" s="29">
+        <v>43931</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="51" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+        <v>110</v>
+      </c>
+      <c r="D45" s="50">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E45" s="49">
+        <v>1</v>
+      </c>
+      <c r="F45" s="49">
+        <v>1</v>
+      </c>
+      <c r="G45" s="49">
+        <v>1</v>
+      </c>
+      <c r="H45" s="49">
+        <v>1</v>
+      </c>
+      <c r="I45" s="49">
+        <v>1</v>
+      </c>
+      <c r="J45" s="49">
+        <v>0</v>
+      </c>
       <c r="K45" s="52"/>
       <c r="L45" s="52"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
+      <c r="M45" s="29">
+        <v>43931</v>
+      </c>
+      <c r="N45" s="29">
+        <v>43971</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="53" t="s">
+      <c r="A46" s="69"/>
+      <c r="B46" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="E46" s="49">
+        <v>1</v>
+      </c>
+      <c r="F46" s="49">
+        <v>1</v>
+      </c>
+      <c r="G46" s="49">
+        <v>1</v>
+      </c>
+      <c r="H46" s="49">
+        <v>1</v>
+      </c>
+      <c r="I46" s="49">
+        <v>1</v>
+      </c>
+      <c r="J46" s="49">
+        <v>0</v>
+      </c>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="29">
+        <v>43971</v>
+      </c>
+      <c r="N46" s="29">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+      <c r="B47" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="50">
+        <v>0.32</v>
+      </c>
+      <c r="E47" s="55">
+        <v>1</v>
+      </c>
+      <c r="F47" s="55">
+        <v>1</v>
+      </c>
+      <c r="G47" s="55">
+        <v>1</v>
+      </c>
+      <c r="H47" s="55">
+        <v>1</v>
+      </c>
+      <c r="I47" s="55">
+        <v>1</v>
+      </c>
+      <c r="J47" s="49">
+        <v>0</v>
+      </c>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="29">
+        <v>43983</v>
+      </c>
+      <c r="N47" s="29">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
+      <c r="B48" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="50">
+        <v>0.4</v>
+      </c>
+      <c r="E48" s="55">
+        <v>1</v>
+      </c>
+      <c r="F48" s="55">
+        <v>1</v>
+      </c>
+      <c r="G48" s="55">
+        <v>1</v>
+      </c>
+      <c r="H48" s="55">
+        <v>1</v>
+      </c>
+      <c r="I48" s="55">
+        <v>1</v>
+      </c>
+      <c r="J48" s="49">
+        <v>0</v>
+      </c>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="29">
+        <v>44020</v>
+      </c>
+      <c r="N48" s="29"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="69"/>
+      <c r="B49" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C49" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="53" t="s">
+      <c r="D49" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="E49" s="55">
+        <v>1</v>
+      </c>
+      <c r="F49" s="55">
+        <v>1</v>
+      </c>
+      <c r="G49" s="55">
+        <v>1</v>
+      </c>
+      <c r="H49" s="55">
+        <v>1</v>
+      </c>
+      <c r="I49" s="55">
+        <v>1</v>
+      </c>
+      <c r="J49" s="49">
+        <v>0</v>
+      </c>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="69"/>
+      <c r="B50" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C50" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="E50" s="49">
+        <v>1</v>
+      </c>
+      <c r="F50" s="49">
+        <v>1</v>
+      </c>
+      <c r="G50" s="49">
+        <v>1</v>
+      </c>
+      <c r="H50" s="49">
+        <v>1</v>
+      </c>
+      <c r="I50" s="49">
+        <v>1</v>
+      </c>
+      <c r="J50" s="49">
+        <v>0</v>
+      </c>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D51"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D52"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D53"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D54"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D55"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D56"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D57"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D58"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D59"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D60"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D61"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D62"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D63"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D64"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
@@ -45229,9 +45419,18 @@
     <row r="255" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D255"/>
     </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D258"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A43:A50"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -45254,8 +45453,8 @@
   </sheetPr>
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="P14:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45263,16 +45462,16 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="24" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
     <col min="17" max="17" width="13.140625" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" customWidth="1"/>
@@ -45986,7 +46185,7 @@
         <v>600</v>
       </c>
       <c r="S10">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -46015,11 +46214,11 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F11">
-        <f>429082/E11</f>
-        <v>4.2908200000000001</v>
+        <f>122500/E11</f>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -46043,7 +46242,7 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>100</v>
@@ -46052,19 +46251,19 @@
         <v>150</v>
       </c>
       <c r="Q11">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="R11">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="S11">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
       <c r="U11">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="V11">
         <v>3</v>
@@ -46134,7 +46333,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -46159,7 +46358,7 @@
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="30" t="s">
         <v>80</v>
       </c>
@@ -46178,7 +46377,7 @@
       <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -46203,7 +46402,7 @@
       <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="37" t="s">
         <v>80</v>
       </c>
@@ -46222,7 +46421,7 @@
       <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -46247,7 +46446,7 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="37" t="s">
         <v>80</v>
       </c>
@@ -46266,7 +46465,7 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="76" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -46291,7 +46490,7 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="37" t="s">
         <v>80</v>
       </c>
@@ -46310,7 +46509,7 @@
       <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="76" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="33" t="s">
@@ -46335,7 +46534,7 @@
       <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="37" t="s">
         <v>80</v>
       </c>
@@ -46354,7 +46553,7 @@
       <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="76" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="33" t="s">
@@ -46379,7 +46578,7 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="37" t="s">
         <v>80</v>
       </c>
@@ -46398,7 +46597,7 @@
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="76" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="33" t="s">
@@ -46423,7 +46622,7 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="37" t="s">
         <v>80</v>
       </c>
@@ -46442,7 +46641,7 @@
       <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="76" t="s">
         <v>103</v>
       </c>
       <c r="B16" s="33" t="s">
@@ -46467,7 +46666,7 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="37" t="s">
         <v>80</v>
       </c>
@@ -46486,7 +46685,7 @@
       <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="76" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -46511,7 +46710,7 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="37" t="s">
         <v>80</v>
       </c>
@@ -46530,7 +46729,7 @@
       <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="76" t="s">
         <v>105</v>
       </c>
       <c r="B20" s="33" t="s">
@@ -46555,7 +46754,7 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="37" t="s">
         <v>80</v>
       </c>
@@ -46575,16 +46774,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
